--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -4,88 +4,123 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="10500"/>
+    <workbookView windowWidth="21996" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="test" sheetId="2" r:id="rId1"/>
+    <sheet name="後続0" sheetId="4" r:id="rId2"/>
+    <sheet name="後続１" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>一か月シミュレーション</t>
+  </si>
+  <si>
+    <t>MersenneTwister(1234)</t>
+  </si>
+  <si>
+    <t>μ１</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>μ２</t>
+  </si>
+  <si>
+    <t>λ１</t>
+  </si>
+  <si>
+    <t>1/0.1</t>
+  </si>
+  <si>
+    <t>1/1</t>
+  </si>
+  <si>
+    <t>λ２</t>
+  </si>
+  <si>
+    <t>実行時間</t>
+  </si>
+  <si>
+    <t>0.000001s</t>
+  </si>
+  <si>
+    <t>0.000001 s</t>
+  </si>
+  <si>
+    <t>0.000002 s</t>
+  </si>
+  <si>
+    <t>chains</t>
+  </si>
+  <si>
+    <t>blocks</t>
+  </si>
+  <si>
+    <t>Aのblocks</t>
+  </si>
+  <si>
+    <t>破棄数</t>
+  </si>
+  <si>
+    <t>Aの破棄数</t>
+  </si>
+  <si>
+    <t>確率（破棄数/総数）</t>
+  </si>
+  <si>
+    <t>卒論結果</t>
+  </si>
+  <si>
+    <t>誤差</t>
+  </si>
   <si>
     <t>1週間シミュレーション</t>
   </si>
   <si>
-    <t>MersenneTwister(1234)</t>
-  </si>
-  <si>
-    <t>μ１</t>
-  </si>
-  <si>
-    <t>1/10</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>μ２</t>
-  </si>
-  <si>
-    <t>λ１</t>
-  </si>
-  <si>
-    <t>1/0.1</t>
-  </si>
-  <si>
-    <t>1/1</t>
-  </si>
-  <si>
-    <t>λ２</t>
-  </si>
-  <si>
-    <t>実行時間</t>
-  </si>
-  <si>
-    <t>0.000001s</t>
-  </si>
-  <si>
-    <t>0.000001 s</t>
-  </si>
-  <si>
-    <t>0.000002 s</t>
-  </si>
-  <si>
-    <t>chains</t>
-  </si>
-  <si>
-    <t>blocks</t>
-  </si>
-  <si>
-    <t>Aのblocks</t>
-  </si>
-  <si>
-    <t>破棄数</t>
-  </si>
-  <si>
-    <t>Aの破棄数</t>
-  </si>
-  <si>
-    <t>確率（破棄数/総数）</t>
-  </si>
-  <si>
-    <t>卒論結果</t>
-  </si>
-  <si>
-    <t>誤差</t>
-  </si>
-  <si>
     <t>MersenneTwister(5678)</t>
   </si>
   <si>
     <t>MersenneTwister(9999)</t>
+  </si>
+  <si>
+    <t>1000回シミュレーション</t>
+  </si>
+  <si>
+    <t>実行時間(シミュレーション)</t>
+  </si>
+  <si>
+    <t>実行時間（破棄数カウント）</t>
+  </si>
+  <si>
+    <t>95%信頼区間</t>
+  </si>
+  <si>
+    <t>174.226762 seconds (640.08 M allocations: 19.332 GiB, 16.29% gc time)</t>
+  </si>
+  <si>
+    <t>13248.224520 seconds (214.58 G allocations: 3.661 TiB, 15.01% gc time)</t>
+  </si>
+  <si>
+    <t>[0.009408447797245586,0.010012724620328924]</t>
+  </si>
+  <si>
+    <t>175.977845 seconds (639.94 M allocations: 19.325 GiB, 16.43% gc time)</t>
+  </si>
+  <si>
+    <t>11200.533853 seconds (218.08 G allocations: 3.717 TiB, 9.60% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0022954440264448127,0.0025992003009353555]</t>
   </si>
 </sst>
 </file>
@@ -128,15 +163,45 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -152,7 +217,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,24 +261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,32 +278,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,28 +291,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,181 +307,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,21 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -499,17 +519,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +546,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,7 +600,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,7 +609,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,125 +624,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +754,9 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1047,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
@@ -1068,19 +1106,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1088,19 +1126,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1108,19 +1146,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1128,19 +1166,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1148,19 +1186,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1168,19 +1206,19 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>8584</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>13060</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>8032</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>12275</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>11886</v>
       </c>
     </row>
@@ -1188,19 +1226,19 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>8662</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>13215</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>8732</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>13004</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>13097</v>
       </c>
     </row>
@@ -1208,19 +1246,19 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>4393</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>8835</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4376</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>8648</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>8629</v>
       </c>
     </row>
@@ -1228,7 +1266,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <f t="shared" ref="B10:F10" si="0">B8-B7</f>
         <v>78</v>
       </c>
@@ -1253,7 +1291,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>38</v>
       </c>
       <c r="C11">
@@ -1294,7 +1332,7 @@
         <v>0.0448487657897787</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" ht="15" customHeight="1" spans="1:6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1340,33 +1378,33 @@
       </c>
     </row>
     <row r="15" ht="13.8" spans="2:2">
-      <c r="B15" s="2"/>
+      <c r="B15" s="4"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1374,19 +1412,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1394,19 +1432,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="B21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1414,19 +1452,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="B22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,19 +1472,19 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1454,19 +1492,19 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>8618</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>12948</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>7978</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>12322</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>11858</v>
       </c>
     </row>
@@ -1474,19 +1512,19 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>8720</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>13124</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>8651</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>13105</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>13070</v>
       </c>
     </row>
@@ -1494,19 +1532,19 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>4392</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>8759</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>4252</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>8783</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>8580</v>
       </c>
     </row>
@@ -1514,7 +1552,7 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <f t="shared" ref="B27:F27" si="2">B25-B24</f>
         <v>102</v>
       </c>
@@ -1539,7 +1577,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>53</v>
       </c>
       <c r="C28">
@@ -1627,29 +1665,29 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1657,19 +1695,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1677,19 +1715,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5" t="s">
+      <c r="B38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1697,19 +1735,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1717,19 +1755,19 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1737,19 +1775,19 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="4">
         <v>8445</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="4">
         <v>12762</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="4">
         <v>7864</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>11960</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="4">
         <v>11819</v>
       </c>
     </row>
@@ -1757,19 +1795,19 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="4">
         <v>8557</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="4">
         <v>12929</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>8513</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>12673</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>13038</v>
       </c>
     </row>
@@ -1777,19 +1815,19 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="4">
         <v>4260</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="4">
         <v>8610</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>4361</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>8437</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>8662</v>
       </c>
     </row>
@@ -1797,7 +1835,7 @@
       <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="4">
         <f t="shared" ref="B44:F44" si="5">B42-B41</f>
         <v>112</v>
       </c>
@@ -1822,7 +1860,7 @@
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="4">
         <v>49</v>
       </c>
       <c r="C45">
@@ -1907,6 +1945,399 @@
         <f t="shared" si="7"/>
         <v>79.2611196836973</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="5" max="5" width="25.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="25.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="44.7777777777778" customWidth="1"/>
+    <col min="8" max="9" width="9.22222222222222"/>
+    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="11" max="11" width="9.22222222222222"/>
+    <col min="12" max="12" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.009852611</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="3">
+        <v>0.006508833</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5">
+        <v>0.087212607</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3">
+        <v>0.03033924</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7">
+        <v>0.053309266</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="2:7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="13.8" spans="2:11">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" ht="13.8" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="24.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="44.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3">
+        <v>9.921393e-5</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4"/>
+      <c r="H4">
+        <v>0.0090083</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5"/>
+      <c r="H5" s="3">
+        <v>8.695215e-5</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3">
+        <v>0.002236917</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7">
+        <v>0.006845108</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="2:7">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" ht="13.8" spans="2:7">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" ht="13.8" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21996" windowHeight="10500" activeTab="2"/>
+    <workbookView windowWidth="17580" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
     <sheet name="後続0" sheetId="4" r:id="rId2"/>
     <sheet name="後続１" sheetId="3" r:id="rId3"/>
+    <sheet name="3miner後続0" sheetId="5" r:id="rId4"/>
+    <sheet name="3miner後続1" sheetId="6" r:id="rId5"/>
+    <sheet name="比較まとめ" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>一か月シミュレーション</t>
   </si>
@@ -93,25 +96,204 @@
     <t>MersenneTwister(9999)</t>
   </si>
   <si>
+    <t>One subsequent block</t>
+  </si>
+  <si>
+    <t>Two subsequent blocks</t>
+  </si>
+  <si>
+    <t>後続に1個</t>
+  </si>
+  <si>
+    <t>Case1</t>
+  </si>
+  <si>
+    <t>[9.41e-3,1.00e-2]</t>
+  </si>
+  <si>
+    <t>[2.30e-3,2.60e-3]</t>
+  </si>
+  <si>
+    <t>Case2</t>
+  </si>
+  <si>
+    <t>[7.58e-2,7.75e-2]</t>
+  </si>
+  <si>
+    <t>[9.81e-3,1.02e-2]</t>
+  </si>
+  <si>
+    <t>Case3</t>
+  </si>
+  <si>
+    <t>[6.22e-3,6.56e-3]</t>
+  </si>
+  <si>
+    <t>[7.30e-5,9.70e-5]</t>
+  </si>
+  <si>
+    <t>Case4</t>
+  </si>
+  <si>
+    <t>[2.70e-2,2.77e-2]</t>
+  </si>
+  <si>
+    <t>[1.35e-3,1.53e-3]</t>
+  </si>
+  <si>
+    <t>Case5</t>
+  </si>
+  <si>
+    <t>[4.33e-2,4.40e-2]</t>
+  </si>
+  <si>
+    <t>[5.12e-3,5.28e-3]</t>
+  </si>
+  <si>
+    <t>後続に2個</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>上限</t>
+  </si>
+  <si>
+    <t>下限</t>
+  </si>
+  <si>
+    <t>解析値</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Four</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Six</t>
+  </si>
+  <si>
+    <t>実行時間(シミュレーション)</t>
+  </si>
+  <si>
+    <t>実行時間（破棄数カウント）</t>
+  </si>
+  <si>
+    <t>95%信頼区間</t>
+  </si>
+  <si>
+    <t>174.226762 seconds (640.08 M allocations: 19.332 GiB, 16.29% gc time)</t>
+  </si>
+  <si>
+    <t>13248.224520 seconds (214.58 G allocations: 3.661 TiB, 15.01% gc time)</t>
+  </si>
+  <si>
+    <t>[0.009408447797245586,0.010012724620328924]</t>
+  </si>
+  <si>
     <t>1000回シミュレーション</t>
   </si>
   <si>
-    <t>実行時間(シミュレーション)</t>
-  </si>
-  <si>
-    <t>実行時間（破棄数カウント）</t>
-  </si>
-  <si>
-    <t>95%信頼区間</t>
-  </si>
-  <si>
-    <t>174.226762 seconds (640.08 M allocations: 19.332 GiB, 16.29% gc time)</t>
-  </si>
-  <si>
-    <t>13248.224520 seconds (214.58 G allocations: 3.661 TiB, 15.01% gc time)</t>
-  </si>
-  <si>
-    <t>[0.009408447797245586,0.010012724620328924]</t>
+    <t>25.271296 seconds (96.36 M allocations: 2.902 GiB, 10.63% gc time)</t>
+  </si>
+  <si>
+    <t>2175.831617 seconds (28.46 G allocations: 505.563 GiB, 14.54% gc time)</t>
+  </si>
+  <si>
+    <t>[0.006223023446748869,0.006561870040189666]</t>
+  </si>
+  <si>
+    <t>1か月100回</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16.774161 seconds (64.73 M allocations: 1.954 GiB, 11.12% gc time)</t>
+  </si>
+  <si>
+    <t>1177.797094 seconds (16.58 G allocations: 298.393 GiB, 12.20% gc time)</t>
+  </si>
+  <si>
+    <t>[0.07578692071244984,0.07750152125832262]</t>
+  </si>
+  <si>
+    <t>100回</t>
+  </si>
+  <si>
+    <t>267.800181 seconds (965.68 M allocations: 28.941 GiB, 17.98% gc time)</t>
+  </si>
+  <si>
+    <t>19456.208976 seconds (314.29 G allocations: 5.295 TiB, 16.47% gc time)</t>
+  </si>
+  <si>
+    <t>[0.026992732524619877,0.02773640737730596]</t>
+  </si>
+  <si>
+    <t>1000回？</t>
+  </si>
+  <si>
+    <t>[0.04328902466471808,0.044047092998161314]</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.03266443156885345,0.03362003115647776]</t>
+  </si>
+  <si>
+    <t>25.309570 seconds (96.29 M allocations: 2.900 GiB, 10.61% gc time)</t>
+  </si>
+  <si>
+    <t>3216.440649 seconds (50.76 G allocations: 922.251 GiB, 9.64% gc time)</t>
+  </si>
+  <si>
+    <t>[0.025247142383604163,0.026355726141709182]</t>
+  </si>
+  <si>
+    <t>*1か月100回</t>
+  </si>
+  <si>
+    <t>1/5*2/3+1/10*1/3</t>
+  </si>
+  <si>
+    <t>21.638668 seconds (85.60 M allocations: 2.582 GiB, 9.80% gc time)</t>
+  </si>
+  <si>
+    <t>2637.119049 seconds (38.10 G allocations: 690.375 GiB, 14.56% gc time)</t>
+  </si>
+  <si>
+    <t>[0.01978439818900988,0.020718690539735324]</t>
+  </si>
+  <si>
+    <t>1/5+1/10</t>
+  </si>
+  <si>
+    <t>31.215361 seconds (130.05 M allocations: 3.966 GiB, 7.26% gc time)</t>
+  </si>
+  <si>
+    <t>5882.355802 seconds (98.57 G allocations: 1.759 TiB, 12.16% gc time)</t>
+  </si>
+  <si>
+    <t>[0.04206413444013086,0.04352525449548609]</t>
   </si>
   <si>
     <t>175.977845 seconds (639.94 M allocations: 19.325 GiB, 16.43% gc time)</t>
@@ -120,7 +302,237 @@
     <t>11200.533853 seconds (218.08 G allocations: 3.717 TiB, 9.60% gc time)</t>
   </si>
   <si>
+    <t>[5.9559991636538864e-5,0.00010739118698354986]</t>
+  </si>
+  <si>
+    <t>50.770260 seconds (144.64 M allocations: 4.367 GiB, 32.58% gc time)</t>
+  </si>
+  <si>
+    <t>3260.331890 seconds (52.65 G allocations: 917.112 GiB, 10.98% gc time)</t>
+  </si>
+  <si>
+    <t>[7.299019029083458e-5,9.697302161492542e-5]</t>
+  </si>
+  <si>
+    <t>*3か月シミュレーション、50回</t>
+  </si>
+  <si>
+    <t>24.606993 seconds (96.93 M allocations: 2.910 GiB, 10.88% gc time)</t>
+  </si>
+  <si>
+    <t>3789.045590 seconds (55.11 G allocations: 974.126 GiB, 15.66% gc time)</t>
+  </si>
+  <si>
+    <t>[0.00980527025442845,0.010227556404437425]</t>
+  </si>
+  <si>
+    <t>[0.0013471447541360472,0.00152886563521937]</t>
+  </si>
+  <si>
+    <t>[0.005123603277095277,0.005278610877047222]</t>
+  </si>
+  <si>
+    <t>60.991012 seconds (231.02 M allocations: 6.937 GiB, 10.41% gc time)</t>
+  </si>
+  <si>
+    <t>46789.936106 seconds (607.95 G allocations: 10.500 TiB, 9.76% gc time)</t>
+  </si>
+  <si>
+    <t>[7.468829951021917e-5,8.15334225332801e-5]</t>
+  </si>
+  <si>
+    <t>*2年10回</t>
+  </si>
+  <si>
     <t>[0.0022954440264448127,0.0025992003009353555]</t>
+  </si>
+  <si>
+    <t>[0.0005991380143406583,0.0005991380143406583]</t>
+  </si>
+  <si>
+    <t>2.743074 seconds (10.60 M allocations: 333.194 MiB, 5.12% gc time)</t>
+  </si>
+  <si>
+    <t>2172.099234 seconds (36.79 G allocations: 663.636 GiB, 5.87% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0002114286812616526,0.0002114286812616526]</t>
+  </si>
+  <si>
+    <t>*1年1回</t>
+  </si>
+  <si>
+    <t>4.758101 seconds (17.50 M allocations: 581.311 MiB, 3.77% gc time)</t>
+  </si>
+  <si>
+    <t>6234.284077 seconds (112.40 G allocations: 1.999 TiB, 5.55% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0005933355025168909,0.0005933355025168909]</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.00012232341686245235,0.00019192620155432827]</t>
+  </si>
+  <si>
+    <t>1/10+1/10</t>
+  </si>
+  <si>
+    <t>3.192282 seconds (11.87 M allocations: 371.910 MiB, 5.24% gc time)</t>
+  </si>
+  <si>
+    <t>3191.206306 seconds (51.96 G allocations: 940.211 GiB, 6.12% gc time)</t>
+  </si>
+  <si>
+    <t>[0.00028881700554528653,0.00028881700554528653]</t>
+  </si>
+  <si>
+    <t>μ３</t>
+  </si>
+  <si>
+    <t>λ３</t>
+  </si>
+  <si>
+    <t>4.409417 seconds (16.01 M allocations: 515.683 MiB, 5.81% gc time)</t>
+  </si>
+  <si>
+    <t>344.499253 seconds (5.08 G allocations: 92.249 GiB, 10.47% gc time)</t>
+  </si>
+  <si>
+    <t>[0.018734396737466547,0.019538873238497692]</t>
+  </si>
+  <si>
+    <t>*1か月シミュレーション、10回</t>
+  </si>
+  <si>
+    <t>28.988455 seconds (104.32 M allocations: 3.252 GiB, 7.81% gc time)</t>
+  </si>
+  <si>
+    <t>1798.599177 seconds (17.69 G allocations: 317.270 GiB, 31.55% gc time)</t>
+  </si>
+  <si>
+    <t>[0.006834212266201314,0.007215637289390526]</t>
+  </si>
+  <si>
+    <t>*1か月シミュレーション、50回</t>
+  </si>
+  <si>
+    <t>33.098252 seconds (105.19 M allocations: 3.266 GiB, 18.83% gc time)</t>
+  </si>
+  <si>
+    <t>1062.721155 seconds (16.67 G allocations: 298.980 GiB, 8.19% gc time)</t>
+  </si>
+  <si>
+    <t>[0.03627058736529163,0.03714596396483904]</t>
+  </si>
+  <si>
+    <t>20くらいにしないと多すぎる</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11.785740 seconds (42.87 M allocations: 1.322 GiB, 7.54% gc time)</t>
+  </si>
+  <si>
+    <t>780.369576 seconds (11.32 G allocations: 203.131 GiB, 13.45% gc time)</t>
+  </si>
+  <si>
+    <t>[0.08738014959649786,0.08892454768452392]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13.848780 seconds (52.33 M allocations: 1.631 GiB, 6.84% gc time)</t>
+  </si>
+  <si>
+    <t>1529.275065 seconds (25.64 G allocations: 462.748 GiB, 7.92% gc time)</t>
+  </si>
+  <si>
+    <t>[0.025556299964983833,0.02618590313435147]</t>
+  </si>
+  <si>
+    <t>56.828288 seconds (208.08 M allocations: 6.480 GiB, 8.57% gc time)</t>
+  </si>
+  <si>
+    <t>2798.314840 seconds (37.28 G allocations: 668.302 GiB, 16.51% gc time)</t>
+  </si>
+  <si>
+    <t>43.687147 seconds (156.24 M allocations: 4.857 GiB, 9.45% gc time)</t>
+  </si>
+  <si>
+    <t>2831.702058 seconds (34.33 G allocations: 623.650 GiB, 16.56% gc time)</t>
+  </si>
+  <si>
+    <t>56.363016 seconds (208.37 M allocations: 6.488 GiB, 9.47% gc time)</t>
+  </si>
+  <si>
+    <t>3682.665836 seconds (50.17 G allocations: 911.470 GiB, 13.66% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0001769547830465387,0.00023289919275149045]</t>
+  </si>
+  <si>
+    <t>54.865014 seconds (209.99 M allocations: 6.515 GiB, 8.75% gc time)</t>
+  </si>
+  <si>
+    <t>2870.475513 seconds (44.11 G allocations: 789.551 GiB, 11.02% gc time)</t>
+  </si>
+  <si>
+    <t>[0.006147485175397303,0.006490226231905673]</t>
+  </si>
+  <si>
+    <t>55.364374 seconds (213.84 M allocations: 6.568 GiB, 8.54% gc time)</t>
+  </si>
+  <si>
+    <t>2240.862068 seconds (39.56 G allocations: 707.659 GiB, 3.53% gc time)</t>
+  </si>
+  <si>
+    <t>[0.01005100135724614,0.010564664438747262]</t>
+  </si>
+  <si>
+    <t>24.723854 seconds (93.91 M allocations: 2.913 GiB, 8.19% gc time)</t>
+  </si>
+  <si>
+    <t>46629.089241 seconds (618.56 G allocations: 10.871 TiB, 12.28% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0003536920628285719,0.0003536920628285719]</t>
+  </si>
+  <si>
+    <t>*3年1回</t>
+  </si>
+  <si>
+    <t>6.478571 seconds (25.22 M allocations: 806.786 MiB, 4.35% gc time)</t>
+  </si>
+  <si>
+    <t>6384.417192 seconds (108.57 G allocations: 1.931 TiB, 7.80% gc time)</t>
+  </si>
+  <si>
+    <t>5.146881 seconds (19.16 M allocations: 615.415 MiB, 5.00% gc time)</t>
+  </si>
+  <si>
+    <t>3262.107924 seconds (51.03 G allocations: 923.444 GiB, 7.90% gc time)</t>
+  </si>
+  <si>
+    <t>[0.00019126675974982308,0.00019126675974982308]</t>
+  </si>
+  <si>
+    <t>後続に一個</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>後続に二個</t>
   </si>
 </sst>
 </file>
@@ -128,12 +540,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +560,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -156,7 +594,71 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,39 +680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,24 +693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,42 +716,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -301,55 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,31 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +780,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,55 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +929,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,11 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +974,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,23 +998,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,154 +1037,160 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -755,8 +1198,23 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -823,6 +1281,3184 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0546666666666667"/>
+          <c:y val="0.325694444444444"/>
+          <c:w val="0.888388888888889"/>
+          <c:h val="0.606342592592593"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$G$55:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0187343967374665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00683421226620131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0362705873652916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0873801495964978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0255562999649838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$H$55:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0195388732384976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00721563728939052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.037145963964839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0889245476845239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0261859031343514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543937971"/>
+        <c:axId val="343885947"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543937971"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343885947"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343885947"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543937971"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ja-JP"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>One subsequent block</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$B$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$84:$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$B$84:$B$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.044</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$84:$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$C$84:$C$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$D$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>解析値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$84:$A$88</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$D$84:$D$88</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.00985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0303</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0.053309266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="968543644"/>
+        <c:axId val="802308362"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="968543644"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802308362"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802308362"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="968543644"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ja-JP"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Two</a:t>
+            </a:r>
+            <a:r>
+              <a:t> subsequent block</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$B$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>上限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$93:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$B$93:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0001074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下限</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$93:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$C$93:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.956e-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.21e-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$D$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>解析値</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:strRef>
+              <c:f>test!$A$93:$A$97</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Case1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Case2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Case3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Case4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Case5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$D$93:$D$97</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.921393e-5</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>0.0090083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.695215e-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002236917</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>0.006845108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="140150465"/>
+        <c:axId val="966059169"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="140150465"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="966059169"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="966059169"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="140150465"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="ja-JP"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="335280" y="10472420"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3761740" y="13136880"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>599440</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3860800" y="16070580"/>
+        <a:ext cx="4572000" cy="2750820"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1083,15 +4719,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F13"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="7" width="12.8888888888889"/>
+    <col min="2" max="6" width="12.8888888888889"/>
+    <col min="7" max="7" width="14.3333333333333"/>
+    <col min="8" max="9" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1106,19 +4744,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1126,19 +4764,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1146,19 +4784,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1166,19 +4804,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1336,16 +4974,16 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>0.009852611</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>0.006508833</v>
       </c>
       <c r="D13">
         <v>0.087212607</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0.03033924</v>
       </c>
       <c r="F13">
@@ -1392,19 +5030,19 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1412,19 +5050,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="6" t="s">
+      <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1432,19 +5070,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1452,19 +5090,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1622,16 +5260,16 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>0.009852611</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <v>0.006508833</v>
       </c>
       <c r="D30">
         <v>0.087212607</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <v>0.03033924</v>
       </c>
       <c r="F30">
@@ -1675,19 +5313,19 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1695,19 +5333,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="6" t="s">
+      <c r="B37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1715,19 +5353,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1735,19 +5373,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="B39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="6" t="s">
+      <c r="E39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1905,16 +5543,16 @@
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
         <v>0.009852611</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <v>0.006508833</v>
       </c>
       <c r="D47">
         <v>0.087212607</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <v>0.03033924</v>
       </c>
       <c r="F47">
@@ -1946,19 +5584,613 @@
         <v>79.2611196836973</v>
       </c>
     </row>
+    <row r="54" spans="3:9">
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" ht="13.8" spans="2:9">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.0187343967374665</v>
+      </c>
+      <c r="H55">
+        <v>0.0195388732384976</v>
+      </c>
+      <c r="I55">
+        <f>AVERAGE(G55:H55)</f>
+        <v>0.019136634987982</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.00683421226620131</v>
+      </c>
+      <c r="H56">
+        <v>0.00721563728939052</v>
+      </c>
+      <c r="I56">
+        <f>AVERAGE(G56:H56)</f>
+        <v>0.00702492477779591</v>
+      </c>
+    </row>
+    <row r="57" ht="13.8" spans="2:9">
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.0362705873652916</v>
+      </c>
+      <c r="H57">
+        <v>0.037145963964839</v>
+      </c>
+      <c r="I57">
+        <f>AVERAGE(G57:H57)</f>
+        <v>0.0367082756650653</v>
+      </c>
+    </row>
+    <row r="58" ht="13.8" spans="2:9">
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.0873801495964978</v>
+      </c>
+      <c r="H58">
+        <v>0.0889245476845239</v>
+      </c>
+      <c r="I58">
+        <f>AVERAGE(G58:H58)</f>
+        <v>0.0881523486405109</v>
+      </c>
+    </row>
+    <row r="59" ht="13.8" spans="2:9">
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.0255562999649838</v>
+      </c>
+      <c r="H59">
+        <v>0.0261859031343514</v>
+      </c>
+      <c r="I59">
+        <f>AVERAGE(G59:H59)</f>
+        <v>0.0258711015496676</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9">
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" ht="13.8" spans="7:9">
+      <c r="G61" s="4">
+        <v>0.000122323416862452</v>
+      </c>
+      <c r="H61">
+        <v>0.000191926201554328</v>
+      </c>
+      <c r="I61">
+        <f>AVERAGE(G61:H61)</f>
+        <v>0.00015712480920839</v>
+      </c>
+    </row>
+    <row r="62" ht="13.8" spans="7:9">
+      <c r="G62" s="4">
+        <v>0.000176954783046538</v>
+      </c>
+      <c r="H62">
+        <v>0.00023289919275149</v>
+      </c>
+      <c r="I62">
+        <f>AVERAGE(G62:H62)</f>
+        <v>0.000204926987899014</v>
+      </c>
+    </row>
+    <row r="63" ht="13.8" spans="7:9">
+      <c r="G63" s="4">
+        <v>0.0061474851753973</v>
+      </c>
+      <c r="H63">
+        <v>0.00649022623190567</v>
+      </c>
+      <c r="I63">
+        <f>AVERAGE(G63:H63)</f>
+        <v>0.00631885570365149</v>
+      </c>
+    </row>
+    <row r="64" ht="13.8" spans="7:9">
+      <c r="G64" s="4">
+        <v>0.0100510013572461</v>
+      </c>
+      <c r="H64">
+        <v>0.0105646644387472</v>
+      </c>
+      <c r="I64">
+        <f>AVERAGE(G64:H64)</f>
+        <v>0.0103078328979966</v>
+      </c>
+    </row>
+    <row r="65" ht="13.8" spans="7:9">
+      <c r="G65" s="4">
+        <v>0.000353692062828571</v>
+      </c>
+      <c r="H65">
+        <v>0.000353692062828571</v>
+      </c>
+      <c r="I65">
+        <f>AVERAGE(G65:H65)</f>
+        <v>0.000353692062828571</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.00941</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.00985</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.0775</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0.0758</v>
+      </c>
+      <c r="D85" s="5">
+        <v>0.0872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.00656</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.00622</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.00651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.0277</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0.027</v>
+      </c>
+      <c r="D87" s="5">
+        <v>0.0303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0.044</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0.0433</v>
+      </c>
+      <c r="D88">
+        <v>0.053309266</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" t="s">
+        <v>46</v>
+      </c>
+      <c r="D92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.0001074</v>
+      </c>
+      <c r="C93" s="5">
+        <v>5.956e-5</v>
+      </c>
+      <c r="D93" s="5">
+        <v>9.921393e-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.0102</v>
+      </c>
+      <c r="C94" s="5">
+        <v>0.00981</v>
+      </c>
+      <c r="D94">
+        <v>0.0090083</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.000102</v>
+      </c>
+      <c r="C95" s="5">
+        <v>6.21e-5</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8.695215e-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.00153</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0.00135</v>
+      </c>
+      <c r="D96" s="5">
+        <v>0.002236917</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.00528</v>
+      </c>
+      <c r="C97" s="5">
+        <v>0.00512</v>
+      </c>
+      <c r="D97">
+        <v>0.006845108</v>
+      </c>
+    </row>
+    <row r="100" ht="13.8" spans="2:2">
+      <c r="B100" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="9">
+        <v>0.00985</v>
+      </c>
+      <c r="C114" s="9">
+        <v>0.0872</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0.00651</v>
+      </c>
+      <c r="E114" s="9">
+        <v>0.0303</v>
+      </c>
+      <c r="F114" s="10">
+        <v>0.0533</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" s="9">
+        <v>9.92e-5</v>
+      </c>
+      <c r="C115" s="9">
+        <v>0.00901</v>
+      </c>
+      <c r="D115" s="9">
+        <v>8.7e-5</v>
+      </c>
+      <c r="E115" s="9">
+        <v>0.00224</v>
+      </c>
+      <c r="F115" s="10">
+        <v>0.00685</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B116" s="9">
+        <v>9.9e-7</v>
+      </c>
+      <c r="C116" s="9">
+        <v>0.000875</v>
+      </c>
+      <c r="D116" s="9">
+        <v>1.16e-6</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0.000166</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0.000861</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="10">
+        <v>9.87e-9</v>
+      </c>
+      <c r="C117" s="10">
+        <v>8.44e-5</v>
+      </c>
+      <c r="D117" s="10">
+        <v>1.53e-8</v>
+      </c>
+      <c r="E117" s="10">
+        <v>1.23e-5</v>
+      </c>
+      <c r="F117" s="10">
+        <v>0.000108</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B118" s="10">
+        <v>9.84e-11</v>
+      </c>
+      <c r="C118" s="10">
+        <v>8.14e-6</v>
+      </c>
+      <c r="D118" s="10">
+        <v>2.04e-10</v>
+      </c>
+      <c r="E118" s="10">
+        <v>9.19e-7</v>
+      </c>
+      <c r="F118" s="10">
+        <v>1.36e-5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="10">
+        <v>9.82e-13</v>
+      </c>
+      <c r="C119" s="10">
+        <v>7.85e-7</v>
+      </c>
+      <c r="D119" s="10">
+        <v>2.7e-12</v>
+      </c>
+      <c r="E119" s="10">
+        <v>6.85e-8</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1.71e-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="9">
+        <v>0.00985</v>
+      </c>
+      <c r="C123" s="9">
+        <v>0.00651</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="9">
+        <v>9.92e-5</v>
+      </c>
+      <c r="C124" s="9">
+        <v>8.7e-5</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B125" s="9">
+        <v>9.9e-7</v>
+      </c>
+      <c r="C125" s="9">
+        <v>1.16e-6</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="10">
+        <v>9.87e-9</v>
+      </c>
+      <c r="C126" s="10">
+        <v>1.53e-8</v>
+      </c>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="10">
+        <v>9.84e-11</v>
+      </c>
+      <c r="C127" s="10">
+        <v>2.04e-10</v>
+      </c>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B128" s="10">
+        <v>9.82e-13</v>
+      </c>
+      <c r="C128" s="10">
+        <v>2.7e-12</v>
+      </c>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -1966,21 +6198,19 @@
     <col min="5" max="5" width="25.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="25.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="44.7777777777778" customWidth="1"/>
-    <col min="8" max="9" width="9.22222222222222"/>
+    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="9" max="9" width="9.22222222222222"/>
     <col min="10" max="10" width="12.8888888888889"/>
     <col min="11" max="11" width="9.22222222222222"/>
     <col min="12" max="12" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1997,118 +6227,152 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="13.8" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3">
+    <row r="3" ht="13.8" spans="1:9">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.009852611</v>
       </c>
-    </row>
-    <row r="4" ht="13.8" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="H4" s="3">
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="5">
         <v>0.006508833</v>
       </c>
-    </row>
-    <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H5">
         <v>0.087212607</v>
       </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:8">
-      <c r="A6" s="5" t="s">
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:9">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3">
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.03033924</v>
       </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H7">
         <v>0.053309266</v>
       </c>
@@ -2121,29 +6385,96 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" ht="13.8" spans="2:11">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" ht="13.8" spans="2:2">
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" ht="13.8" spans="2:2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+    <row r="9" ht="13.8" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" spans="1:7">
+      <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" spans="1:7">
+      <c r="A12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2154,17 +6485,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
     <col min="6" max="6" width="24.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="44.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2175,7 +6507,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2192,123 +6524,145 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="13.8" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="3">
+    <row r="3" ht="13.8" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="5">
         <v>9.921393e-5</v>
       </c>
-    </row>
-    <row r="4" ht="13.8" spans="1:8">
-      <c r="A4" s="5" t="s">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="13.8" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4"/>
-      <c r="H4">
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8.695215e-5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:8">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.0090083</v>
       </c>
     </row>
-    <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="6" ht="13.8" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5"/>
-      <c r="H5" s="3">
-        <v>8.695215e-5</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:8">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3">
+      <c r="G6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.002236917</v>
       </c>
-    </row>
-    <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="5" t="s">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" ht="13.8" spans="1:10">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H7">
         <v>0.006845108</v>
       </c>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" ht="13.8" spans="2:7">
       <c r="B8" s="4"/>
@@ -2324,20 +6678,905 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" ht="13.8" spans="2:2">
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="2:7">
+      <c r="B11" s="4"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" ht="13.8" spans="1:9">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8.695215e-5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" spans="1:10">
+      <c r="A13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="5">
+        <v>9.921393e-5</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" ht="13.8" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" ht="13.8" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" ht="13.8" spans="1:8">
+      <c r="A16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" spans="1:8">
+      <c r="A17" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" spans="1:8">
+      <c r="A20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="7" max="7" width="24.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="44.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:10">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" ht="13.8" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="7:9">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="13.8" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="2:3">
       <c r="B10" s="4"/>
-    </row>
-    <row r="11" ht="13.8" spans="2:2">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="2:3">
       <c r="B11" s="4"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="7" max="7" width="24.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="24.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="48.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" ht="13.8" spans="1:9">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" ht="13.8" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="7:9">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" ht="13.8" spans="1:9">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="2:3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" ht="13.8" spans="1:9">
+      <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="14.3333333333333"/>
+    <col min="4" max="5" width="8.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
+    <col min="8" max="11" width="9.33333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" spans="1:13">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:13">
+      <c r="A6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="6:8">
+      <c r="F7" s="3">
+        <v>0.000599138014340658</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.00059333550251689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="1:8">
+      <c r="A10" s="4"/>
+      <c r="G10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.000288817005545286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -244,6 +244,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/0.1)</t>
     </r>
     <r>
@@ -372,6 +378,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
     </r>
     <r>
@@ -540,10 +552,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -593,8 +605,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,33 +621,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,9 +637,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -673,13 +668,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -695,14 +683,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,7 +729,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,7 +750,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,19 +864,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,37 +906,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,109 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,9 +946,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,6 +994,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -967,30 +1014,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,17 +1041,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1037,149 +1049,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4744,19 +4753,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4764,19 +4773,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4784,19 +4793,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4804,19 +4813,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4824,19 +4833,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4844,19 +4853,19 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>8584</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>13060</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>8032</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>12275</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>11886</v>
       </c>
     </row>
@@ -4864,19 +4873,19 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>8662</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>13215</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>8732</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>13004</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>13097</v>
       </c>
     </row>
@@ -4884,19 +4893,19 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>4393</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8835</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>4376</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8648</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>8629</v>
       </c>
     </row>
@@ -4904,7 +4913,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f t="shared" ref="B10:F10" si="0">B8-B7</f>
         <v>78</v>
       </c>
@@ -4929,7 +4938,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>38</v>
       </c>
       <c r="C11">
@@ -4974,16 +4983,16 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>0.009852611</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.006508833</v>
       </c>
       <c r="D13">
         <v>0.087212607</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.03033924</v>
       </c>
       <c r="F13">
@@ -5016,7 +5025,7 @@
       </c>
     </row>
     <row r="15" ht="13.8" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
@@ -5030,19 +5039,19 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5050,19 +5059,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="B20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5070,19 +5079,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5090,19 +5099,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="B22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5110,19 +5119,19 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5130,19 +5139,19 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>8618</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>12948</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>7978</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>12322</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>11858</v>
       </c>
     </row>
@@ -5150,19 +5159,19 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>8720</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>13124</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>8651</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>13105</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>13070</v>
       </c>
     </row>
@@ -5170,19 +5179,19 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>4392</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>8759</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>4252</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>8783</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>8580</v>
       </c>
     </row>
@@ -5190,7 +5199,7 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <f t="shared" ref="B27:F27" si="2">B25-B24</f>
         <v>102</v>
       </c>
@@ -5215,7 +5224,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>53</v>
       </c>
       <c r="C28">
@@ -5260,16 +5269,16 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>0.009852611</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>0.006508833</v>
       </c>
       <c r="D30">
         <v>0.087212607</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>0.03033924</v>
       </c>
       <c r="F30">
@@ -5313,19 +5322,19 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5333,19 +5342,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="B37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5353,19 +5362,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="B38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5373,19 +5382,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="13" t="s">
+      <c r="B39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="13" t="s">
+      <c r="E39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5393,19 +5402,19 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5413,19 +5422,19 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <v>8445</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>12762</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>7864</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>11960</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>11819</v>
       </c>
     </row>
@@ -5433,19 +5442,19 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>8557</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>12929</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>8513</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>12673</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="3">
         <v>13038</v>
       </c>
     </row>
@@ -5453,19 +5462,19 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <v>4260</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>8610</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>4361</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>8437</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>8662</v>
       </c>
     </row>
@@ -5473,7 +5482,7 @@
       <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f t="shared" ref="B44:F44" si="5">B42-B41</f>
         <v>112</v>
       </c>
@@ -5498,7 +5507,7 @@
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="3">
         <v>49</v>
       </c>
       <c r="C45">
@@ -5543,16 +5552,16 @@
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>0.009852611</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>0.006508833</v>
       </c>
       <c r="D47">
         <v>0.087212607</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <v>0.03033924</v>
       </c>
       <c r="F47">
@@ -5608,7 +5617,7 @@
       <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>0.0187343967374665</v>
       </c>
       <c r="H55">
@@ -5629,7 +5638,7 @@
       <c r="D56" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>0.00683421226620131</v>
       </c>
       <c r="H56">
@@ -5650,7 +5659,7 @@
       <c r="D57" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <v>0.0362705873652916</v>
       </c>
       <c r="H57">
@@ -5671,7 +5680,7 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="3">
         <v>0.0873801495964978</v>
       </c>
       <c r="H58">
@@ -5692,7 +5701,7 @@
       <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="3">
         <v>0.0255562999649838</v>
       </c>
       <c r="H59">
@@ -5712,7 +5721,7 @@
       </c>
     </row>
     <row r="61" ht="13.8" spans="7:9">
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>0.000122323416862452</v>
       </c>
       <c r="H61">
@@ -5724,7 +5733,7 @@
       </c>
     </row>
     <row r="62" ht="13.8" spans="7:9">
-      <c r="G62" s="4">
+      <c r="G62" s="3">
         <v>0.000176954783046538</v>
       </c>
       <c r="H62">
@@ -5736,7 +5745,7 @@
       </c>
     </row>
     <row r="63" ht="13.8" spans="7:9">
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>0.0061474851753973</v>
       </c>
       <c r="H63">
@@ -5748,7 +5757,7 @@
       </c>
     </row>
     <row r="64" ht="13.8" spans="7:9">
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>0.0100510013572461</v>
       </c>
       <c r="H64">
@@ -5760,7 +5769,7 @@
       </c>
     </row>
     <row r="65" ht="13.8" spans="7:9">
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <v>0.000353692062828571</v>
       </c>
       <c r="H65">
@@ -5789,13 +5798,13 @@
       <c r="A84" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="4">
         <v>0.01</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="4">
         <v>0.00941</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>0.00985</v>
       </c>
     </row>
@@ -5803,13 +5812,13 @@
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="4">
         <v>0.0775</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="4">
         <v>0.0758</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>0.0872</v>
       </c>
     </row>
@@ -5817,13 +5826,13 @@
       <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="4">
         <v>0.00656</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="4">
         <v>0.00622</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>0.00651</v>
       </c>
     </row>
@@ -5831,13 +5840,13 @@
       <c r="A87" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="4">
         <v>0.0277</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="4">
         <v>0.027</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>0.0303</v>
       </c>
     </row>
@@ -5845,10 +5854,10 @@
       <c r="A88" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="4">
         <v>0.044</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="4">
         <v>0.0433</v>
       </c>
       <c r="D88">
@@ -5870,13 +5879,13 @@
       <c r="A93" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="4">
         <v>0.0001074</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="4">
         <v>5.956e-5</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>9.921393e-5</v>
       </c>
     </row>
@@ -5884,10 +5893,10 @@
       <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="4">
         <v>0.0102</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="4">
         <v>0.00981</v>
       </c>
       <c r="D94">
@@ -5898,13 +5907,13 @@
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="4">
         <v>0.000102</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="4">
         <v>6.21e-5</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>8.695215e-5</v>
       </c>
     </row>
@@ -5912,13 +5921,13 @@
       <c r="A96" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="4">
         <v>0.00153</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="4">
         <v>0.00135</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>0.002236917</v>
       </c>
     </row>
@@ -5926,10 +5935,10 @@
       <c r="A97" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="4">
         <v>0.00528</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="4">
         <v>0.00512</v>
       </c>
       <c r="D97">
@@ -5937,245 +5946,245 @@
       </c>
     </row>
     <row r="100" ht="13.8" spans="2:2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="8" t="s">
+      <c r="F113" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>0.00985</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="8">
         <v>0.0872</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="8">
         <v>0.00651</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="8">
         <v>0.0303</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="9">
         <v>0.0533</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>9.92e-5</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="8">
         <v>0.00901</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="8">
         <v>8.7e-5</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="8">
         <v>0.00224</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="9">
         <v>0.00685</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>9.9e-7</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="8">
         <v>0.000875</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="8">
         <v>1.16e-6</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="8">
         <v>0.000166</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="9">
         <v>0.000861</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="10">
+      <c r="B117" s="9">
         <v>9.87e-9</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>8.44e-5</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="9">
         <v>1.53e-8</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="9">
         <v>1.23e-5</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="9">
         <v>0.000108</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="10">
+      <c r="B118" s="9">
         <v>9.84e-11</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>8.14e-6</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="9">
         <v>2.04e-10</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="9">
         <v>9.19e-7</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="9">
         <v>1.36e-5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="10">
+      <c r="B119" s="9">
         <v>9.82e-13</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="9">
         <v>7.85e-7</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>2.7e-12</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="9">
         <v>6.85e-8</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="9">
         <v>1.71e-6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>0.00985</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="8">
         <v>0.00651</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="10"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="9"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>9.92e-5</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C124" s="8">
         <v>8.7e-5</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="10"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>9.9e-7</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C125" s="8">
         <v>1.16e-6</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="10"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="10">
+      <c r="B126" s="9">
         <v>9.87e-9</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>1.53e-8</v>
       </c>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="10">
+      <c r="B127" s="9">
         <v>9.84e-11</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>2.04e-10</v>
       </c>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="10">
+      <c r="B128" s="9">
         <v>9.82e-13</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>2.7e-12</v>
       </c>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6190,7 +6199,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -6240,28 +6249,28 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:9">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.009852611</v>
       </c>
       <c r="I3" t="s">
@@ -6269,28 +6278,28 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>0.006508833</v>
       </c>
       <c r="I4" t="s">
@@ -6298,25 +6307,25 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>67</v>
       </c>
       <c r="H5">
@@ -6327,28 +6336,28 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:9">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.03033924</v>
       </c>
       <c r="I6" t="s">
@@ -6356,21 +6365,21 @@
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H7">
@@ -6378,37 +6387,34 @@
       </c>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="13.8" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:9">
-      <c r="A10" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -6425,16 +6431,16 @@
       </c>
     </row>
     <row r="11" ht="13.8" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -6448,16 +6454,16 @@
       </c>
     </row>
     <row r="12" ht="13.8" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -6471,10 +6477,10 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6488,7 +6494,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -6537,55 +6543,55 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>9.921393e-5</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>8.695215e-5</v>
       </c>
       <c r="I4" t="s">
@@ -6593,126 +6599,126 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.0090083</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="D6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0.002236917</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H7">
         <v>0.006845108</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="13.8" spans="2:7">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:7">
       <c r="A10" s="1"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="13.8" spans="2:7">
-      <c r="B11" s="4"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" ht="13.8" spans="1:9">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>8.695215e-5</v>
       </c>
       <c r="I12" t="s">
@@ -6720,42 +6726,42 @@
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>9.921393e-5</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" ht="13.8" spans="1:10">
       <c r="A14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" ht="13.8" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -6763,16 +6769,16 @@
       </c>
     </row>
     <row r="16" ht="13.8" spans="1:8">
-      <c r="A16" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -6789,16 +6795,16 @@
       </c>
     </row>
     <row r="17" ht="13.8" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -6815,24 +6821,24 @@
       </c>
     </row>
     <row r="19" ht="13.8" spans="1:7">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" ht="13.8" spans="1:8">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -6911,31 +6917,31 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>123</v>
       </c>
       <c r="J3" t="s">
@@ -6943,31 +6949,31 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:10">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>127</v>
       </c>
       <c r="J4" t="s">
@@ -6975,31 +6981,31 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>131</v>
       </c>
       <c r="J5" t="s">
@@ -7010,86 +7016,86 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="13.8" spans="1:9">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="13.8" spans="1:10">
-      <c r="A9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -7106,19 +7112,19 @@
       </c>
     </row>
     <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" ht="13.8" spans="2:3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7180,149 +7186,149 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>154</v>
       </c>
       <c r="J7" t="s">
@@ -7330,27 +7336,27 @@
       </c>
     </row>
     <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="13.8" spans="1:9">
-      <c r="A9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -7364,26 +7370,26 @@
       </c>
     </row>
     <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="A11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -7397,11 +7403,11 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7412,10 +7418,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -7432,37 +7438,37 @@
       </c>
     </row>
     <row r="2" ht="13.8" spans="1:13">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
@@ -7480,102 +7486,149 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:13">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="4" spans="7:13">
+      <c r="G4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="J4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="7:8">
+      <c r="G5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="7:13">
       <c r="G6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="H6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" spans="6:8">
-      <c r="F7" s="3">
-        <v>0.000599138014340658</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="7:8">
       <c r="G7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.00059333550251689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" spans="1:8">
-      <c r="A10" s="4"/>
+      <c r="H7" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="1:13">
+      <c r="A10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.000288817005545286</v>
+      <c r="H10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="13.8" spans="6:8">
+      <c r="F11" s="3">
+        <v>0.000599138014340658</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.00059333550251689</v>
+      </c>
+    </row>
+    <row r="12" ht="13.8" spans="1:13">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.000211428681261652</v>
       </c>
     </row>
   </sheetData>

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17580" windowHeight="10500" activeTab="5"/>
+    <workbookView windowWidth="21480" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="後続１" sheetId="3" r:id="rId3"/>
     <sheet name="3miner後続0" sheetId="5" r:id="rId4"/>
     <sheet name="3miner後続1" sheetId="6" r:id="rId5"/>
-    <sheet name="比較まとめ" sheetId="7" r:id="rId6"/>
+    <sheet name="hikaku" sheetId="8" r:id="rId6"/>
+    <sheet name="BC" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
   <si>
     <t>一か月シミュレーション</t>
   </si>
@@ -266,40 +267,117 @@
     <t>[0.03266443156885345,0.03362003115647776]</t>
   </si>
   <si>
-    <t>25.309570 seconds (96.29 M allocations: 2.900 GiB, 10.61% gc time)</t>
-  </si>
-  <si>
-    <t>3216.440649 seconds (50.76 G allocations: 922.251 GiB, 9.64% gc time)</t>
-  </si>
-  <si>
-    <t>[0.025247142383604163,0.026355726141709182]</t>
-  </si>
-  <si>
     <t>*1か月100回</t>
   </si>
   <si>
     <t>1/5*2/3+1/10*1/3</t>
   </si>
   <si>
-    <t>21.638668 seconds (85.60 M allocations: 2.582 GiB, 9.80% gc time)</t>
-  </si>
-  <si>
-    <t>2637.119049 seconds (38.10 G allocations: 690.375 GiB, 14.56% gc time)</t>
-  </si>
-  <si>
-    <t>[0.01978439818900988,0.020718690539735324]</t>
-  </si>
-  <si>
     <t>1/5+1/10</t>
   </si>
   <si>
-    <t>31.215361 seconds (130.05 M allocations: 3.966 GiB, 7.26% gc time)</t>
-  </si>
-  <si>
-    <t>5882.355802 seconds (98.57 G allocations: 1.759 TiB, 12.16% gc time)</t>
-  </si>
-  <si>
-    <t>[0.04206413444013086,0.04352525449548609]</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/5,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.013698316678516733,0.014178114261418002]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/5,1/10,1/10,1/1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.05935448476806492,0.05975246865074451]</t>
+  </si>
+  <si>
+    <t>*半年十回</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.001,1/0.001)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.009522318823158796,0.010032418949919516]</t>
+  </si>
+  <si>
+    <t>*1か月20回</t>
+  </si>
+  <si>
+    <t>1/0.001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/5,1/5,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.025556299964983833,0.02618590313435147]</t>
+  </si>
+  <si>
+    <t>3/10</t>
   </si>
   <si>
     <t>175.977845 seconds (639.94 M allocations: 19.325 GiB, 16.43% gc time)</t>
@@ -430,25 +508,19 @@
     <t>*1か月シミュレーション、10回</t>
   </si>
   <si>
-    <t>28.988455 seconds (104.32 M allocations: 3.252 GiB, 7.81% gc time)</t>
-  </si>
-  <si>
-    <t>1798.599177 seconds (17.69 G allocations: 317.270 GiB, 31.55% gc time)</t>
-  </si>
-  <si>
-    <t>[0.006834212266201314,0.007215637289390526]</t>
+    <t>27.591457 seconds (104.32 M allocations: 3.252 GiB, 7.77% gc time)</t>
+  </si>
+  <si>
+    <t>2413.448994 seconds (35.43 G allocations: 635.517 GiB, 14.34% gc time)</t>
   </si>
   <si>
     <t>*1か月シミュレーション、50回</t>
   </si>
   <si>
-    <t>33.098252 seconds (105.19 M allocations: 3.266 GiB, 18.83% gc time)</t>
-  </si>
-  <si>
-    <t>1062.721155 seconds (16.67 G allocations: 298.980 GiB, 8.19% gc time)</t>
-  </si>
-  <si>
-    <t>[0.03627058736529163,0.03714596396483904]</t>
+    <t>33.059534 seconds (126.66 M allocations: 3.912 GiB, 6.98% gc time)</t>
+  </si>
+  <si>
+    <t>15808.546588 seconds (239.10 G allocations: 4.177 TiB, 4.04% gc time)</t>
   </si>
   <si>
     <t>20くらいにしないと多すぎる</t>
@@ -469,15 +541,18 @@
     <t>1529.275065 seconds (25.64 G allocations: 462.748 GiB, 7.92% gc time)</t>
   </si>
   <si>
-    <t>[0.025556299964983833,0.02618590313435147]</t>
-  </si>
-  <si>
     <t>56.828288 seconds (208.08 M allocations: 6.480 GiB, 8.57% gc time)</t>
   </si>
   <si>
     <t>2798.314840 seconds (37.28 G allocations: 668.302 GiB, 16.51% gc time)</t>
   </si>
   <si>
+    <t>8.493643 seconds (31.40 M allocations: 1005.777 MiB, 5.45% gc time)</t>
+  </si>
+  <si>
+    <t>661.127105 seconds (10.15 G allocations: 184.351 GiB, 11.37% gc time)</t>
+  </si>
+  <si>
     <t>43.687147 seconds (156.24 M allocations: 4.857 GiB, 9.45% gc time)</t>
   </si>
   <si>
@@ -538,13 +613,318 @@
     <t>[0.00019126675974982308,0.00019126675974982308]</t>
   </si>
   <si>
-    <t>後続に一個</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>後続に二個</t>
+    <t>BC間の遅延1/0.01</t>
+  </si>
+  <si>
+    <t>[0.036404635619643806,0.0375185941878611]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.001</t>
+  </si>
+  <si>
+    <t>[0.03742151442369306,0.03855180385316984]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.0001</t>
+  </si>
+  <si>
+    <t>[0.03751411845511342,0.03844448155555087]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.00001</t>
+  </si>
+  <si>
+    <t>[0.037438781322456996,0.03828691202822493]</t>
+  </si>
+  <si>
+    <t>速い方</t>
+  </si>
+  <si>
+    <t>遅い方</t>
+  </si>
+  <si>
+    <t>和</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>(1/5+1/10)/2</t>
+  </si>
+  <si>
+    <t>調和平均</t>
+  </si>
+  <si>
+    <t>1/7.5</t>
+  </si>
+  <si>
+    <t>blkrate</t>
+  </si>
+  <si>
+    <t>[0.015311327705870098,0.016014861189944427]</t>
+  </si>
+  <si>
+    <t>[0.01570386796921519,0.01634986650666575]</t>
+  </si>
+  <si>
+    <t>[0.015647201191325222,0.01636861635385708]</t>
+  </si>
+  <si>
+    <t>[0.01563129868369653,0.01635679104215532]</t>
+  </si>
+  <si>
+    <t>速い方・遅い方・平均</t>
+  </si>
+  <si>
+    <t>[0.061558685991213294,0.06221329137002157]</t>
+  </si>
+  <si>
+    <t>[0.06128625320022738,0.06217730862066293]</t>
+  </si>
+  <si>
+    <t>[0.0611591856848055,0.062028889897658555]</t>
+  </si>
+  <si>
+    <t>[0.06114884032387803,0.06202964134052834]</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.001,1/0.001)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.02138542831085432,0.02232045902439607]</t>
+  </si>
+  <si>
+    <t>[0.02166313703369308,0.022610327165907048]</t>
+  </si>
+  <si>
+    <t>速いマイナーの通信能力が低い場合</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/5,1/10,1/0.1,1/1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.10572309254403688,0.10762366213094642]</t>
+  </si>
+  <si>
+    <t>[0.004899150560585031,0.005314288306922859]</t>
+  </si>
+  <si>
+    <t>[0.12870652361545173,0.13077018630437046]</t>
+  </si>
+  <si>
+    <t>[0.005796285274823797,0.006196114897203496]</t>
+  </si>
+  <si>
+    <t>[0.12930577232305315,0.13137433732690382]</t>
+  </si>
+  <si>
+    <t>[0.0059997514211062985,0.006571252094081844]</t>
+  </si>
+  <si>
+    <t>[0.1292642844130095,0.13118096232068763]</t>
+  </si>
+  <si>
+    <t>[0.1291421883735724,0.13099844548763256]</t>
+  </si>
+  <si>
+    <t>BC間の遅延1/0.000001</t>
+  </si>
+  <si>
+    <t>[0.1293386466234709,0.13112437256535692]</t>
+  </si>
+  <si>
+    <t>速い方・遅延大</t>
+  </si>
+  <si>
+    <t>速い方・遅延小</t>
+  </si>
+  <si>
+    <t>速い方・遅延和</t>
+  </si>
+  <si>
+    <t>1.1/0.1</t>
+  </si>
+  <si>
+    <t>速い方・遅延平均</t>
+  </si>
+  <si>
+    <t>1.1/0.2</t>
+  </si>
+  <si>
+    <t>速い方・遅延調和平均</t>
+  </si>
+  <si>
+    <t>1/0.55</t>
+  </si>
+  <si>
+    <t>遅い方・遅延大</t>
+  </si>
+  <si>
+    <t>遅い方・遅延小</t>
+  </si>
+  <si>
+    <t>遅い方・遅延和</t>
+  </si>
+  <si>
+    <t>遅い方・遅延平均</t>
+  </si>
+  <si>
+    <t>遅い方・遅延調和平均</t>
+  </si>
+  <si>
+    <t>和・遅延大</t>
+  </si>
+  <si>
+    <t>和・遅延小</t>
+  </si>
+  <si>
+    <t>和・遅延和</t>
+  </si>
+  <si>
+    <t>和・遅延平均</t>
+  </si>
+  <si>
+    <t>和・遅延調和平均</t>
+  </si>
+  <si>
+    <t>平均・遅延大</t>
+  </si>
+  <si>
+    <t>3/20</t>
+  </si>
+  <si>
+    <t>平均・遅延小</t>
+  </si>
+  <si>
+    <t>平均・遅延和</t>
+  </si>
+  <si>
+    <t>平均・遅延平均</t>
+  </si>
+  <si>
+    <t>平均・遅延調和平均</t>
+  </si>
+  <si>
+    <t>調和平均・遅延大</t>
+  </si>
+  <si>
+    <t>調和平均・遅延小</t>
+  </si>
+  <si>
+    <t>調和平均・遅延和</t>
+  </si>
+  <si>
+    <t>調和平均・遅延平均</t>
+  </si>
+  <si>
+    <t>調和平均・遅延調和平均</t>
+  </si>
+  <si>
+    <t>blkrate・遅延大</t>
+  </si>
+  <si>
+    <t>blkrate・遅延小</t>
+  </si>
+  <si>
+    <t>blkrate・遅延和</t>
+  </si>
+  <si>
+    <t>blkrate・遅延平均</t>
+  </si>
+  <si>
+    <t>blkrate・遅延調和平均</t>
+  </si>
+  <si>
+    <t>速いマイナーの通信能力が高い場合</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>[0.05972744335636611,0.0612879335691594]</t>
+  </si>
+  <si>
+    <t>[0.0013718774380853391,0.001584832134433651]</t>
+  </si>
+  <si>
+    <t>[0.08290236471772708,0.08465239582052653]</t>
+  </si>
+  <si>
+    <t>[0.00233364612697775,0.0026439108860502373]</t>
+  </si>
+  <si>
+    <t>[0.08328215512487196,0.08479167343457596]</t>
+  </si>
+  <si>
+    <t>[0.002322731946482591,0.002643607354877036]</t>
+  </si>
+  <si>
+    <t>μB</t>
+  </si>
+  <si>
+    <t>μC</t>
+  </si>
+  <si>
+    <t>λB</t>
+  </si>
+  <si>
+    <t>λC</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>simtime</t>
+  </si>
+  <si>
+    <t>(チェーンの長さ/minute)</t>
   </si>
 </sst>
 </file>
@@ -552,12 +932,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +949,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="var(--jp-code-font-family)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <charset val="134"/>
     </font>
     <font>
@@ -592,22 +984,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,15 +1013,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,22 +1037,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -668,14 +1045,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,7 +1053,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,7 +1083,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,6 +1092,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,7 +1121,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +1142,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,67 +1304,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,103 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,26 +1333,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -998,7 +1370,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,24 +1425,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,186 +1441,216 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,6 +1712,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4470,6 +4896,52 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>609600</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Host Control  1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3779520" y="14470380"/>
+              <a:ext cx="609600" cy="175260"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -4753,19 +5225,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4773,19 +5245,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4793,19 +5265,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4813,19 +5285,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4833,19 +5305,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4853,19 +5325,19 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="9">
         <v>8584</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>13060</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>8032</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>12275</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>11886</v>
       </c>
     </row>
@@ -4873,19 +5345,19 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="9">
         <v>8662</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>13215</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>8732</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>13004</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>13097</v>
       </c>
     </row>
@@ -4893,19 +5365,19 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="9">
         <v>4393</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>8835</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>4376</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>8648</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>8629</v>
       </c>
     </row>
@@ -4913,7 +5385,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="9">
         <f t="shared" ref="B10:F10" si="0">B8-B7</f>
         <v>78</v>
       </c>
@@ -4938,7 +5410,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="9">
         <v>38</v>
       </c>
       <c r="C11">
@@ -4983,16 +5455,16 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="7">
         <v>0.009852611</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>0.006508833</v>
       </c>
       <c r="D13">
         <v>0.087212607</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>0.03033924</v>
       </c>
       <c r="F13">
@@ -5025,7 +5497,7 @@
       </c>
     </row>
     <row r="15" ht="13.8" spans="2:2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
@@ -5039,19 +5511,19 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5059,19 +5531,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="12" t="s">
+      <c r="B20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5079,19 +5551,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="B21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5099,19 +5571,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="12" t="s">
+      <c r="E22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5119,19 +5591,19 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5139,19 +5611,19 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>8618</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="9">
         <v>12948</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="9">
         <v>7978</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="9">
         <v>12322</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="9">
         <v>11858</v>
       </c>
     </row>
@@ -5159,19 +5631,19 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="9">
         <v>8720</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="9">
         <v>13124</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="9">
         <v>8651</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="9">
         <v>13105</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="9">
         <v>13070</v>
       </c>
     </row>
@@ -5179,19 +5651,19 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="9">
         <v>4392</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="9">
         <v>8759</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="9">
         <v>4252</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="9">
         <v>8783</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="9">
         <v>8580</v>
       </c>
     </row>
@@ -5199,7 +5671,7 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="9">
         <f t="shared" ref="B27:F27" si="2">B25-B24</f>
         <v>102</v>
       </c>
@@ -5224,7 +5696,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="9">
         <v>53</v>
       </c>
       <c r="C28">
@@ -5269,16 +5741,16 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="7">
         <v>0.009852611</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="7">
         <v>0.006508833</v>
       </c>
       <c r="D30">
         <v>0.087212607</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="7">
         <v>0.03033924</v>
       </c>
       <c r="F30">
@@ -5322,19 +5794,19 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5342,19 +5814,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="B37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5362,19 +5834,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="12" t="s">
+      <c r="B38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5382,19 +5854,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="B39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="20" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5402,19 +5874,19 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5422,19 +5894,19 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="9">
         <v>8445</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="9">
         <v>12762</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="9">
         <v>7864</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="9">
         <v>11960</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="9">
         <v>11819</v>
       </c>
     </row>
@@ -5442,19 +5914,19 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="9">
         <v>8557</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="9">
         <v>12929</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="9">
         <v>8513</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="9">
         <v>12673</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="9">
         <v>13038</v>
       </c>
     </row>
@@ -5462,19 +5934,19 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="9">
         <v>4260</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="9">
         <v>8610</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="9">
         <v>4361</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="9">
         <v>8437</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="9">
         <v>8662</v>
       </c>
     </row>
@@ -5482,7 +5954,7 @@
       <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="9">
         <f t="shared" ref="B44:F44" si="5">B42-B41</f>
         <v>112</v>
       </c>
@@ -5507,7 +5979,7 @@
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="9">
         <v>49</v>
       </c>
       <c r="C45">
@@ -5552,16 +6024,16 @@
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="7">
         <v>0.009852611</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="7">
         <v>0.006508833</v>
       </c>
       <c r="D47">
         <v>0.087212607</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="7">
         <v>0.03033924</v>
       </c>
       <c r="F47">
@@ -5617,7 +6089,7 @@
       <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="9">
         <v>0.0187343967374665</v>
       </c>
       <c r="H55">
@@ -5638,7 +6110,7 @@
       <c r="D56" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="13">
         <v>0.00683421226620131</v>
       </c>
       <c r="H56">
@@ -5659,7 +6131,7 @@
       <c r="D57" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="9">
         <v>0.0362705873652916</v>
       </c>
       <c r="H57">
@@ -5680,7 +6152,7 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="9">
         <v>0.0873801495964978</v>
       </c>
       <c r="H58">
@@ -5701,7 +6173,7 @@
       <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="9">
         <v>0.0255562999649838</v>
       </c>
       <c r="H59">
@@ -5721,7 +6193,7 @@
       </c>
     </row>
     <row r="61" ht="13.8" spans="7:9">
-      <c r="G61" s="3">
+      <c r="G61" s="9">
         <v>0.000122323416862452</v>
       </c>
       <c r="H61">
@@ -5733,7 +6205,7 @@
       </c>
     </row>
     <row r="62" ht="13.8" spans="7:9">
-      <c r="G62" s="3">
+      <c r="G62" s="9">
         <v>0.000176954783046538</v>
       </c>
       <c r="H62">
@@ -5745,7 +6217,7 @@
       </c>
     </row>
     <row r="63" ht="13.8" spans="7:9">
-      <c r="G63" s="3">
+      <c r="G63" s="9">
         <v>0.0061474851753973</v>
       </c>
       <c r="H63">
@@ -5757,7 +6229,7 @@
       </c>
     </row>
     <row r="64" ht="13.8" spans="7:9">
-      <c r="G64" s="3">
+      <c r="G64" s="9">
         <v>0.0100510013572461</v>
       </c>
       <c r="H64">
@@ -5769,7 +6241,7 @@
       </c>
     </row>
     <row r="65" ht="13.8" spans="7:9">
-      <c r="G65" s="3">
+      <c r="G65" s="9">
         <v>0.000353692062828571</v>
       </c>
       <c r="H65">
@@ -5798,13 +6270,13 @@
       <c r="A84" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="7">
         <v>0.01</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="7">
         <v>0.00941</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="7">
         <v>0.00985</v>
       </c>
     </row>
@@ -5812,13 +6284,13 @@
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="7">
         <v>0.0775</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="7">
         <v>0.0758</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="7">
         <v>0.0872</v>
       </c>
     </row>
@@ -5826,13 +6298,13 @@
       <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="7">
         <v>0.00656</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="7">
         <v>0.00622</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="7">
         <v>0.00651</v>
       </c>
     </row>
@@ -5840,13 +6312,13 @@
       <c r="A87" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="7">
         <v>0.0277</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="7">
         <v>0.027</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="7">
         <v>0.0303</v>
       </c>
     </row>
@@ -5854,10 +6326,10 @@
       <c r="A88" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="7">
         <v>0.044</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="7">
         <v>0.0433</v>
       </c>
       <c r="D88">
@@ -5879,13 +6351,13 @@
       <c r="A93" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="7">
         <v>0.0001074</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="7">
         <v>5.956e-5</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="7">
         <v>9.921393e-5</v>
       </c>
     </row>
@@ -5893,10 +6365,10 @@
       <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="7">
         <v>0.0102</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="7">
         <v>0.00981</v>
       </c>
       <c r="D94">
@@ -5907,13 +6379,13 @@
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="7">
         <v>0.000102</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="7">
         <v>6.21e-5</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="7">
         <v>8.695215e-5</v>
       </c>
     </row>
@@ -5921,13 +6393,13 @@
       <c r="A96" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="7">
         <v>0.00153</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="7">
         <v>0.00135</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="7">
         <v>0.002236917</v>
       </c>
     </row>
@@ -5935,10 +6407,10 @@
       <c r="A97" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="7">
         <v>0.00528</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="7">
         <v>0.00512</v>
       </c>
       <c r="D97">
@@ -5946,245 +6418,245 @@
       </c>
     </row>
     <row r="100" ht="13.8" spans="2:2">
-      <c r="B100" s="3"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="16">
         <v>0.00985</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="16">
         <v>0.0872</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="16">
         <v>0.00651</v>
       </c>
-      <c r="E114" s="8">
+      <c r="E114" s="16">
         <v>0.0303</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="17">
         <v>0.0533</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="16">
         <v>9.92e-5</v>
       </c>
-      <c r="C115" s="8">
+      <c r="C115" s="16">
         <v>0.00901</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="16">
         <v>8.7e-5</v>
       </c>
-      <c r="E115" s="8">
+      <c r="E115" s="16">
         <v>0.00224</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F115" s="17">
         <v>0.00685</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="16">
         <v>9.9e-7</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C116" s="16">
         <v>0.000875</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="16">
         <v>1.16e-6</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="16">
         <v>0.000166</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="17">
         <v>0.000861</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="9">
+      <c r="B117" s="17">
         <v>9.87e-9</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="17">
         <v>8.44e-5</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="17">
         <v>1.53e-8</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="17">
         <v>1.23e-5</v>
       </c>
-      <c r="F117" s="9">
+      <c r="F117" s="17">
         <v>0.000108</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B118" s="17">
         <v>9.84e-11</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="17">
         <v>8.14e-6</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="17">
         <v>2.04e-10</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="17">
         <v>9.19e-7</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="17">
         <v>1.36e-5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B119" s="17">
         <v>9.82e-13</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C119" s="17">
         <v>7.85e-7</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="17">
         <v>2.7e-12</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="17">
         <v>6.85e-8</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F119" s="17">
         <v>1.71e-6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="16">
         <v>0.00985</v>
       </c>
-      <c r="C123" s="8">
+      <c r="C123" s="16">
         <v>0.00651</v>
       </c>
-      <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="9"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="17"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="16">
         <v>9.92e-5</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C124" s="16">
         <v>8.7e-5</v>
       </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="9"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="17"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="16">
         <v>9.9e-7</v>
       </c>
-      <c r="C125" s="8">
+      <c r="C125" s="16">
         <v>1.16e-6</v>
       </c>
-      <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="17"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="17">
         <v>9.87e-9</v>
       </c>
-      <c r="C126" s="9">
+      <c r="C126" s="17">
         <v>1.53e-8</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="17">
         <v>9.84e-11</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C127" s="17">
         <v>2.04e-10</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="17">
         <v>9.82e-13</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="17">
         <v>2.7e-12</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6196,10 +6668,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -6241,7 +6713,7 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -6249,28 +6721,28 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>0.009852611</v>
       </c>
       <c r="I3" t="s">
@@ -6278,28 +6750,28 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>0.006508833</v>
       </c>
       <c r="I4" t="s">
@@ -6307,25 +6779,25 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="9" t="s">
         <v>67</v>
       </c>
       <c r="H5">
@@ -6336,28 +6808,28 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:9">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>0.03033924</v>
       </c>
       <c r="I6" t="s">
@@ -6365,21 +6837,21 @@
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>73</v>
       </c>
       <c r="H7">
@@ -6387,100 +6859,210 @@
       </c>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="13.8" spans="1:7">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="13.8" spans="1:5">
+      <c r="A9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="G9" s="3" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="E9" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:9">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="I10" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3" t="s">
+    </row>
+    <row r="11" ht="13.8" spans="1:7">
+      <c r="A11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="13.8" spans="1:7">
+      <c r="A12" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I10" t="s">
+      <c r="C12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="14" ht="13.8" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" ht="13.8" spans="1:7">
-      <c r="A11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="13.8" spans="1:5">
+      <c r="A15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.0194204672763194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.006508833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" ht="13.8" spans="1:7">
+      <c r="A18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" ht="13.8" spans="1:7">
-      <c r="A12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="19" ht="13.8" spans="1:5">
+      <c r="A19" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.0876303795868481</v>
+      </c>
+    </row>
+    <row r="21" ht="13.8" spans="1:7">
+      <c r="A21" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="3" t="s">
+    </row>
+    <row r="22" ht="13.8" spans="1:5">
+      <c r="A22" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="E22" s="9">
+        <v>0.0131635759811123</v>
+      </c>
+    </row>
+    <row r="24" ht="13.8" spans="1:5">
+      <c r="A24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" ht="13.8" spans="1:5">
+      <c r="A25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.0346770655733595</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6535,7 +7117,7 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -6543,315 +7125,315 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="7">
         <v>9.921393e-5</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="7">
         <v>8.695215e-5</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="E5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.0090083</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="D6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="7">
         <v>0.002236917</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>99</v>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="H7">
         <v>0.006845108</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="13.8" spans="2:7">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>90</v>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="13.8" spans="2:7">
-      <c r="B11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" ht="13.8" spans="1:9">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="7">
         <v>8.695215e-5</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="A13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="7">
         <v>9.921393e-5</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" ht="13.8" spans="1:10">
-      <c r="A14" s="1"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" ht="13.8" spans="1:7">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>105</v>
+      <c r="G15" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" spans="1:8">
-      <c r="A16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>108</v>
+      <c r="A16" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" ht="13.8" spans="1:8">
-      <c r="A17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="A17" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="19" ht="13.8" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>114</v>
+      <c r="A19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" ht="13.8" spans="1:8">
-      <c r="A20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="A20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>118</v>
       </c>
+      <c r="C20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -6863,10 +7445,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -6895,7 +7477,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -6904,7 +7486,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -6912,219 +7494,295 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>123</v>
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:10">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>127</v>
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:13">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
         <v>130</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="M5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" ht="13.8" spans="1:9">
+      <c r="A7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="7:9">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" ht="13.8" spans="1:10">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="2:3">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" ht="13.8" spans="1:9">
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" ht="13.8" spans="1:10">
+      <c r="A13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="H13" s="9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" ht="13.8" spans="1:9">
-      <c r="A7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" ht="13.8" spans="1:10">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" ht="13.8" spans="2:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="I13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="13.8" spans="1:10">
+      <c r="A14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7164,7 +7822,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -7173,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>54</v>
@@ -7181,233 +7839,233 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="4"/>
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="H4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="H5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="H6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>154</v>
       </c>
+      <c r="H7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" ht="13.8" spans="1:9">
-      <c r="A9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>105</v>
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="A11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>160</v>
       </c>
+      <c r="H11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7418,217 +8076,1767 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.3333333333333"/>
-    <col min="4" max="5" width="8.88888888888889" customWidth="1"/>
-    <col min="6" max="6" width="9.33333333333333" customWidth="1"/>
-    <col min="8" max="11" width="9.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="12.8888888888889"/>
+    <col min="6" max="8" width="14.3333333333333"/>
+    <col min="9" max="9" width="9.77777777777778"/>
+    <col min="15" max="15" width="9.22222222222222"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" ht="13.8" spans="2:8">
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" ht="13.8" spans="2:20">
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="M2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" ht="13.8" spans="2:20">
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="M3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" ht="13.8" spans="2:20">
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="M4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" ht="13.8" spans="2:20">
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="M5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" ht="13.8" spans="1:9">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.000354761227283131</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.71261843598288e-6</v>
+      </c>
+      <c r="I6" s="5">
+        <v>6.25810355088727e-8</v>
+      </c>
+    </row>
+    <row r="7" ht="13.8" spans="1:9">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.009852611</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9.87016768736725e-9</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="1:9">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.50785185595398e-7</v>
+      </c>
+    </row>
+    <row r="9" ht="13.8" spans="1:9">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.0176615993038843</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.000214915420375127</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.57092454028941e-6</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3.07484018184716e-8</v>
+      </c>
+    </row>
+    <row r="10" ht="13.8" spans="1:9">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.0149736107205459</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.000173111500567587</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1.97261859309119e-6</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" ht="13.8" spans="1:8">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f>BC!G4</f>
+        <v>0.292287297950888</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.0421247701318589</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.00065087224075265</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9.65268623738724e-6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" ht="13.8" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" ht="13.8" spans="2:20">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="4"/>
+      <c r="M14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" ht="13.8" spans="2:20">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4"/>
+      <c r="M15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" ht="13.8" spans="2:20">
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="M16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" ht="13.8" spans="2:20">
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="4"/>
+      <c r="M17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.006508833</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" ht="13.8" spans="1:6">
+      <c r="A19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.0194204672763194</v>
+      </c>
+    </row>
+    <row r="20" ht="13.8" spans="1:8">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <f>BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.0188590270292657</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.000378126531642115</v>
+      </c>
+      <c r="H20" s="5">
+        <v>7.44973084823355e-6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" ht="13.8" spans="2:8">
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" ht="13.8" spans="2:20">
+      <c r="B23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="M23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" ht="13.8" spans="2:20">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="M24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" ht="13.8" spans="2:20">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="M25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" ht="13.8" spans="2:20">
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="M26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" ht="13.8" spans="1:8">
+      <c r="A27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.0303392432168261</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" ht="13.8" spans="1:8">
+      <c r="A28" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.0876303795868481</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" ht="13.8" spans="1:8">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <f>BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.0852240504896488</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.00960603410511941</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.0010528999396369</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" ht="13.8" spans="2:8">
+      <c r="B31" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" ht="13.8" spans="2:8">
+      <c r="B32" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.0131635759811123</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" ht="13.8" spans="2:8">
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" ht="13.8" spans="2:8">
+      <c r="B35" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.0346770655733595</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="37" ht="13.8" spans="2:6">
+      <c r="B37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" ht="13.8" spans="2:20">
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" ht="13.8" spans="2:20">
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.009852611</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" ht="13.8" spans="1:6">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+    </row>
+    <row r="42" ht="13.8" spans="1:8">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <f>BC!G2</f>
+        <v>0.196097034984798</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.0253740486023668</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.00034319396856005</v>
+      </c>
+      <c r="H42" s="5">
+        <v>4.52911923775396e-6</v>
+      </c>
+    </row>
+    <row r="44" ht="13.8" spans="1:13">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K44"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" ht="13.8" spans="2:13">
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" ht="13.8" spans="2:20">
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" ht="13.8" spans="2:20">
+      <c r="B47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" ht="13.8" spans="2:20">
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" ht="13.8" spans="2:20">
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" ht="13.8" spans="1:8">
+      <c r="A50" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.132998632376696</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.0111022448946062</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.000833260261723595</v>
+      </c>
+    </row>
+    <row r="51" ht="13.8" spans="1:8">
+      <c r="A51" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.0260406537439864</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.000354761227283131</v>
+      </c>
+      <c r="H51" s="5">
+        <v>4.71261843598288e-6</v>
+      </c>
+    </row>
+    <row r="52" ht="13.8" spans="1:8">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.0248672166885579</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.000323074428367139</v>
+      </c>
+      <c r="H52" s="5">
+        <v>4.09745154061787e-6</v>
+      </c>
+    </row>
+    <row r="53" ht="13.8" spans="1:8">
+      <c r="A53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.0365184623902113</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.00070832226771833</v>
+      </c>
+      <c r="H53" s="5">
+        <v>1.32655814947102e-5</v>
+      </c>
+    </row>
+    <row r="54" ht="13.8" spans="1:8">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.0817930086632881</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.00384951053969914</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.000168588241900391</v>
+      </c>
+    </row>
+    <row r="55" ht="13.8" spans="1:8">
+      <c r="A55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.0515979468488606</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.0030029647000337</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.000168205675450791</v>
+      </c>
+    </row>
+    <row r="56" ht="13.8" spans="1:8">
+      <c r="A56" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.00985261140252574</v>
+      </c>
+      <c r="G56" s="5">
+        <v>9.92139306565054e-5</v>
+      </c>
+      <c r="H56" s="5">
+        <v>9.89621290084271e-7</v>
+      </c>
+    </row>
+    <row r="57" ht="13.8" spans="1:8">
+      <c r="A57" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.00940692289425339</v>
+      </c>
+      <c r="G57" s="5">
+        <v>9.0394181448123e-5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>8.60786572216551e-7</v>
+      </c>
+    </row>
+    <row r="58" ht="13.8" spans="1:8">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.0138440568433574</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.000197230832723091</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2.77302300847913e-6</v>
+      </c>
+    </row>
+    <row r="59" ht="13.8" spans="1:8">
+      <c r="A59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>211</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.0313369495786809</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.001054136638148</v>
+      </c>
+      <c r="H59" s="5">
+        <v>3.45260959879863e-5</v>
+      </c>
+    </row>
+    <row r="60" ht="13.8" spans="1:8">
+      <c r="A60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.215041661885566</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.0217786462530999</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.00184369930867341</v>
+      </c>
+    </row>
+    <row r="61" ht="13.8" spans="1:8">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.0434851977115885</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.000677170303621994</v>
+      </c>
+      <c r="H61" s="5">
+        <v>1.01080200179584e-5</v>
+      </c>
+    </row>
+    <row r="62" ht="13.8" spans="1:8">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.0415363611249548</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.000616406299788715</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8.78509093887991e-6</v>
+      </c>
+    </row>
+    <row r="63" ht="13.8" spans="1:8">
+      <c r="A63" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.0608217857885321</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.00135769826642413</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2.8576708921136e-5</v>
+      </c>
+    </row>
+    <row r="64" ht="13.8" spans="1:8">
+      <c r="A64" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.134397696490344</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.00748607348507301</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.000369504306732009</v>
+      </c>
+    </row>
+    <row r="65" ht="13.8" spans="1:8">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.0914766308633076</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.00662090168770224</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.000446255634629765</v>
+      </c>
+    </row>
+    <row r="66" ht="13.8" spans="1:8">
+      <c r="A66" t="s">
+        <v>224</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.0176615993038843</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.000214915420375127</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2.57092454028941e-6</v>
+      </c>
+    </row>
+    <row r="67" ht="13.8" spans="1:8">
+      <c r="A67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.0168639466336086</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.000195764545404867</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2.23577382582583e-6</v>
+      </c>
+    </row>
+    <row r="68" ht="13.8" spans="1:8">
+      <c r="A68" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.0247956353085708</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.000428181836377749</v>
+      </c>
+      <c r="H68" s="5">
+        <v>7.22065073773685e-6</v>
+      </c>
+    </row>
+    <row r="69" ht="13.8" spans="1:8">
+      <c r="A69" t="s">
+        <v>227</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.0558644960260217</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.00230847372307056</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9.08698660509845e-5</v>
+      </c>
+    </row>
+    <row r="70" ht="13.8" spans="1:8">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.0778738254589315</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.00530303673819578</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.000340117919056566</v>
+      </c>
+    </row>
+    <row r="71" ht="13.8" spans="1:8">
+      <c r="A71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.0149736107205459</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.000173111500567587</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1.97261859309119e-6</v>
+      </c>
+    </row>
+    <row r="72" ht="13.8" spans="1:8">
+      <c r="A72" t="s">
+        <v>230</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.0142969323461873</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.000157697932481938</v>
+      </c>
+      <c r="H72" s="5">
+        <v>1.71557954757973e-6</v>
+      </c>
+    </row>
+    <row r="73" ht="13.8" spans="1:8">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.0210286260135363</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.000344643481420623</v>
+      </c>
+      <c r="H73" s="5">
+        <v>5.53603522200757e-6</v>
+      </c>
+    </row>
+    <row r="74" ht="13.8" spans="1:8">
+      <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>211</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.0474596426672601</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.00185286995790357</v>
+      </c>
+      <c r="H74" s="5">
+        <v>6.94285939867944e-5</v>
+      </c>
+    </row>
+    <row r="75" ht="13.8" spans="1:8">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
+        <f>BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.185379431424625</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.0176476145970951</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.00144268733210044</v>
+      </c>
+    </row>
+    <row r="76" ht="13.8" spans="1:8">
+      <c r="A76" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
+        <f>BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.0370299839683661</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.000553953796306073</v>
+      </c>
+      <c r="H76" s="5">
+        <v>7.99400597943622e-6</v>
+      </c>
+    </row>
+    <row r="77" ht="13.8" spans="1:8">
+      <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10">
+        <f>BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.0353669411973146</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.00050432988240496</v>
+      </c>
+      <c r="H77" s="5">
+        <v>6.94875673383692e-6</v>
+      </c>
+    </row>
+    <row r="78" ht="13.8" spans="1:8">
+      <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10">
+        <f>BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.0518452041184044</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.00110897753788579</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2.25647747423338e-5</v>
+      </c>
+    </row>
+    <row r="79" ht="13.8" spans="1:8">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
+        <f>BC!G3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.115152140804561</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.00608362937736228</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.00029001993201436</v>
+      </c>
+    </row>
+    <row r="82" ht="13.8" spans="1:10">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" ht="13.8" spans="2:10">
+      <c r="B83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" ht="13.8" spans="2:10">
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId3">
+          <controlPr defaultSize="0">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="7" max="8" width="12.8888888888889"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" ht="13.8" spans="1:13">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <f>(8583+8593+8594+8487+8672)/5</f>
+        <v>8585.8</v>
+      </c>
+      <c r="F2">
+        <f>60*24*30</f>
+        <v>43200</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.196097034984798</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:7">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="7:13">
-      <c r="G4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="B3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>(12274+12312+12202+11974+12232+12234)/6</f>
+        <v>12204.6666666667</v>
+      </c>
+      <c r="F3">
+        <f>60*24*30</f>
+        <v>43200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.263321960714897</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:7">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" ht="13.8" spans="7:8">
-      <c r="G5" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" ht="13.8" spans="7:13">
-      <c r="G6" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" ht="13.8" spans="7:8">
-      <c r="G7" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" ht="13.8" spans="1:13">
-      <c r="A10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" ht="13.8" spans="6:8">
-      <c r="F11" s="3">
-        <v>0.000599138014340658</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.00059333550251689</v>
-      </c>
-    </row>
-    <row r="12" ht="13.8" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" ht="13.8" spans="1:8">
-      <c r="A13" s="3"/>
-      <c r="G13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.000211428681261652</v>
+      <c r="B4" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f>(12976+12934+12702+12998+12885)/5</f>
+        <v>12899</v>
+      </c>
+      <c r="F4">
+        <v>43200</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.292287297950888</v>
       </c>
     </row>
   </sheetData>

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21480" windowHeight="10500" activeTab="5"/>
+    <workbookView windowWidth="21480" windowHeight="10440" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
   <si>
     <t>一か月シミュレーション</t>
   </si>
@@ -688,44 +688,22 @@
     <t>[0.06114884032387803,0.06202964134052834]</t>
   </si>
   <si>
-    <r>
-      <t>(1/10,1/10,1/10,1/0.1,1/0.001,1/0.001)</t>
-    </r>
+    <t>[0.02138542831085432,0.02232045902439607]</t>
+  </si>
+  <si>
+    <t>[0.02166313703369308,0.022610327165907048]</t>
+  </si>
+  <si>
+    <t>速いマイナーの通信能力が低い場合</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
+        <rFont val="var(--jp-code-font-family)"/>
         <charset val="134"/>
       </rPr>
-      <t>と比較</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <charset val="134"/>
-      </rPr>
-      <t>と比較</t>
-    </r>
-  </si>
-  <si>
-    <t>[0.02138542831085432,0.02232045902439607]</t>
-  </si>
-  <si>
-    <t>[0.02166313703369308,0.022610327165907048]</t>
-  </si>
-  <si>
-    <t>速いマイナーの通信能力が低い場合</t>
-  </si>
-  <si>
-    <r>
       <t>(1/10,1/5,1/10,1/0.1,1/1,1/0.1)</t>
     </r>
     <r>
@@ -875,6 +853,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
       <t>(1/10,1/5,1/10,1/0.1,1/0.1,1/1)</t>
     </r>
     <r>
@@ -906,6 +890,383 @@
     <t>[0.002322731946482591,0.002643607354877036]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1/10,1/10,1/10,1/0.1,1/0.1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を基準に二者間の解析をする。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μB&amp;C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>blkrate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を採用、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="var(--jp-code-font-family)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λB&amp;C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>は手探りで</t>
+    </r>
+  </si>
+  <si>
+    <t>A-BC間の遅延パラメータ</t>
+  </si>
+  <si>
+    <t>破棄される確率</t>
+  </si>
+  <si>
+    <t>1/0.01</t>
+  </si>
+  <si>
+    <t>1/0.02</t>
+  </si>
+  <si>
+    <t>1/0.03</t>
+  </si>
+  <si>
+    <t>1/0.04</t>
+  </si>
+  <si>
+    <t>1/0.041</t>
+  </si>
+  <si>
+    <t>1/0.042</t>
+  </si>
+  <si>
+    <t>1/0.043</t>
+  </si>
+  <si>
+    <t>1/0.044</t>
+  </si>
+  <si>
+    <t>1/0.0441</t>
+  </si>
+  <si>
+    <t>1/0.0442</t>
+  </si>
+  <si>
+    <t>1/0.0443</t>
+  </si>
+  <si>
+    <t>1/0.0444</t>
+  </si>
+  <si>
+    <t>1/0.0445</t>
+  </si>
+  <si>
+    <t>1/0.0446</t>
+  </si>
+  <si>
+    <t>1/0.0447</t>
+  </si>
+  <si>
+    <t>1/0.0448</t>
+  </si>
+  <si>
+    <t>1/0.0449</t>
+  </si>
+  <si>
+    <t>1/0.045</t>
+  </si>
+  <si>
+    <t>1/0.0451</t>
+  </si>
+  <si>
+    <t>1/0.0452</t>
+  </si>
+  <si>
+    <t>1/0.0453</t>
+  </si>
+  <si>
+    <t>1/0.0454</t>
+  </si>
+  <si>
+    <t>1/0.0455</t>
+  </si>
+  <si>
+    <t>1/0.0456</t>
+  </si>
+  <si>
+    <t>1/0.0457</t>
+  </si>
+  <si>
+    <t>1/0.0458</t>
+  </si>
+  <si>
+    <t>1/0.0459</t>
+  </si>
+  <si>
+    <t>1/0.046</t>
+  </si>
+  <si>
+    <t>1/0.0461</t>
+  </si>
+  <si>
+    <t>1/0.0462</t>
+  </si>
+  <si>
+    <t>1/0.0463</t>
+  </si>
+  <si>
+    <t>1/0.0464</t>
+  </si>
+  <si>
+    <t>1/0.0465</t>
+  </si>
+  <si>
+    <t>1/0.0466</t>
+  </si>
+  <si>
+    <t>1/0.0467</t>
+  </si>
+  <si>
+    <t>1/0.0468</t>
+  </si>
+  <si>
+    <t>1/0.0469</t>
+  </si>
+  <si>
+    <t>1/0.047</t>
+  </si>
+  <si>
+    <t>1/0.0471</t>
+  </si>
+  <si>
+    <t>1/0.0472</t>
+  </si>
+  <si>
+    <t>1/0.0473</t>
+  </si>
+  <si>
+    <t>1/0.0474</t>
+  </si>
+  <si>
+    <t>1/0.0475</t>
+  </si>
+  <si>
+    <t>1/0.0476</t>
+  </si>
+  <si>
+    <t>1/0.0477</t>
+  </si>
+  <si>
+    <t>1/0.0478</t>
+  </si>
+  <si>
+    <t>1/0.0479</t>
+  </si>
+  <si>
+    <t>1/0.048</t>
+  </si>
+  <si>
+    <t>1/0.0481</t>
+  </si>
+  <si>
+    <t>1/0.0482</t>
+  </si>
+  <si>
+    <t>1/0.0483</t>
+  </si>
+  <si>
+    <t>1/0.0484</t>
+  </si>
+  <si>
+    <t>1/0.0485</t>
+  </si>
+  <si>
+    <t>1/0.0486</t>
+  </si>
+  <si>
+    <t>1/0.0487</t>
+  </si>
+  <si>
+    <t>1/0.0488</t>
+  </si>
+  <si>
+    <t>1/0.0489</t>
+  </si>
+  <si>
+    <t>1/0.049</t>
+  </si>
+  <si>
+    <t>1/0.0491</t>
+  </si>
+  <si>
+    <t>1/0.0492</t>
+  </si>
+  <si>
+    <t>1/0.0493</t>
+  </si>
+  <si>
+    <t>1/0.0494</t>
+  </si>
+  <si>
+    <t>1/0.0495</t>
+  </si>
+  <si>
+    <t>1/0.0496</t>
+  </si>
+  <si>
+    <t>1/0.0497</t>
+  </si>
+  <si>
+    <t>1/0.0498</t>
+  </si>
+  <si>
+    <t>1/0.0499</t>
+  </si>
+  <si>
+    <t>1/0.05</t>
+  </si>
+  <si>
+    <t>1/0.0501</t>
+  </si>
+  <si>
+    <t>1/0.0502</t>
+  </si>
+  <si>
+    <t>1/0.0503</t>
+  </si>
+  <si>
+    <t>1/0.0504</t>
+  </si>
+  <si>
+    <t>1/0.0505</t>
+  </si>
+  <si>
+    <t>1/0.0506</t>
+  </si>
+  <si>
+    <t>1/0.0507</t>
+  </si>
+  <si>
+    <t>1/0.0508</t>
+  </si>
+  <si>
+    <t>1/0.0509</t>
+  </si>
+  <si>
+    <t>1/0.051</t>
+  </si>
+  <si>
+    <t>1/0.0511</t>
+  </si>
+  <si>
+    <t>1/0.0512</t>
+  </si>
+  <si>
+    <t>1/0.0513</t>
+  </si>
+  <si>
+    <t>1/0.0514</t>
+  </si>
+  <si>
+    <t>1/0.0515</t>
+  </si>
+  <si>
+    <t>1/0.0516</t>
+  </si>
+  <si>
+    <t>1/0.0517</t>
+  </si>
+  <si>
+    <t>1/0.0518</t>
+  </si>
+  <si>
+    <t>1/0.0519</t>
+  </si>
+  <si>
+    <t>1/0.052</t>
+  </si>
+  <si>
+    <t>1/0.053</t>
+  </si>
+  <si>
+    <t>1/0.054</t>
+  </si>
+  <si>
+    <t>1/0.055</t>
+  </si>
+  <si>
+    <t>1/0.056</t>
+  </si>
+  <si>
+    <t>1/0.057</t>
+  </si>
+  <si>
+    <t>1/0.058</t>
+  </si>
+  <si>
+    <t>1/0.059</t>
+  </si>
+  <si>
+    <t>1/0.06</t>
+  </si>
+  <si>
+    <t>1/0.07</t>
+  </si>
+  <si>
+    <t>1/0.08</t>
+  </si>
+  <si>
+    <t>1/0.09</t>
+  </si>
+  <si>
     <t>μB</t>
   </si>
   <si>
@@ -932,10 +1293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -984,14 +1345,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1005,8 +1411,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1021,46 +1449,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,13 +1473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1097,31 +1481,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1139,102 +1500,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1256,7 +1521,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1268,13 +1641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,43 +1671,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,17 +1697,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1366,20 +1741,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1407,32 +1794,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1441,145 +1802,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1611,9 +1972,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1622,6 +1980,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1712,10 +2073,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4898,47 +5255,40 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Host Control  1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3779520" y="14470380"/>
-              <a:ext cx="609600" cy="175260"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2049" name="Host Control  1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4823460" y="14470380"/>
+          <a:ext cx="609600" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5305,19 +5655,19 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5325,19 +5675,19 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>8584</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="1">
         <v>13060</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="1">
         <v>8032</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>12275</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="1">
         <v>11886</v>
       </c>
     </row>
@@ -5345,19 +5695,19 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>8662</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="1">
         <v>13215</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="1">
         <v>8732</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>13004</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="1">
         <v>13097</v>
       </c>
     </row>
@@ -5365,19 +5715,19 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>4393</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="1">
         <v>8835</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="1">
         <v>4376</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>8648</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="1">
         <v>8629</v>
       </c>
     </row>
@@ -5385,7 +5735,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <f t="shared" ref="B10:F10" si="0">B8-B7</f>
         <v>78</v>
       </c>
@@ -5410,7 +5760,7 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>38</v>
       </c>
       <c r="C11">
@@ -5497,7 +5847,7 @@
       </c>
     </row>
     <row r="15" ht="13.8" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
@@ -5591,19 +5941,19 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5611,19 +5961,19 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="1">
         <v>8618</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="1">
         <v>12948</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="1">
         <v>7978</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="1">
         <v>12322</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="1">
         <v>11858</v>
       </c>
     </row>
@@ -5631,19 +5981,19 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="1">
         <v>8720</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="1">
         <v>13124</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="1">
         <v>8651</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="1">
         <v>13105</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="1">
         <v>13070</v>
       </c>
     </row>
@@ -5651,19 +6001,19 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="1">
         <v>4392</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="1">
         <v>8759</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="1">
         <v>4252</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="1">
         <v>8783</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="1">
         <v>8580</v>
       </c>
     </row>
@@ -5671,7 +6021,7 @@
       <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="1">
         <f t="shared" ref="B27:F27" si="2">B25-B24</f>
         <v>102</v>
       </c>
@@ -5696,7 +6046,7 @@
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="1">
         <v>53</v>
       </c>
       <c r="C28">
@@ -5874,19 +6224,19 @@
       <c r="A40" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5894,19 +6244,19 @@
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="1">
         <v>8445</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="1">
         <v>12762</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="1">
         <v>7864</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="1">
         <v>11960</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="1">
         <v>11819</v>
       </c>
     </row>
@@ -5914,19 +6264,19 @@
       <c r="A42" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="1">
         <v>8557</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="1">
         <v>12929</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="1">
         <v>8513</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="1">
         <v>12673</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="1">
         <v>13038</v>
       </c>
     </row>
@@ -5934,19 +6284,19 @@
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="1">
         <v>4260</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="1">
         <v>8610</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="1">
         <v>4361</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="1">
         <v>8437</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="1">
         <v>8662</v>
       </c>
     </row>
@@ -5954,7 +6304,7 @@
       <c r="A44" t="s">
         <v>17</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="1">
         <f t="shared" ref="B44:F44" si="5">B42-B41</f>
         <v>112</v>
       </c>
@@ -5979,7 +6329,7 @@
       <c r="A45" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="1">
         <v>49</v>
       </c>
       <c r="C45">
@@ -6089,7 +6439,7 @@
       <c r="D55" t="s">
         <v>30</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="1">
         <v>0.0187343967374665</v>
       </c>
       <c r="H55">
@@ -6131,7 +6481,7 @@
       <c r="D57" t="s">
         <v>36</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="1">
         <v>0.0362705873652916</v>
       </c>
       <c r="H57">
@@ -6152,7 +6502,7 @@
       <c r="D58" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="1">
         <v>0.0873801495964978</v>
       </c>
       <c r="H58">
@@ -6173,7 +6523,7 @@
       <c r="D59" t="s">
         <v>42</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="1">
         <v>0.0255562999649838</v>
       </c>
       <c r="H59">
@@ -6193,7 +6543,7 @@
       </c>
     </row>
     <row r="61" ht="13.8" spans="7:9">
-      <c r="G61" s="9">
+      <c r="G61" s="1">
         <v>0.000122323416862452</v>
       </c>
       <c r="H61">
@@ -6205,7 +6555,7 @@
       </c>
     </row>
     <row r="62" ht="13.8" spans="7:9">
-      <c r="G62" s="9">
+      <c r="G62" s="1">
         <v>0.000176954783046538</v>
       </c>
       <c r="H62">
@@ -6217,7 +6567,7 @@
       </c>
     </row>
     <row r="63" ht="13.8" spans="7:9">
-      <c r="G63" s="9">
+      <c r="G63" s="1">
         <v>0.0061474851753973</v>
       </c>
       <c r="H63">
@@ -6229,7 +6579,7 @@
       </c>
     </row>
     <row r="64" ht="13.8" spans="7:9">
-      <c r="G64" s="9">
+      <c r="G64" s="1">
         <v>0.0100510013572461</v>
       </c>
       <c r="H64">
@@ -6241,7 +6591,7 @@
       </c>
     </row>
     <row r="65" ht="13.8" spans="7:9">
-      <c r="G65" s="9">
+      <c r="G65" s="1">
         <v>0.000353692062828571</v>
       </c>
       <c r="H65">
@@ -6418,7 +6768,7 @@
       </c>
     </row>
     <row r="100" ht="13.8" spans="2:2">
-      <c r="B100" s="9"/>
+      <c r="B100" s="1"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="14" t="s">
@@ -6733,13 +7083,13 @@
       <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="7">
@@ -6762,13 +7112,13 @@
       <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="H4" s="7">
@@ -6791,13 +7141,13 @@
       <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H5">
@@ -6820,13 +7170,13 @@
       <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="H6" s="7">
@@ -6849,9 +7199,9 @@
       <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H7">
@@ -6859,20 +7209,20 @@
       </c>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="1:5">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6889,11 +7239,11 @@
       <c r="D10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="1">
         <v>0.0260406537439864</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="I10" t="s">
         <v>76</v>
       </c>
@@ -6902,7 +7252,7 @@
       <c r="A11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -6911,15 +7261,15 @@
       <c r="D11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" ht="13.8" spans="1:7">
       <c r="A12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -6928,19 +7278,19 @@
       <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="1">
         <v>0.0434851977115885</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="14" ht="13.8" spans="1:6">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="7"/>
@@ -6958,7 +7308,7 @@
       <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="1">
         <v>0.0194204672763194</v>
       </c>
     </row>
@@ -6984,10 +7334,10 @@
       <c r="E17" s="7"/>
     </row>
     <row r="18" ht="13.8" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G18" t="s">
@@ -7007,15 +7357,15 @@
       <c r="D19" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="1">
         <v>0.0876303795868481</v>
       </c>
     </row>
     <row r="21" ht="13.8" spans="1:7">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G21" t="s">
@@ -7035,15 +7385,15 @@
       <c r="D22" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="1">
         <v>0.0131635759811123</v>
       </c>
     </row>
     <row r="24" ht="13.8" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7060,7 +7410,7 @@
       <c r="D25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="1">
         <v>0.0346770655733595</v>
       </c>
     </row>
@@ -7137,19 +7487,19 @@
       <c r="D3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H3" s="7">
         <v>9.921393e-5</v>
       </c>
-      <c r="J3" s="9"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
       <c r="A4" s="19" t="s">
@@ -7164,13 +7514,13 @@
       <c r="D4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H4" s="7">
@@ -7193,13 +7543,13 @@
       <c r="D5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H5" s="7">
@@ -7219,9 +7569,9 @@
       <c r="D6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="H6" s="7">
@@ -7242,40 +7592,40 @@
       <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H7">
         <v>0.006845108</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" ht="13.8" spans="2:7">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="2:7">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:7">
       <c r="A10" s="6"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="2:7">
-      <c r="B11" s="9"/>
+      <c r="B11" s="1"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" ht="13.8" spans="1:9">
@@ -7291,13 +7641,13 @@
       <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="1" t="s">
         <v>105</v>
       </c>
       <c r="H12" s="7">
@@ -7320,33 +7670,33 @@
       <c r="D13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>9.921393e-5</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" ht="13.8" spans="1:10">
       <c r="A14" s="6"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="7"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" ht="13.8" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -7354,7 +7704,7 @@
       <c r="A16" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="20" t="s">
@@ -7363,13 +7713,13 @@
       <c r="D16" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="1" t="s">
         <v>111</v>
       </c>
       <c r="H16" t="s">
@@ -7380,7 +7730,7 @@
       <c r="A17" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="20" t="s">
@@ -7389,13 +7739,13 @@
       <c r="D17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="1" t="s">
         <v>115</v>
       </c>
       <c r="H17" t="s">
@@ -7403,10 +7753,10 @@
       </c>
     </row>
     <row r="19" ht="13.8" spans="1:7">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="1" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7423,13 +7773,13 @@
       <c r="D20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H20" t="s">
@@ -7448,7 +7798,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -7517,13 +7867,13 @@
       <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="J3" t="s">
@@ -7549,13 +7899,13 @@
       <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J4" t="s">
@@ -7581,13 +7931,13 @@
       <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J5" t="s">
@@ -7616,13 +7966,13 @@
       <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="1" t="s">
         <v>136</v>
       </c>
       <c r="J6" s="7"/>
@@ -7646,20 +7996,20 @@
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="1:10">
       <c r="A9" s="19" t="s">
@@ -7680,13 +8030,13 @@
       <c r="F9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J9" t="s">
@@ -7694,8 +8044,8 @@
       </c>
     </row>
     <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
       <c r="A11" s="19" t="s">
@@ -7716,7 +8066,7 @@
       <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7739,13 +8089,13 @@
       <c r="F13" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J13" t="s">
@@ -7771,13 +8121,13 @@
       <c r="F14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J14" t="s">
@@ -7862,13 +8212,13 @@
       <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>117</v>
       </c>
       <c r="J3" s="7"/>
@@ -7892,13 +8242,13 @@
       <c r="F4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7921,13 +8271,13 @@
       <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7950,13 +8300,13 @@
       <c r="F6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="1" t="s">
         <v>153</v>
       </c>
       <c r="J6" s="7"/>
@@ -7980,13 +8330,13 @@
       <c r="F7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J7" t="s">
@@ -7994,9 +8344,9 @@
       </c>
     </row>
     <row r="8" ht="13.8" spans="7:9">
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="1:9">
       <c r="A9" s="19" t="s">
@@ -8017,19 +8367,19 @@
       <c r="F9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="2:3">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
       <c r="A11" s="19" t="s">
@@ -8050,13 +8400,13 @@
       <c r="F11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -8076,17 +8426,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="12.8888888888889"/>
-    <col min="6" max="8" width="14.3333333333333"/>
+    <col min="2" max="2" width="11.7777777777778"/>
+    <col min="3" max="8" width="14.3333333333333"/>
     <col min="9" max="9" width="9.77777777777778"/>
     <col min="15" max="15" width="9.22222222222222"/>
   </cols>
@@ -8308,7 +8658,7 @@
       </c>
       <c r="C11">
         <f>BC!G4</f>
-        <v>0.292287297950888</v>
+        <v>0.298587962962963</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>7</v>
@@ -8445,7 +8795,7 @@
       </c>
       <c r="C20" s="4">
         <f>BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>7</v>
@@ -8592,7 +8942,7 @@
       </c>
       <c r="C29" s="4">
         <f>BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>8</v>
@@ -8621,7 +8971,7 @@
     </row>
     <row r="31" ht="13.8" spans="2:8">
       <c r="B31" s="2" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -8696,9 +9046,9 @@
     </row>
     <row r="37" ht="13.8" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -8707,7 +9057,7 @@
         <v>163</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M38" s="1"/>
       <c r="T38" s="1"/>
@@ -8717,7 +9067,7 @@
         <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M39" s="1"/>
       <c r="T39" s="1"/>
@@ -8760,7 +9110,7 @@
       <c r="E41" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="1">
         <v>0.0260406537439864</v>
       </c>
     </row>
@@ -8773,7 +9123,7 @@
       </c>
       <c r="C42">
         <f>BC!G2</f>
-        <v>0.196097034984798</v>
+        <v>0.19874537037037</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>7</v>
@@ -8793,19 +9143,18 @@
     </row>
     <row r="44" ht="13.8" spans="1:13">
       <c r="A44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K44"/>
+        <v>193</v>
+      </c>
       <c r="M44" s="1"/>
     </row>
     <row r="45" ht="13.8" spans="2:13">
@@ -8813,12 +9162,12 @@
         <v>163</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M45" s="1"/>
     </row>
@@ -8827,10 +9176,10 @@
         <v>165</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M46" s="1"/>
       <c r="T46" s="1"/>
@@ -8840,7 +9189,7 @@
         <v>167</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J47" s="1"/>
       <c r="M47" s="1"/>
@@ -8851,7 +9200,7 @@
         <v>169</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J48" s="1"/>
       <c r="M48" s="1"/>
@@ -8859,10 +9208,10 @@
     </row>
     <row r="49" ht="13.8" spans="2:20">
       <c r="B49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J49" s="1"/>
       <c r="M49" s="1"/>
@@ -8870,7 +9219,7 @@
     </row>
     <row r="50" ht="13.8" spans="1:8">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" s="19" t="s">
         <v>3</v>
@@ -8896,7 +9245,7 @@
     </row>
     <row r="51" ht="13.8" spans="1:8">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>3</v>
@@ -8910,7 +9259,7 @@
       <c r="E51" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="1">
         <v>0.0260406537439864</v>
       </c>
       <c r="G51" s="1">
@@ -8922,7 +9271,7 @@
     </row>
     <row r="52" ht="13.8" spans="1:8">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>3</v>
@@ -8934,7 +9283,7 @@
         <v>7</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F52" s="1">
         <v>0.0248672166885579</v>
@@ -8948,7 +9297,7 @@
     </row>
     <row r="53" ht="13.8" spans="1:8">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>3</v>
@@ -8960,7 +9309,7 @@
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F53" s="1">
         <v>0.0365184623902113</v>
@@ -8974,7 +9323,7 @@
     </row>
     <row r="54" ht="13.8" spans="1:8">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B54" s="19" t="s">
         <v>3</v>
@@ -8986,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F54" s="1">
         <v>0.0817930086632881</v>
@@ -9000,7 +9349,7 @@
     </row>
     <row r="55" ht="13.8" spans="1:8">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>3</v>
@@ -9026,7 +9375,7 @@
     </row>
     <row r="56" ht="13.8" spans="1:8">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>3</v>
@@ -9052,7 +9401,7 @@
     </row>
     <row r="57" ht="13.8" spans="1:8">
       <c r="A57" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>3</v>
@@ -9064,7 +9413,7 @@
         <v>7</v>
       </c>
       <c r="E57" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F57" s="1">
         <v>0.00940692289425339</v>
@@ -9078,7 +9427,7 @@
     </row>
     <row r="58" ht="13.8" spans="1:8">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>3</v>
@@ -9090,7 +9439,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F58" s="1">
         <v>0.0138440568433574</v>
@@ -9104,7 +9453,7 @@
     </row>
     <row r="59" ht="13.8" spans="1:8">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>3</v>
@@ -9116,7 +9465,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F59" s="1">
         <v>0.0313369495786809</v>
@@ -9130,7 +9479,7 @@
     </row>
     <row r="60" ht="13.8" spans="1:8">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>3</v>
@@ -9156,7 +9505,7 @@
     </row>
     <row r="61" ht="13.8" spans="1:8">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>3</v>
@@ -9182,7 +9531,7 @@
     </row>
     <row r="62" ht="13.8" spans="1:8">
       <c r="A62" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>3</v>
@@ -9194,7 +9543,7 @@
         <v>7</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F62" s="1">
         <v>0.0415363611249548</v>
@@ -9208,7 +9557,7 @@
     </row>
     <row r="63" ht="13.8" spans="1:8">
       <c r="A63" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>3</v>
@@ -9220,7 +9569,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F63" s="1">
         <v>0.0608217857885321</v>
@@ -9234,7 +9583,7 @@
     </row>
     <row r="64" ht="13.8" spans="1:8">
       <c r="A64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>3</v>
@@ -9246,7 +9595,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F64" s="1">
         <v>0.134397696490344</v>
@@ -9260,13 +9609,13 @@
     </row>
     <row r="65" ht="13.8" spans="1:8">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>7</v>
@@ -9286,13 +9635,13 @@
     </row>
     <row r="66" ht="13.8" spans="1:8">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D66" s="20" t="s">
         <v>7</v>
@@ -9312,19 +9661,19 @@
     </row>
     <row r="67" ht="13.8" spans="1:8">
       <c r="A67" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F67" s="1">
         <v>0.0168639466336086</v>
@@ -9338,19 +9687,19 @@
     </row>
     <row r="68" ht="13.8" spans="1:8">
       <c r="A68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D68" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F68" s="1">
         <v>0.0247956353085708</v>
@@ -9364,19 +9713,19 @@
     </row>
     <row r="69" ht="13.8" spans="1:8">
       <c r="A69" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D69" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F69" s="1">
         <v>0.0558644960260217</v>
@@ -9390,7 +9739,7 @@
     </row>
     <row r="70" ht="13.8" spans="1:8">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>3</v>
@@ -9416,7 +9765,7 @@
     </row>
     <row r="71" ht="13.8" spans="1:8">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>3</v>
@@ -9442,7 +9791,7 @@
     </row>
     <row r="72" ht="13.8" spans="1:8">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>3</v>
@@ -9454,7 +9803,7 @@
         <v>7</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F72" s="1">
         <v>0.0142969323461873</v>
@@ -9468,7 +9817,7 @@
     </row>
     <row r="73" ht="13.8" spans="1:8">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>3</v>
@@ -9480,7 +9829,7 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F73" s="1">
         <v>0.0210286260135363</v>
@@ -9494,7 +9843,7 @@
     </row>
     <row r="74" ht="13.8" spans="1:8">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>3</v>
@@ -9506,7 +9855,7 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F74" s="1">
         <v>0.0474596426672601</v>
@@ -9520,14 +9869,14 @@
     </row>
     <row r="75" ht="13.8" spans="1:8">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <f>BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>7</v>
@@ -9547,14 +9896,14 @@
     </row>
     <row r="76" ht="13.8" spans="1:8">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <f>BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D76" s="20" t="s">
         <v>7</v>
@@ -9574,20 +9923,20 @@
     </row>
     <row r="77" ht="13.8" spans="1:8">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <f>BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E77" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F77" s="1">
         <v>0.0353669411973146</v>
@@ -9601,20 +9950,20 @@
     </row>
     <row r="78" ht="13.8" spans="1:8">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <f>BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F78" s="1">
         <v>0.0518452041184044</v>
@@ -9628,20 +9977,20 @@
     </row>
     <row r="79" ht="13.8" spans="1:8">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B79" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <f>BC!G3</f>
-        <v>0.263321960714897</v>
+        <v>0.282515432098765</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F79" s="1">
         <v>0.115152140804561</v>
@@ -9655,16 +10004,16 @@
     </row>
     <row r="82" ht="13.8" spans="1:10">
       <c r="A82" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F82" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="J82" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="83" ht="13.8" spans="2:10">
@@ -9672,10 +10021,10 @@
         <v>163</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="13.8" spans="2:10">
@@ -9683,89 +10032,1263 @@
         <v>165</v>
       </c>
       <c r="F84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="11"/>
+    </row>
+    <row r="87" ht="13.8" spans="1:15">
+      <c r="A87" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="I87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" ht="13.8" spans="1:15">
+      <c r="A88" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <f>BC!G2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88"/>
+      <c r="I88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="12"/>
+      <c r="C89" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="90" ht="13.8" spans="1:4">
+      <c r="A90" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="12">
+        <v>0.0258261881814428</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0.000351032370131479</v>
+      </c>
+    </row>
+    <row r="91" ht="13.8" spans="1:6">
+      <c r="A91" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="12">
+        <v>0.014224726040376</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0.000105978072004441</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" ht="13.8" spans="1:6">
+      <c r="A92" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.0155224532358245</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.000126076782804299</v>
+      </c>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" ht="13.8" spans="1:6">
+      <c r="A93" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.0168180239071698</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.000147945377899644</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" ht="13.8" spans="1:6">
+      <c r="A94" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0.0181114323912947</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.000171589524979057</v>
+      </c>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A95" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0.018240654108161</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.000174051806965541</v>
+      </c>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A96" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0.018240654108161</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.000174051806965541</v>
+      </c>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A97" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0.0184990324913948</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.000179029823090507</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A98" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0.0186281891472015</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.00018154556785361</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A99" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" s="1">
+        <v>0.0186411036195037</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.000181798122976329</v>
+      </c>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A100" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0.0186540178748252</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.000182050856419493</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A101" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C101" s="1">
+        <v>0.0186669319131607</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.000182303768188372</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A102" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0.0186798457345051</v>
+      </c>
+      <c r="D102" s="1">
+        <v>0.000182556858288232</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A103" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0.0186927593388531</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0.000182810126724336</v>
+      </c>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A104" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0.0187056727261995</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0.000183063573501946</v>
+      </c>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A105" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0.018718585896539</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.000183317198626323</v>
+      </c>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A106" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0.0187314988498665</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.000183571002102724</v>
+      </c>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A107" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0.0187444115861767</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.000183824983936405</v>
+      </c>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A108" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0.0187573241054644</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.000184079144132621</v>
+      </c>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A109" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C109" s="12">
+        <v>0.0187702364077244</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.000184333482696622</v>
+      </c>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A110" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C110" s="12">
+        <v>0.0187831484929515</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.000184587999633658</v>
+      </c>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A111" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="12">
+        <v>0.0187960603611405</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.000184842694948978</v>
+      </c>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A112" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C112" s="12">
+        <v>0.0188089720122861</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.000185097568647826</v>
+      </c>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A113" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C113" s="12">
+        <v>0.0188218834463831</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.000185352620735447</v>
+      </c>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A114" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="12">
+        <v>0.0188347946634264</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.000185607851217082</v>
+      </c>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A115" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.0188477056634108</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.00018586326009797</v>
+      </c>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A116" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="12">
+        <v>0.018860616446331</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.000186118847383349</v>
+      </c>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A117" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0.0188735270121818</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.000186374613078454</v>
+      </c>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A118" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0.0188864373609581</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0.000186630557188518</v>
+      </c>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A119" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C119" s="12">
+        <v>0.0188993474926546</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.000186886679718774</v>
+      </c>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A120" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="12">
+        <v>0.0189122574072662</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.000187142980674449</v>
+      </c>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A121" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C121" s="12">
+        <v>0.0189251671047877</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.000187399460060772</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A122" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="C122" s="12">
+        <v>0.0189380765852138</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.000187656117882967</v>
+      </c>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A123" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C123" s="12">
+        <v>0.0189509858485395</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.000187912954146258</v>
+      </c>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A124" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" s="12">
+        <v>0.0189638948947595</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.000188169968855866</v>
+      </c>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A125" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0.0189768037238686</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.00018842716201701</v>
+      </c>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A126" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="12">
+        <v>0.0189897123358617</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.000188684533634906</v>
+      </c>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A127" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0.0190026207307336</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.00018894208371477</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A128" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0.0190155289084791</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.000189199812261815</v>
+      </c>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A129" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="12">
+        <v>0.019028436869093</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.000189457719281252</v>
+      </c>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A130" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="C130" s="12">
+        <v>0.0190413446125702</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.000189715804778288</v>
+      </c>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A131" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="12">
+        <v>0.0190542521389055</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.000189974068758133</v>
+      </c>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A132" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132" s="12">
+        <v>0.0190671594480938</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.000190232511225989</v>
+      </c>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A133" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="12">
+        <v>0.0190800665401298</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.00019049113218706</v>
+      </c>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A134" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" s="12">
+        <v>0.0190929734150084</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.000190749931646547</v>
+      </c>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A135" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="12">
+        <v>0.0191058800727245</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.000191008909609647</v>
+      </c>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A136" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="C136" s="12">
+        <v>0.0191187865132729</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.000191268066081559</v>
+      </c>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A137" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="12">
+        <v>0.0191316927366485</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.000191527401067475</v>
+      </c>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A138" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0.019144598742846</v>
+      </c>
+      <c r="D138" s="1">
+        <v>0.00019178691457259</v>
+      </c>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A139" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C139" s="12">
+        <v>0.0191575045318604</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0.000192046606602093</v>
+      </c>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A140" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C140" s="12">
+        <v>0.0191704101036865</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.000192306477161173</v>
+      </c>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A141" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="12">
+        <v>0.0191833154583191</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.000192566526255016</v>
+      </c>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A142" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C142" s="12">
+        <v>0.0191962205957531</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.000192826753888807</v>
+      </c>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A143" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C143" s="12">
+        <v>0.0192091255159834</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.000193087160067727</v>
+      </c>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A144" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C144" s="12">
+        <v>0.0192220302190049</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.000193347744796959</v>
+      </c>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A145" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C145" s="12">
+        <v>0.0192349347048123</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.000193608508081679</v>
+      </c>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A146" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" s="12">
+        <v>0.0192478389734006</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0.000193869449927063</v>
+      </c>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
+      <c r="A147" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C147" s="12">
+        <v>0.0192607430247646</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0.000194130570338288</v>
+      </c>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A148" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0.0192736468588992</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0.000194391869320523</v>
+      </c>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A149" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149" s="12">
+        <v>0.0192865504757992</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0.00019465334687894</v>
+      </c>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A150" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C150" s="12">
+        <v>0.0192994538754597</v>
+      </c>
+      <c r="D150" s="12">
+        <v>0.000194915003018706</v>
+      </c>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A151" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151" s="12">
+        <v>0.0193123570578753</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0.000195176837744989</v>
+      </c>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A152" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C152" s="12">
+        <v>0.019325260023041</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0.000195438851062951</v>
+      </c>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A153" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" s="12">
+        <v>0.0193381627709517</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0.000195701042977755</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A154" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="12">
+        <v>0.0193510653016022</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0.000195963413494561</v>
+      </c>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A155" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0.0193639676149875</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0.000196225962618526</v>
+      </c>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A156" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0.0193768697111024</v>
+      </c>
+      <c r="D156" s="12">
+        <v>0.000196488690354808</v>
+      </c>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
+      <c r="A157" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0.0193897715899419</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0.000196751596708559</v>
+      </c>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" ht="13.8" collapsed="1" spans="1:4">
+      <c r="A158" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0.0194026732515008</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0.000197014681684931</v>
+      </c>
+    </row>
+    <row r="159" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A159" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C159" s="12">
+        <v>0.0194155746957739</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0.000197277945289075</v>
+      </c>
+    </row>
+    <row r="160" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A160" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C160" s="12">
+        <v>0.0194284759227563</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0.000197541387526138</v>
+      </c>
+    </row>
+    <row r="161" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A161" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0.0194413769324428</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0.000197805008401266</v>
+      </c>
+    </row>
+    <row r="162" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A162" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="12">
+        <v>0.0194542777248282</v>
+      </c>
+      <c r="D162" s="12">
+        <v>0.000198068807919603</v>
+      </c>
+    </row>
+    <row r="163" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A163" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C163" s="12">
+        <v>0.0194671782999076</v>
+      </c>
+      <c r="D163" s="12">
+        <v>0.00019833278608629</v>
+      </c>
+    </row>
+    <row r="164" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A164" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C164" s="12">
+        <v>0.0194800786576758</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0.000198596942906468</v>
+      </c>
+    </row>
+    <row r="165" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A165" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" s="12">
+        <v>0.0194929787981277</v>
+      </c>
+      <c r="D165" s="12">
+        <v>0.000198861278385274</v>
+      </c>
+    </row>
+    <row r="166" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A166" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="C166" s="12">
+        <v>0.0195058787212582</v>
+      </c>
+      <c r="D166" s="12">
+        <v>0.000199125792527842</v>
+      </c>
+    </row>
+    <row r="167" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A167" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="12">
+        <v>0.0195187784270622</v>
+      </c>
+      <c r="D167" s="12">
+        <v>0.000199390485339308</v>
+      </c>
+    </row>
+    <row r="168" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A168" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C168" s="12">
+        <v>0.0195316779155347</v>
+      </c>
+      <c r="D168" s="12">
+        <v>0.000199655356824803</v>
+      </c>
+    </row>
+    <row r="169" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A169" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="C169" s="12">
+        <v>0.0195445771866706</v>
+      </c>
+      <c r="D169" s="12">
+        <v>0.000199920406989456</v>
+      </c>
+    </row>
+    <row r="170" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A170" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C170" s="12">
+        <v>0.0195574762404647</v>
+      </c>
+      <c r="D170" s="12">
+        <v>0.000200185635838395</v>
+      </c>
+    </row>
+    <row r="171" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A171" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C171" s="12">
+        <v>0.0195703750769121</v>
+      </c>
+      <c r="D171" s="12">
+        <v>0.000200451043376745</v>
+      </c>
+    </row>
+    <row r="172" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A172" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="C172" s="12">
+        <v>0.0195832736960075</v>
+      </c>
+      <c r="D172" s="12">
+        <v>0.000200716629609631</v>
+      </c>
+    </row>
+    <row r="173" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A173" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C173" s="12">
+        <v>0.019596172097746</v>
+      </c>
+      <c r="D173" s="12">
+        <v>0.000200982394542172</v>
+      </c>
+    </row>
+    <row r="174" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A174" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="12">
+        <v>0.0196090702821225</v>
+      </c>
+      <c r="D174" s="12">
+        <v>0.000201248338179489</v>
+      </c>
+    </row>
+    <row r="175" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A175" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C175" s="12">
+        <v>0.0196219682491319</v>
+      </c>
+      <c r="D175" s="12">
+        <v>0.0002015144605267</v>
+      </c>
+    </row>
+    <row r="176" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A176" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C176" s="12">
+        <v>0.0196348659987691</v>
+      </c>
+      <c r="D176" s="12">
+        <v>0.000201780761588919</v>
+      </c>
+    </row>
+    <row r="177" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
+      <c r="A177" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C177" s="12">
+        <v>0.019647763531029</v>
+      </c>
+      <c r="D177" s="12">
+        <v>0.00020204724137126</v>
+      </c>
+    </row>
+    <row r="178" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A178" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C178" s="12">
+        <v>0.0196606608459067</v>
+      </c>
+      <c r="D178" s="12">
+        <v>0.000202313899878834</v>
+      </c>
+    </row>
+    <row r="179" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A179" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="C179" s="12">
+        <v>0.0197896220375441</v>
+      </c>
+      <c r="D179" s="12">
+        <v>0.000204990315965461</v>
+      </c>
+    </row>
+    <row r="180" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A180" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="12">
+        <v>0.0199185614853958</v>
+      </c>
+      <c r="D180" s="12">
+        <v>0.000207684610182898</v>
+      </c>
+    </row>
+    <row r="181" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A181" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="C181" s="12">
+        <v>0.0200474791844324</v>
+      </c>
+      <c r="D181" s="12">
+        <v>0.000210396787609168</v>
+      </c>
+    </row>
+    <row r="182" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A182" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="C182" s="12">
+        <v>0.020176375129646</v>
+      </c>
+      <c r="D182" s="12">
+        <v>0.000213126853302142</v>
+      </c>
+    </row>
+    <row r="183" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A183" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="C183" s="12">
+        <v>0.0203052493160502</v>
+      </c>
+      <c r="D183" s="12">
+        <v>0.000215874812299571</v>
+      </c>
+    </row>
+    <row r="184" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A184" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C184" s="12">
+        <v>0.0204341017386801</v>
+      </c>
+      <c r="D184" s="12">
+        <v>0.000218640669619121</v>
+      </c>
+    </row>
+    <row r="185" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A185" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" s="12">
+        <v>0.0205629323925921</v>
+      </c>
+      <c r="D185" s="12">
+        <v>0.000221424430258407</v>
+      </c>
+    </row>
+    <row r="186" ht="13.8" collapsed="1" spans="1:4">
+      <c r="A186" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C186" s="1">
+        <v>0.020691741272864</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0.000224226099195029</v>
+      </c>
+    </row>
+    <row r="187" ht="13.8" spans="1:4">
+      <c r="A187" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C187" s="12">
+        <v>0.0219786314576869</v>
+      </c>
+      <c r="D187" s="12">
+        <v>0.000253228825744024</v>
+      </c>
+    </row>
+    <row r="188" ht="13.8" spans="1:4">
+      <c r="A188" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C188" s="12">
+        <v>0.0232633390210446</v>
+      </c>
+      <c r="D188" s="12">
+        <v>0.000284027710085988</v>
+      </c>
+    </row>
+    <row r="189" ht="13.8" spans="1:4">
+      <c r="A189" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C189" s="12">
+        <v>0.0245458593864223</v>
+      </c>
+      <c r="D189" s="12">
+        <v>0.0003166274048988</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId3">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="12.8888888888889"/>
-    <col min="7" max="8" width="12.8888888888889"/>
+    <col min="7" max="7" width="14.3333333333333"/>
+    <col min="8" max="8" width="12.8888888888889"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="G1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" ht="13.8" spans="1:7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" spans="1:8">
       <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
@@ -9787,10 +11310,14 @@
         <v>43200</v>
       </c>
       <c r="G2" s="1">
+        <f>E2/F2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.196097034984798</v>
       </c>
     </row>
-    <row r="3" ht="13.8" spans="1:7">
+    <row r="3" ht="13.8" spans="1:8">
       <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
@@ -9812,10 +11339,14 @@
         <v>43200</v>
       </c>
       <c r="G3" s="1">
+        <f>E3/F3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.263321960714897</v>
       </c>
     </row>
-    <row r="4" ht="13.8" spans="1:7">
+    <row r="4" ht="13.8" spans="1:8">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -9836,8 +11367,15 @@
         <v>43200</v>
       </c>
       <c r="G4" s="1">
+        <f>E4/F4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.292287297950888</v>
       </c>
+    </row>
+    <row r="5" ht="13.8" spans="7:7">
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
   <si>
     <t>一か月シミュレーション</t>
   </si>
@@ -1267,6 +1267,105 @@
     <t>1/0.09</t>
   </si>
   <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Aの遅延パラメータを変化させる</t>
+  </si>
+  <si>
+    <t>1/0.00001</t>
+  </si>
+  <si>
+    <t>1/0.5</t>
+  </si>
+  <si>
+    <t>1/0.51</t>
+  </si>
+  <si>
+    <t>1/0.52</t>
+  </si>
+  <si>
+    <t>1/0.53</t>
+  </si>
+  <si>
+    <t>1/0.54</t>
+  </si>
+  <si>
+    <t>1/0.56</t>
+  </si>
+  <si>
+    <t>1/0.57</t>
+  </si>
+  <si>
+    <t>1/0.58</t>
+  </si>
+  <si>
+    <t>1/0.59</t>
+  </si>
+  <si>
+    <t>1/0.591</t>
+  </si>
+  <si>
+    <t>1/0.592</t>
+  </si>
+  <si>
+    <t>1/0.593</t>
+  </si>
+  <si>
+    <t>1/0.594</t>
+  </si>
+  <si>
+    <t>1/0.595</t>
+  </si>
+  <si>
+    <t>1/0.596</t>
+  </si>
+  <si>
+    <t>1/0.597</t>
+  </si>
+  <si>
+    <t>1/0.598</t>
+  </si>
+  <si>
+    <t>1/0.599</t>
+  </si>
+  <si>
+    <t>1/0.6</t>
+  </si>
+  <si>
+    <t>1/0.4</t>
+  </si>
+  <si>
+    <t>1/0.41</t>
+  </si>
+  <si>
+    <t>1/0.42</t>
+  </si>
+  <si>
+    <t>1/0.43</t>
+  </si>
+  <si>
+    <t>1/0.44</t>
+  </si>
+  <si>
+    <t>1/0.45</t>
+  </si>
+  <si>
+    <t>1/0.46</t>
+  </si>
+  <si>
+    <t>1/0.47</t>
+  </si>
+  <si>
+    <t>1/0.48</t>
+  </si>
+  <si>
+    <t>1/0.49</t>
+  </si>
+  <si>
+    <t>1/0.50</t>
+  </si>
+  <si>
     <t>μB</t>
   </si>
   <si>
@@ -1293,10 +1392,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1352,6 +1451,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1359,60 +1481,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,10 +1510,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1451,15 +1549,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,16 +1565,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1509,7 +1608,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,31 +1716,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,43 +1758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1611,79 +1776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,31 +1796,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1737,21 +1822,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1780,16 +1850,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1802,25 +1901,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1829,122 +1928,122 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1980,6 +2079,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5275,7 +5377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4823460" y="14470380"/>
+          <a:off x="4899660" y="14470380"/>
           <a:ext cx="609600" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5575,19 +5677,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5595,19 +5697,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5615,19 +5717,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5635,19 +5737,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5861,19 +5963,19 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5881,19 +5983,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="B20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5901,19 +6003,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="20" t="s">
+      <c r="B21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5921,19 +6023,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="E22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6144,19 +6246,19 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="19" t="s">
+      <c r="D36" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6164,19 +6266,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="20" t="s">
+      <c r="B37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6184,19 +6286,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="20" t="s">
+      <c r="B38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6204,19 +6306,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="B39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="20" t="s">
+      <c r="E39" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6460,7 +6562,7 @@
       <c r="D56" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="14">
         <v>0.00683421226620131</v>
       </c>
       <c r="H56">
@@ -6771,242 +6873,242 @@
       <c r="B100" s="1"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="15" t="s">
+      <c r="F113" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="16">
+      <c r="B114" s="17">
         <v>0.00985</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C114" s="17">
         <v>0.0872</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="17">
         <v>0.00651</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="17">
         <v>0.0303</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="18">
         <v>0.0533</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="16">
+      <c r="B115" s="17">
         <v>9.92e-5</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C115" s="17">
         <v>0.00901</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="17">
         <v>8.7e-5</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="17">
         <v>0.00224</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="18">
         <v>0.00685</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="16">
+      <c r="B116" s="17">
         <v>9.9e-7</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C116" s="17">
         <v>0.000875</v>
       </c>
-      <c r="D116" s="16">
+      <c r="D116" s="17">
         <v>1.16e-6</v>
       </c>
-      <c r="E116" s="16">
+      <c r="E116" s="17">
         <v>0.000166</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="18">
         <v>0.000861</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="18">
         <v>9.87e-9</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="18">
         <v>8.44e-5</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="18">
         <v>1.53e-8</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="18">
         <v>1.23e-5</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="18">
         <v>0.000108</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="18">
         <v>9.84e-11</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="18">
         <v>8.14e-6</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="18">
         <v>2.04e-10</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="18">
         <v>9.19e-7</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="18">
         <v>1.36e-5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="18">
         <v>9.82e-13</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="18">
         <v>7.85e-7</v>
       </c>
-      <c r="D119" s="17">
+      <c r="D119" s="18">
         <v>2.7e-12</v>
       </c>
-      <c r="E119" s="17">
+      <c r="E119" s="18">
         <v>6.85e-8</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F119" s="18">
         <v>1.71e-6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="15" t="s">
+      <c r="C122" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="16">
+      <c r="B123" s="17">
         <v>0.00985</v>
       </c>
-      <c r="C123" s="16">
+      <c r="C123" s="17">
         <v>0.00651</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="16">
+      <c r="B124" s="17">
         <v>9.92e-5</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C124" s="17">
         <v>8.7e-5</v>
       </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
-      <c r="F124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="15" t="s">
+      <c r="A125" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="16">
+      <c r="B125" s="17">
         <v>9.9e-7</v>
       </c>
-      <c r="C125" s="16">
+      <c r="C125" s="17">
         <v>1.16e-6</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
-      <c r="F125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="15" t="s">
+      <c r="A126" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="18">
         <v>9.87e-9</v>
       </c>
-      <c r="C126" s="17">
+      <c r="C126" s="18">
         <v>1.53e-8</v>
       </c>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="18">
         <v>9.84e-11</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="18">
         <v>2.04e-10</v>
       </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="18">
         <v>9.82e-13</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="18">
         <v>2.7e-12</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7071,16 +7173,16 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:9">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7100,16 +7202,16 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7129,16 +7231,16 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7158,16 +7260,16 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:9">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7187,16 +7289,16 @@
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
@@ -7227,16 +7329,16 @@
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:9">
-      <c r="A10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
@@ -7249,16 +7351,16 @@
       </c>
     </row>
     <row r="11" ht="13.8" spans="1:7">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="20" t="s">
+      <c r="C11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
@@ -7266,16 +7368,16 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" ht="13.8" spans="1:7">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1">
@@ -7296,16 +7398,16 @@
       <c r="F14" s="7"/>
     </row>
     <row r="15" ht="13.8" spans="1:5">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="20" t="s">
+      <c r="C15" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -7313,16 +7415,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="B16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="7">
@@ -7345,16 +7447,16 @@
       </c>
     </row>
     <row r="19" ht="13.8" spans="1:5">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
@@ -7373,16 +7475,16 @@
       </c>
     </row>
     <row r="22" ht="13.8" spans="1:5">
-      <c r="A22" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="C22" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="1">
@@ -7398,16 +7500,16 @@
       </c>
     </row>
     <row r="25" ht="13.8" spans="1:5">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="20" t="s">
+      <c r="C25" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1">
@@ -7475,16 +7577,16 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7502,16 +7604,16 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7531,16 +7633,16 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7557,16 +7659,16 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1"/>
@@ -7577,19 +7679,19 @@
       <c r="H6" s="7">
         <v>0.002236917</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
@@ -7629,16 +7731,16 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" ht="13.8" spans="1:9">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="20" t="s">
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7658,16 +7760,16 @@
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="A13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7701,16 +7803,16 @@
       </c>
     </row>
     <row r="16" ht="13.8" spans="1:8">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="20" t="s">
+      <c r="C16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -7727,16 +7829,16 @@
       </c>
     </row>
     <row r="17" ht="13.8" spans="1:8">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="C17" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7761,16 +7863,16 @@
       </c>
     </row>
     <row r="20" ht="13.8" spans="1:8">
-      <c r="A20" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -7798,7 +7900,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -7849,22 +7951,22 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -7881,22 +7983,22 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:10">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -7913,22 +8015,22 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:13">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -7948,22 +8050,22 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -7978,22 +8080,22 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" ht="13.8" spans="1:9">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -8012,22 +8114,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="1:10">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -8048,22 +8150,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -8071,22 +8173,22 @@
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -8103,22 +8205,22 @@
       </c>
     </row>
     <row r="14" ht="13.8" spans="1:10">
-      <c r="A14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="A14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="21" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -8194,22 +8296,22 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -8224,22 +8326,22 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -8253,22 +8355,22 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="20" t="s">
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -8282,22 +8384,22 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8312,22 +8414,22 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -8349,22 +8451,22 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" ht="13.8" spans="1:9">
-      <c r="A9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -8382,22 +8484,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="A11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -8426,18 +8528,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T189"/>
+  <dimension ref="A1:T268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="11.7777777777778"/>
+    <col min="2" max="2" width="12.8888888888889"/>
     <col min="3" max="8" width="14.3333333333333"/>
-    <col min="9" max="9" width="9.77777777777778"/>
+    <col min="9" max="9" width="11.7777777777778"/>
+    <col min="11" max="11" width="14.3333333333333"/>
     <col min="15" max="15" width="9.22222222222222"/>
   </cols>
   <sheetData>
@@ -8510,16 +8613,16 @@
       <c r="A6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="22" t="s">
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="2">
@@ -8539,16 +8642,16 @@
       <c r="A7" t="s">
         <v>172</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="7">
@@ -8568,16 +8671,16 @@
       <c r="A8" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="2">
@@ -8597,16 +8700,16 @@
       <c r="A9" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="D9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1">
@@ -8626,16 +8729,16 @@
       <c r="A10" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1">
@@ -8653,17 +8756,17 @@
       <c r="A11" t="s">
         <v>178</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C11">
         <f>BC!G4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1">
@@ -8748,16 +8851,16 @@
       <c r="A18" t="s">
         <v>183</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="8">
@@ -8770,16 +8873,16 @@
       <c r="A19" t="s">
         <v>173</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="2">
@@ -8790,17 +8893,17 @@
       <c r="A20" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1">
@@ -8893,16 +8996,16 @@
       <c r="A27" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1">
@@ -8915,16 +9018,16 @@
       <c r="A28" t="s">
         <v>173</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2">
@@ -8937,17 +9040,17 @@
       <c r="A29" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="4">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1">
@@ -8985,16 +9088,16 @@
       </c>
     </row>
     <row r="32" ht="13.8" spans="2:8">
-      <c r="B32" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>87</v>
       </c>
       <c r="F32" s="2">
@@ -9026,16 +9129,16 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" ht="13.8" spans="2:8">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="2">
@@ -9076,16 +9179,16 @@
       <c r="A40" t="s">
         <v>183</v>
       </c>
-      <c r="B40" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="20" t="s">
+      <c r="B40" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="7">
@@ -9098,16 +9201,16 @@
       <c r="A41" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="20" t="s">
+      <c r="D41" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1">
@@ -9118,17 +9221,17 @@
       <c r="A42" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C42">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="20" t="s">
+      <c r="D42" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1">
@@ -9221,16 +9324,16 @@
       <c r="A50" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="20" t="s">
+      <c r="D50" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="1">
@@ -9247,16 +9350,16 @@
       <c r="A51" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="20" t="s">
+      <c r="D51" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1">
@@ -9273,16 +9376,16 @@
       <c r="A52" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="20" t="s">
+      <c r="D52" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F52" s="1">
@@ -9299,13 +9402,13 @@
       <c r="A53" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
@@ -9325,13 +9428,13 @@
       <c r="A54" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
@@ -9351,16 +9454,16 @@
       <c r="A55" t="s">
         <v>210</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="20" t="s">
+      <c r="B55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="1">
@@ -9377,16 +9480,16 @@
       <c r="A56" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="20" t="s">
+      <c r="B56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1">
@@ -9403,16 +9506,16 @@
       <c r="A57" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="20" t="s">
+      <c r="B57" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F57" s="1">
@@ -9429,13 +9532,13 @@
       <c r="A58" t="s">
         <v>213</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="20" t="s">
+      <c r="B58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
@@ -9455,13 +9558,13 @@
       <c r="A59" t="s">
         <v>214</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="20" t="s">
+      <c r="B59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
@@ -9481,16 +9584,16 @@
       <c r="A60" t="s">
         <v>215</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="20" t="s">
+      <c r="D60" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="1">
@@ -9507,16 +9610,16 @@
       <c r="A61" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="20" t="s">
+      <c r="D61" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1">
@@ -9533,16 +9636,16 @@
       <c r="A62" t="s">
         <v>217</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="20" t="s">
+      <c r="D62" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F62" s="1">
@@ -9559,13 +9662,13 @@
       <c r="A63" t="s">
         <v>218</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
@@ -9585,13 +9688,13 @@
       <c r="A64" t="s">
         <v>219</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
@@ -9611,16 +9714,16 @@
       <c r="A65" t="s">
         <v>220</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="20" t="s">
+      <c r="D65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="1">
@@ -9637,16 +9740,16 @@
       <c r="A66" t="s">
         <v>222</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="19" t="s">
+      <c r="B66" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="20" t="s">
+      <c r="D66" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1">
@@ -9663,16 +9766,16 @@
       <c r="A67" t="s">
         <v>223</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D67" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="20" t="s">
+      <c r="D67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F67" s="1">
@@ -9689,13 +9792,13 @@
       <c r="A68" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
@@ -9715,13 +9818,13 @@
       <c r="A69" t="s">
         <v>225</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
@@ -9741,16 +9844,16 @@
       <c r="A70" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D70" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="20" t="s">
+      <c r="D70" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="1">
@@ -9767,16 +9870,16 @@
       <c r="A71" t="s">
         <v>227</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="20" t="s">
+      <c r="D71" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1">
@@ -9793,16 +9896,16 @@
       <c r="A72" t="s">
         <v>228</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="20" t="s">
+      <c r="D72" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F72" s="1">
@@ -9819,13 +9922,13 @@
       <c r="A73" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D73" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
@@ -9845,13 +9948,13 @@
       <c r="A74" t="s">
         <v>230</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D74" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
@@ -9871,17 +9974,17 @@
       <c r="A75" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C75" s="9">
-        <f>BC!G3</f>
+        <f>BC!$G$3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="1">
@@ -9898,17 +10001,17 @@
       <c r="A76" t="s">
         <v>232</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C76" s="9">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="20" t="s">
+      <c r="D76" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1">
@@ -9925,17 +10028,17 @@
       <c r="A77" t="s">
         <v>233</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C77" s="9">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="20" t="s">
+      <c r="D77" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>205</v>
       </c>
       <c r="F77" s="1">
@@ -9952,14 +10055,14 @@
       <c r="A78" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C78" s="9">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D78" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
@@ -9979,14 +10082,14 @@
       <c r="A79" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="20" t="s">
         <v>3</v>
       </c>
       <c r="C79" s="9">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D79" s="20" t="s">
+      <c r="D79" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
@@ -10053,17 +10156,16 @@
       </c>
     </row>
     <row r="88" ht="13.8" spans="1:15">
-      <c r="A88" s="19" t="s">
+      <c r="A88" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B88">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88"/>
+      <c r="C88" s="21" t="s">
+        <v>7</v>
+      </c>
       <c r="I88" s="1"/>
       <c r="O88" s="1"/>
     </row>
@@ -10076,30 +10178,30 @@
       </c>
     </row>
     <row r="90" ht="13.8" spans="1:4">
-      <c r="A90" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="12">
+      <c r="A90" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="1">
         <v>0.0258261881814428</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="1">
         <v>0.000351032370131479</v>
       </c>
     </row>
     <row r="91" ht="13.8" spans="1:6">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C91" s="12">
+      <c r="C91" s="1">
         <v>0.014224726040376</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="1">
         <v>0.000105978072004441</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" ht="13.8" spans="1:6">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="21" t="s">
         <v>248</v>
       </c>
       <c r="C92" s="1">
@@ -10111,7 +10213,7 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" ht="13.8" spans="1:6">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="21" t="s">
         <v>249</v>
       </c>
       <c r="C93" s="1">
@@ -10123,7 +10225,7 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" ht="13.8" spans="1:6">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="21" t="s">
         <v>250</v>
       </c>
       <c r="C94" s="1">
@@ -10135,7 +10237,7 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="21" t="s">
         <v>251</v>
       </c>
       <c r="C95" s="1">
@@ -10147,7 +10249,7 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="21" t="s">
         <v>252</v>
       </c>
       <c r="C96" s="1">
@@ -10159,7 +10261,7 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="21" t="s">
         <v>253</v>
       </c>
       <c r="C97" s="1">
@@ -10171,7 +10273,7 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="21" t="s">
         <v>254</v>
       </c>
       <c r="C98" s="1">
@@ -10183,7 +10285,7 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="21" t="s">
         <v>255</v>
       </c>
       <c r="C99" s="1">
@@ -10195,7 +10297,7 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="21" t="s">
         <v>256</v>
       </c>
       <c r="C100" s="1">
@@ -10207,7 +10309,7 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C101" s="1">
@@ -10219,7 +10321,7 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="21" t="s">
         <v>258</v>
       </c>
       <c r="C102" s="1">
@@ -10231,7 +10333,7 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="21" t="s">
         <v>259</v>
       </c>
       <c r="C103" s="1">
@@ -10243,7 +10345,7 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="21" t="s">
         <v>260</v>
       </c>
       <c r="C104" s="1">
@@ -10255,7 +10357,7 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="21" t="s">
         <v>261</v>
       </c>
       <c r="C105" s="1">
@@ -10267,31 +10369,31 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C106" s="12">
+      <c r="C106" s="1">
         <v>0.0187314988498665</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="1">
         <v>0.000183571002102724</v>
       </c>
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A107" s="20" t="s">
+      <c r="A107" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C107" s="12">
+      <c r="C107" s="1">
         <v>0.0187444115861767</v>
       </c>
-      <c r="D107" s="12">
+      <c r="D107" s="1">
         <v>0.000183824983936405</v>
       </c>
       <c r="F107" s="1"/>
     </row>
     <row r="108" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="21" t="s">
         <v>264</v>
       </c>
       <c r="C108" s="1">
@@ -10303,115 +10405,115 @@
       <c r="F108" s="1"/>
     </row>
     <row r="109" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A109" s="20" t="s">
+      <c r="A109" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C109" s="12">
+      <c r="C109" s="1">
         <v>0.0187702364077244</v>
       </c>
-      <c r="D109" s="12">
+      <c r="D109" s="1">
         <v>0.000184333482696622</v>
       </c>
       <c r="F109" s="1"/>
     </row>
     <row r="110" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A110" s="20" t="s">
+      <c r="A110" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="1">
         <v>0.0187831484929515</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="1">
         <v>0.000184587999633658</v>
       </c>
       <c r="F110" s="1"/>
     </row>
     <row r="111" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A111" s="20" t="s">
+      <c r="A111" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C111" s="12">
+      <c r="C111" s="1">
         <v>0.0187960603611405</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="1">
         <v>0.000184842694948978</v>
       </c>
       <c r="F111" s="1"/>
     </row>
     <row r="112" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A112" s="20" t="s">
+      <c r="A112" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="1">
         <v>0.0188089720122861</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="1">
         <v>0.000185097568647826</v>
       </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="1">
         <v>0.0188218834463831</v>
       </c>
-      <c r="D113" s="12">
+      <c r="D113" s="1">
         <v>0.000185352620735447</v>
       </c>
       <c r="F113" s="1"/>
     </row>
     <row r="114" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C114" s="12">
+      <c r="C114" s="1">
         <v>0.0188347946634264</v>
       </c>
-      <c r="D114" s="12">
+      <c r="D114" s="1">
         <v>0.000185607851217082</v>
       </c>
       <c r="F114" s="1"/>
     </row>
     <row r="115" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="C115" s="12">
+      <c r="C115" s="1">
         <v>0.0188477056634108</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="1">
         <v>0.00018586326009797</v>
       </c>
       <c r="F115" s="1"/>
     </row>
     <row r="116" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="1">
         <v>0.018860616446331</v>
       </c>
-      <c r="D116" s="12">
+      <c r="D116" s="1">
         <v>0.000186118847383349</v>
       </c>
       <c r="F116" s="1"/>
     </row>
     <row r="117" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="C117" s="12">
+      <c r="C117" s="1">
         <v>0.0188735270121818</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="1">
         <v>0.000186374613078454</v>
       </c>
       <c r="F117" s="1"/>
     </row>
     <row r="118" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A118" s="20" t="s">
+      <c r="A118" s="21" t="s">
         <v>274</v>
       </c>
       <c r="C118" s="1">
@@ -10423,115 +10525,115 @@
       <c r="F118" s="1"/>
     </row>
     <row r="119" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A119" s="20" t="s">
+      <c r="A119" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="1">
         <v>0.0188993474926546</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="1">
         <v>0.000186886679718774</v>
       </c>
       <c r="F119" s="1"/>
     </row>
     <row r="120" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A120" s="20" t="s">
+      <c r="A120" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="1">
         <v>0.0189122574072662</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="1">
         <v>0.000187142980674449</v>
       </c>
       <c r="F120" s="1"/>
     </row>
     <row r="121" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A121" s="20" t="s">
+      <c r="A121" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C121" s="12">
+      <c r="C121" s="1">
         <v>0.0189251671047877</v>
       </c>
-      <c r="D121" s="12">
+      <c r="D121" s="1">
         <v>0.000187399460060772</v>
       </c>
       <c r="F121" s="1"/>
     </row>
     <row r="122" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A122" s="20" t="s">
+      <c r="A122" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="1">
         <v>0.0189380765852138</v>
       </c>
-      <c r="D122" s="12">
+      <c r="D122" s="1">
         <v>0.000187656117882967</v>
       </c>
       <c r="F122" s="1"/>
     </row>
     <row r="123" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A123" s="20" t="s">
+      <c r="A123" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="C123" s="12">
+      <c r="C123" s="1">
         <v>0.0189509858485395</v>
       </c>
-      <c r="D123" s="12">
+      <c r="D123" s="1">
         <v>0.000187912954146258</v>
       </c>
       <c r="F123" s="1"/>
     </row>
     <row r="124" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A124" s="20" t="s">
+      <c r="A124" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="1">
         <v>0.0189638948947595</v>
       </c>
-      <c r="D124" s="12">
+      <c r="D124" s="1">
         <v>0.000188169968855866</v>
       </c>
       <c r="F124" s="1"/>
     </row>
     <row r="125" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A125" s="20" t="s">
+      <c r="A125" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C125" s="12">
+      <c r="C125" s="1">
         <v>0.0189768037238686</v>
       </c>
-      <c r="D125" s="12">
+      <c r="D125" s="1">
         <v>0.00018842716201701</v>
       </c>
       <c r="F125" s="1"/>
     </row>
     <row r="126" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C126" s="12">
+      <c r="C126" s="1">
         <v>0.0189897123358617</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="1">
         <v>0.000188684533634906</v>
       </c>
       <c r="F126" s="1"/>
     </row>
     <row r="127" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C127" s="12">
+      <c r="C127" s="1">
         <v>0.0190026207307336</v>
       </c>
-      <c r="D127" s="12">
+      <c r="D127" s="1">
         <v>0.00018894208371477</v>
       </c>
       <c r="F127" s="1"/>
     </row>
     <row r="128" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A128" s="20" t="s">
+      <c r="A128" s="21" t="s">
         <v>284</v>
       </c>
       <c r="C128" s="1">
@@ -10543,115 +10645,115 @@
       <c r="F128" s="1"/>
     </row>
     <row r="129" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A129" s="20" t="s">
+      <c r="A129" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C129" s="12">
+      <c r="C129" s="1">
         <v>0.019028436869093</v>
       </c>
-      <c r="D129" s="12">
+      <c r="D129" s="1">
         <v>0.000189457719281252</v>
       </c>
       <c r="F129" s="1"/>
     </row>
     <row r="130" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A130" s="20" t="s">
+      <c r="A130" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C130" s="12">
+      <c r="C130" s="1">
         <v>0.0190413446125702</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="1">
         <v>0.000189715804778288</v>
       </c>
       <c r="F130" s="1"/>
     </row>
     <row r="131" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A131" s="20" t="s">
+      <c r="A131" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="1">
         <v>0.0190542521389055</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="1">
         <v>0.000189974068758133</v>
       </c>
       <c r="F131" s="1"/>
     </row>
     <row r="132" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A132" s="20" t="s">
+      <c r="A132" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="1">
         <v>0.0190671594480938</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="1">
         <v>0.000190232511225989</v>
       </c>
       <c r="F132" s="1"/>
     </row>
     <row r="133" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A133" s="20" t="s">
+      <c r="A133" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="C133" s="12">
+      <c r="C133" s="1">
         <v>0.0190800665401298</v>
       </c>
-      <c r="D133" s="12">
+      <c r="D133" s="1">
         <v>0.00019049113218706</v>
       </c>
       <c r="F133" s="1"/>
     </row>
     <row r="134" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A134" s="20" t="s">
+      <c r="A134" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C134" s="12">
+      <c r="C134" s="1">
         <v>0.0190929734150084</v>
       </c>
-      <c r="D134" s="12">
+      <c r="D134" s="1">
         <v>0.000190749931646547</v>
       </c>
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A135" s="20" t="s">
+      <c r="A135" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="12">
+      <c r="C135" s="1">
         <v>0.0191058800727245</v>
       </c>
-      <c r="D135" s="12">
+      <c r="D135" s="1">
         <v>0.000191008909609647</v>
       </c>
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A136" s="20" t="s">
+      <c r="A136" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="1">
         <v>0.0191187865132729</v>
       </c>
-      <c r="D136" s="12">
+      <c r="D136" s="1">
         <v>0.000191268066081559</v>
       </c>
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A137" s="20" t="s">
+      <c r="A137" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="1">
         <v>0.0191316927366485</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="1">
         <v>0.000191527401067475</v>
       </c>
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A138" s="20" t="s">
+      <c r="A138" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C138" s="1">
@@ -10663,115 +10765,115 @@
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A139" s="20" t="s">
+      <c r="A139" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="12">
+      <c r="C139" s="1">
         <v>0.0191575045318604</v>
       </c>
-      <c r="D139" s="12">
+      <c r="D139" s="1">
         <v>0.000192046606602093</v>
       </c>
       <c r="F139" s="1"/>
     </row>
     <row r="140" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A140" s="20" t="s">
+      <c r="A140" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="1">
         <v>0.0191704101036865</v>
       </c>
-      <c r="D140" s="12">
+      <c r="D140" s="1">
         <v>0.000192306477161173</v>
       </c>
       <c r="F140" s="1"/>
     </row>
     <row r="141" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A141" s="20" t="s">
+      <c r="A141" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C141" s="12">
+      <c r="C141" s="1">
         <v>0.0191833154583191</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="1">
         <v>0.000192566526255016</v>
       </c>
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A142" s="20" t="s">
+      <c r="A142" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C142" s="12">
+      <c r="C142" s="1">
         <v>0.0191962205957531</v>
       </c>
-      <c r="D142" s="12">
+      <c r="D142" s="1">
         <v>0.000192826753888807</v>
       </c>
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A143" s="20" t="s">
+      <c r="A143" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C143" s="12">
+      <c r="C143" s="1">
         <v>0.0192091255159834</v>
       </c>
-      <c r="D143" s="12">
+      <c r="D143" s="1">
         <v>0.000193087160067727</v>
       </c>
       <c r="F143" s="1"/>
     </row>
     <row r="144" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A144" s="20" t="s">
+      <c r="A144" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="1">
         <v>0.0192220302190049</v>
       </c>
-      <c r="D144" s="12">
+      <c r="D144" s="1">
         <v>0.000193347744796959</v>
       </c>
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C145" s="12">
+      <c r="C145" s="1">
         <v>0.0192349347048123</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="1">
         <v>0.000193608508081679</v>
       </c>
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A146" s="20" t="s">
+      <c r="A146" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C146" s="12">
+      <c r="C146" s="1">
         <v>0.0192478389734006</v>
       </c>
-      <c r="D146" s="12">
+      <c r="D146" s="1">
         <v>0.000193869449927063</v>
       </c>
       <c r="F146" s="1"/>
     </row>
     <row r="147" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A147" s="20" t="s">
+      <c r="A147" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C147" s="12">
+      <c r="C147" s="1">
         <v>0.0192607430247646</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="1">
         <v>0.000194130570338288</v>
       </c>
       <c r="F147" s="1"/>
     </row>
     <row r="148" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A148" s="20" t="s">
+      <c r="A148" s="21" t="s">
         <v>304</v>
       </c>
       <c r="C148" s="1">
@@ -10783,115 +10885,115 @@
       <c r="F148" s="1"/>
     </row>
     <row r="149" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A149" s="20" t="s">
+      <c r="A149" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C149" s="12">
+      <c r="C149" s="1">
         <v>0.0192865504757992</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="1">
         <v>0.00019465334687894</v>
       </c>
       <c r="F149" s="1"/>
     </row>
     <row r="150" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A150" s="20" t="s">
+      <c r="A150" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C150" s="12">
+      <c r="C150" s="1">
         <v>0.0192994538754597</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="1">
         <v>0.000194915003018706</v>
       </c>
       <c r="F150" s="1"/>
     </row>
     <row r="151" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A151" s="20" t="s">
+      <c r="A151" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C151" s="12">
+      <c r="C151" s="1">
         <v>0.0193123570578753</v>
       </c>
-      <c r="D151" s="12">
+      <c r="D151" s="1">
         <v>0.000195176837744989</v>
       </c>
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A152" s="20" t="s">
+      <c r="A152" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="1">
         <v>0.019325260023041</v>
       </c>
-      <c r="D152" s="12">
+      <c r="D152" s="1">
         <v>0.000195438851062951</v>
       </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A153" s="20" t="s">
+      <c r="A153" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C153" s="12">
+      <c r="C153" s="1">
         <v>0.0193381627709517</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="1">
         <v>0.000195701042977755</v>
       </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A154" s="20" t="s">
+      <c r="A154" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C154" s="12">
+      <c r="C154" s="1">
         <v>0.0193510653016022</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="1">
         <v>0.000195963413494561</v>
       </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A155" s="20" t="s">
+      <c r="A155" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C155" s="12">
+      <c r="C155" s="1">
         <v>0.0193639676149875</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="1">
         <v>0.000196225962618526</v>
       </c>
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A156" s="20" t="s">
+      <c r="A156" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="1">
         <v>0.0193768697111024</v>
       </c>
-      <c r="D156" s="12">
+      <c r="D156" s="1">
         <v>0.000196488690354808</v>
       </c>
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A157" s="20" t="s">
+      <c r="A157" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C157" s="12">
+      <c r="C157" s="1">
         <v>0.0193897715899419</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="1">
         <v>0.000196751596708559</v>
       </c>
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="13.8" collapsed="1" spans="1:4">
-      <c r="A158" s="20" t="s">
+      <c r="A158" s="21" t="s">
         <v>314</v>
       </c>
       <c r="C158" s="1">
@@ -10902,304 +11004,304 @@
       </c>
     </row>
     <row r="159" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A159" s="20" t="s">
+      <c r="A159" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="12">
+      <c r="C159" s="1">
         <v>0.0194155746957739</v>
       </c>
-      <c r="D159" s="12">
+      <c r="D159" s="1">
         <v>0.000197277945289075</v>
       </c>
     </row>
     <row r="160" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A160" s="20" t="s">
+      <c r="A160" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="1">
         <v>0.0194284759227563</v>
       </c>
-      <c r="D160" s="12">
+      <c r="D160" s="1">
         <v>0.000197541387526138</v>
       </c>
     </row>
     <row r="161" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A161" s="20" t="s">
+      <c r="A161" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C161" s="12">
+      <c r="C161" s="1">
         <v>0.0194413769324428</v>
       </c>
-      <c r="D161" s="12">
+      <c r="D161" s="1">
         <v>0.000197805008401266</v>
       </c>
     </row>
     <row r="162" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C162" s="12">
+      <c r="C162" s="1">
         <v>0.0194542777248282</v>
       </c>
-      <c r="D162" s="12">
+      <c r="D162" s="1">
         <v>0.000198068807919603</v>
       </c>
     </row>
     <row r="163" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A163" s="20" t="s">
+      <c r="A163" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C163" s="12">
+      <c r="C163" s="1">
         <v>0.0194671782999076</v>
       </c>
-      <c r="D163" s="12">
+      <c r="D163" s="1">
         <v>0.00019833278608629</v>
       </c>
     </row>
     <row r="164" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A164" s="20" t="s">
+      <c r="A164" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="1">
         <v>0.0194800786576758</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="1">
         <v>0.000198596942906468</v>
       </c>
     </row>
     <row r="165" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A165" s="20" t="s">
+      <c r="A165" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C165" s="12">
+      <c r="C165" s="1">
         <v>0.0194929787981277</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="1">
         <v>0.000198861278385274</v>
       </c>
     </row>
     <row r="166" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A166" s="20" t="s">
+      <c r="A166" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C166" s="12">
+      <c r="C166" s="1">
         <v>0.0195058787212582</v>
       </c>
-      <c r="D166" s="12">
+      <c r="D166" s="1">
         <v>0.000199125792527842</v>
       </c>
     </row>
     <row r="167" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A167" s="20" t="s">
+      <c r="A167" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C167" s="12">
+      <c r="C167" s="1">
         <v>0.0195187784270622</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="1">
         <v>0.000199390485339308</v>
       </c>
     </row>
     <row r="168" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A168" s="20" t="s">
+      <c r="A168" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="1">
         <v>0.0195316779155347</v>
       </c>
-      <c r="D168" s="12">
+      <c r="D168" s="1">
         <v>0.000199655356824803</v>
       </c>
     </row>
     <row r="169" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A169" s="20" t="s">
+      <c r="A169" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C169" s="12">
+      <c r="C169" s="1">
         <v>0.0195445771866706</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="1">
         <v>0.000199920406989456</v>
       </c>
     </row>
     <row r="170" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A170" s="20" t="s">
+      <c r="A170" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C170" s="12">
+      <c r="C170" s="1">
         <v>0.0195574762404647</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="1">
         <v>0.000200185635838395</v>
       </c>
     </row>
     <row r="171" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A171" s="20" t="s">
+      <c r="A171" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C171" s="12">
+      <c r="C171" s="1">
         <v>0.0195703750769121</v>
       </c>
-      <c r="D171" s="12">
+      <c r="D171" s="1">
         <v>0.000200451043376745</v>
       </c>
     </row>
     <row r="172" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A172" s="20" t="s">
+      <c r="A172" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="1">
         <v>0.0195832736960075</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="1">
         <v>0.000200716629609631</v>
       </c>
     </row>
     <row r="173" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A173" s="20" t="s">
+      <c r="A173" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="C173" s="12">
+      <c r="C173" s="1">
         <v>0.019596172097746</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="1">
         <v>0.000200982394542172</v>
       </c>
     </row>
     <row r="174" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A174" s="20" t="s">
+      <c r="A174" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="C174" s="12">
+      <c r="C174" s="1">
         <v>0.0196090702821225</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="1">
         <v>0.000201248338179489</v>
       </c>
     </row>
     <row r="175" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A175" s="20" t="s">
+      <c r="A175" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="C175" s="12">
+      <c r="C175" s="1">
         <v>0.0196219682491319</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="1">
         <v>0.0002015144605267</v>
       </c>
     </row>
     <row r="176" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A176" s="20" t="s">
+      <c r="A176" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="1">
         <v>0.0196348659987691</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="1">
         <v>0.000201780761588919</v>
       </c>
     </row>
     <row r="177" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A177" s="20" t="s">
+      <c r="A177" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="C177" s="12">
+      <c r="C177" s="1">
         <v>0.019647763531029</v>
       </c>
-      <c r="D177" s="12">
+      <c r="D177" s="1">
         <v>0.00020204724137126</v>
       </c>
     </row>
     <row r="178" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A178" s="20" t="s">
+      <c r="A178" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="C178" s="12">
+      <c r="C178" s="1">
         <v>0.0196606608459067</v>
       </c>
-      <c r="D178" s="12">
+      <c r="D178" s="1">
         <v>0.000202313899878834</v>
       </c>
     </row>
     <row r="179" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A179" s="20" t="s">
+      <c r="A179" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C179" s="12">
+      <c r="C179" s="1">
         <v>0.0197896220375441</v>
       </c>
-      <c r="D179" s="12">
+      <c r="D179" s="1">
         <v>0.000204990315965461</v>
       </c>
     </row>
     <row r="180" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A180" s="20" t="s">
+      <c r="A180" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="1">
         <v>0.0199185614853958</v>
       </c>
-      <c r="D180" s="12">
+      <c r="D180" s="1">
         <v>0.000207684610182898</v>
       </c>
     </row>
     <row r="181" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A181" s="20" t="s">
+      <c r="A181" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="C181" s="12">
+      <c r="C181" s="1">
         <v>0.0200474791844324</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="1">
         <v>0.000210396787609168</v>
       </c>
     </row>
     <row r="182" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A182" s="20" t="s">
+      <c r="A182" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="C182" s="12">
+      <c r="C182" s="1">
         <v>0.020176375129646</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="1">
         <v>0.000213126853302142</v>
       </c>
     </row>
     <row r="183" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A183" s="20" t="s">
+      <c r="A183" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C183" s="12">
+      <c r="C183" s="1">
         <v>0.0203052493160502</v>
       </c>
-      <c r="D183" s="12">
+      <c r="D183" s="1">
         <v>0.000215874812299571</v>
       </c>
     </row>
     <row r="184" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A184" s="20" t="s">
+      <c r="A184" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="1">
         <v>0.0204341017386801</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="1">
         <v>0.000218640669619121</v>
       </c>
     </row>
     <row r="185" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A185" s="20" t="s">
+      <c r="A185" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="C185" s="12">
+      <c r="C185" s="1">
         <v>0.0205629323925921</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="1">
         <v>0.000221424430258407</v>
       </c>
     </row>
     <row r="186" ht="13.8" collapsed="1" spans="1:4">
-      <c r="A186" s="20" t="s">
+      <c r="A186" s="21" t="s">
         <v>342</v>
       </c>
       <c r="C186" s="1">
@@ -11210,36 +11312,1356 @@
       </c>
     </row>
     <row r="187" ht="13.8" spans="1:4">
-      <c r="A187" s="20" t="s">
+      <c r="A187" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C187" s="12">
+      <c r="C187" s="1">
         <v>0.0219786314576869</v>
       </c>
-      <c r="D187" s="12">
+      <c r="D187" s="1">
         <v>0.000253228825744024</v>
       </c>
     </row>
     <row r="188" ht="13.8" spans="1:4">
-      <c r="A188" s="20" t="s">
+      <c r="A188" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="1">
         <v>0.0232633390210446</v>
       </c>
-      <c r="D188" s="12">
+      <c r="D188" s="1">
         <v>0.000284027710085988</v>
       </c>
     </row>
     <row r="189" ht="13.8" spans="1:4">
-      <c r="A189" s="20" t="s">
+      <c r="A189" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="C189" s="12">
+      <c r="C189" s="1">
         <v>0.0245458593864223</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="1">
         <v>0.0003166274048988</v>
+      </c>
+    </row>
+    <row r="192" ht="13.8" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F193" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>245</v>
+      </c>
+      <c r="C194" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="195" ht="13.8" spans="1:11">
+      <c r="A195" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C195" s="1">
+        <v>0.0303637085719927</v>
+      </c>
+      <c r="F195" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H195" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I195" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K195" s="13">
+        <v>0.0307066282624829</v>
+      </c>
+    </row>
+    <row r="196" ht="13.8" spans="1:11">
+      <c r="A196" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C196" s="1">
+        <v>0.0325226289435405</v>
+      </c>
+      <c r="F196" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G196">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H196" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I196" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K196" s="13">
+        <v>0.03282722575299</v>
+      </c>
+    </row>
+    <row r="197" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A197" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C197" s="1">
+        <v>0.0327382232273751</v>
+      </c>
+      <c r="D197" s="1"/>
+      <c r="F197" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G197">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H197" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="I197" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K197" s="13">
+        <v>0.0330385588857948</v>
+      </c>
+    </row>
+    <row r="198" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A198" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" s="1">
+        <v>0.0329537633743656</v>
+      </c>
+      <c r="F198" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G198">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H198" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="I198" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" s="13">
+        <v>0.0332497605740814</v>
+      </c>
+    </row>
+    <row r="199" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A199" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0.033169249384692</v>
+      </c>
+      <c r="F199" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H199" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="I199" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K199" s="13">
+        <v>0.0334608309836609</v>
+      </c>
+    </row>
+    <row r="200" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A200" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C200" s="1">
+        <v>0.03338468125858</v>
+      </c>
+      <c r="F200" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G200">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H200" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="I200" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K200" s="13">
+        <v>0.0336717702800173</v>
+      </c>
+    </row>
+    <row r="201" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A201" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" s="1">
+        <v>0.0336000589963005</v>
+      </c>
+      <c r="F201" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G201">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H201" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="I201" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K201" s="13">
+        <v>0.0338825786283084</v>
+      </c>
+    </row>
+    <row r="202" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A202" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C202" s="1">
+        <v>0.0338153825981698</v>
+      </c>
+      <c r="F202" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H202" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="I202" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K202" s="13">
+        <v>0.0340932561933668</v>
+      </c>
+    </row>
+    <row r="203" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A203" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C203" s="1">
+        <v>0.0340306520645494</v>
+      </c>
+      <c r="F203" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H203" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="I203" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K203" s="13">
+        <v>0.034303803139701</v>
+      </c>
+    </row>
+    <row r="204" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A204" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C204" s="1">
+        <v>0.0342458673958457</v>
+      </c>
+      <c r="F204" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G204">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H204" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="I204" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K204" s="13">
+        <v>0.0345142196314953</v>
+      </c>
+    </row>
+    <row r="205" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A205" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C205" s="1">
+        <v>0.03446102859251</v>
+      </c>
+      <c r="F205" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G205">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H205" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I205" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K205" s="13">
+        <v>0.0347245058326121</v>
+      </c>
+    </row>
+    <row r="206" ht="13.8" collapsed="1" spans="1:11">
+      <c r="A206" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C206" s="1">
+        <v>0.0346761356550385</v>
+      </c>
+      <c r="F206" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G206">
+        <f>BC!$G$4</f>
+        <v>0.298587962962963</v>
+      </c>
+      <c r="H206" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="I206" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K206" s="13">
+        <v>0.0349346619065914</v>
+      </c>
+    </row>
+    <row r="208" ht="13.8" spans="1:5">
+      <c r="A208" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B209" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F209" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>245</v>
+      </c>
+      <c r="C210" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="211" ht="13.8" spans="1:11">
+      <c r="A211" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C211" s="13">
+        <v>0.0134939483657124</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G211" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H211" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I211" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K211" s="13">
+        <v>0.0136424564467213</v>
+      </c>
+    </row>
+    <row r="212" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A212" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="C212" s="13">
+        <v>0.0135903189405698</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G212" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H212" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="I212" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K212" s="13">
+        <v>0.0137373063436915</v>
+      </c>
+    </row>
+    <row r="213" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A213" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C213" s="13">
+        <v>0.0136866692903661</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G213" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H213" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="I213" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K213" s="13">
+        <v>0.0138321018618597</v>
+      </c>
+    </row>
+    <row r="214" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A214" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C214" s="13">
+        <v>0.0137829993916999</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G214" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H214" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="I214" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K214" s="13">
+        <v>0.0139268430742091</v>
+      </c>
+    </row>
+    <row r="215" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A215" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C215" s="13">
+        <v>0.0138793092212559</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G215" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="I215" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K215" s="13">
+        <v>0.0140215300535683</v>
+      </c>
+    </row>
+    <row r="216" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A216" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C216" s="13">
+        <v>0.0139755987558038</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G216" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H216" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="I216" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K216" s="13">
+        <v>0.0141161628726118</v>
+      </c>
+    </row>
+    <row r="217" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A217" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C217" s="13">
+        <v>0.0140718679721986</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G217" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H217" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I217" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K217" s="13">
+        <v>0.0142107416038605</v>
+      </c>
+    </row>
+    <row r="218" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A218" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C218" s="13">
+        <v>0.0141681168473801</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G218" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H218" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="I218" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K218" s="13">
+        <v>0.0143052663196822</v>
+      </c>
+    </row>
+    <row r="219" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A219" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C219" s="13">
+        <v>0.014264345358373</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G219" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H219" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="I219" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K219" s="13">
+        <v>0.0143997370922917</v>
+      </c>
+    </row>
+    <row r="220" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
+      <c r="A220" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C220" s="13">
+        <v>0.0143605534822863</v>
+      </c>
+      <c r="F220" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G220" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H220" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="I220" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K220" s="13">
+        <v>0.0144941539937516</v>
+      </c>
+    </row>
+    <row r="221" ht="13.8" collapsed="1" spans="1:11">
+      <c r="A221" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C221" s="13">
+        <v>0.0144567411963133</v>
+      </c>
+      <c r="F221" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G221" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H221" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="I221" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K221" s="13">
+        <v>0.0145885170959727</v>
+      </c>
+    </row>
+    <row r="223" ht="13.8" spans="1:5">
+      <c r="A223" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B224" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F224" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>245</v>
+      </c>
+      <c r="C225" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="226" ht="13.8" spans="1:11">
+      <c r="A226" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C226" s="13">
+        <v>0.0784309742250536</v>
+      </c>
+      <c r="F226" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G226" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H226" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="I226" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K226" s="13">
+        <v>0.0524825714672126</v>
+      </c>
+    </row>
+    <row r="227" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C227" s="13"/>
+      <c r="F227" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H227" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="I227" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K227" s="13">
+        <v>0.053237741629711</v>
+      </c>
+    </row>
+    <row r="228" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C228" s="13"/>
+      <c r="F228" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G228" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H228" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="I228" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K228" s="13">
+        <v>0.053989729889269</v>
+      </c>
+    </row>
+    <row r="229" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C229" s="13"/>
+      <c r="F229" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G229" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="I229" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K229" s="13">
+        <v>0.0547385671187077</v>
+      </c>
+    </row>
+    <row r="230" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C230" s="13"/>
+      <c r="F230" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G230" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H230" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="I230" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K230" s="13">
+        <v>0.0554842837131541</v>
+      </c>
+    </row>
+    <row r="231" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C231" s="13"/>
+      <c r="F231" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G231" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H231" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="I231" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K231" s="13">
+        <v>0.0562269096000822</v>
+      </c>
+    </row>
+    <row r="232" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C232" s="13"/>
+      <c r="F232" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G232" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H232" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I232" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K232" s="13">
+        <v>0.0569664742490914</v>
+      </c>
+    </row>
+    <row r="233" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C233" s="13"/>
+      <c r="F233" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G233" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H233" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="I233" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K233" s="13">
+        <v>0.0577030066814298</v>
+      </c>
+    </row>
+    <row r="234" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C234" s="13"/>
+      <c r="F234" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G234" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H234" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="I234" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K234" s="13">
+        <v>0.0584365354792699</v>
+      </c>
+    </row>
+    <row r="235" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
+      <c r="C235" s="13"/>
+      <c r="F235" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G235" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H235" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="I235" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K235" s="13">
+        <v>0.0591670887947445</v>
+      </c>
+    </row>
+    <row r="236" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C236" s="13"/>
+      <c r="F236" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G236" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H236" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="I236" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K236" s="13">
+        <v>0.0592399815460039</v>
+      </c>
+    </row>
+    <row r="237" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C237" s="13"/>
+      <c r="F237" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G237" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H237" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="I237" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K237" s="13">
+        <v>0.0593128448475909</v>
+      </c>
+    </row>
+    <row r="238" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C238" s="13"/>
+      <c r="F238" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G238" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H238" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="I238" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K238" s="13">
+        <v>0.0593856787269662</v>
+      </c>
+    </row>
+    <row r="239" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C239" s="13"/>
+      <c r="F239" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G239" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H239" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="I239" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K239" s="13">
+        <v>0.0594584832115492</v>
+      </c>
+    </row>
+    <row r="240" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C240" s="13"/>
+      <c r="F240" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G240" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H240" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="I240" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K240" s="13">
+        <v>0.0595312583287187</v>
+      </c>
+    </row>
+    <row r="241" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C241" s="13"/>
+      <c r="F241" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G241" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H241" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="I241" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K241" s="13">
+        <v>0.0596040041058122</v>
+      </c>
+    </row>
+    <row r="242" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C242" s="13"/>
+      <c r="F242" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G242" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H242" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="I242" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K242" s="13">
+        <v>0.0596767205701264</v>
+      </c>
+    </row>
+    <row r="243" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C243" s="13"/>
+      <c r="F243" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G243" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H243" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="I243" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K243" s="13">
+        <v>0.0597494077489175</v>
+      </c>
+    </row>
+    <row r="244" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
+      <c r="C244" s="13"/>
+      <c r="F244" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G244" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H244" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="I244" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K244" s="13">
+        <v>0.0598220656694008</v>
+      </c>
+    </row>
+    <row r="245" ht="13.8" hidden="1" outlineLevel="1" collapsed="1" spans="3:11">
+      <c r="C245" s="13"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
+      <c r="I245" s="4"/>
+      <c r="K245" s="13"/>
+    </row>
+    <row r="246" ht="13.8" collapsed="1" spans="1:11">
+      <c r="A246" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C246" s="13">
+        <v>0.078515201416758</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G246" s="4">
+        <f>BC!$G$2</f>
+        <v>0.19874537037037</v>
+      </c>
+      <c r="H246" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="I246" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K246" s="13">
+        <v>0.0598946943587511</v>
+      </c>
+    </row>
+    <row r="247" ht="13.8" spans="1:9">
+      <c r="A247" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247" s="13">
+        <v>0.0792801881660655</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
+      <c r="I247" s="4"/>
+    </row>
+    <row r="248" ht="13.8" spans="1:9">
+      <c r="A248" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248" s="13">
+        <v>0.0801286484722593</v>
+      </c>
+      <c r="F248" s="3"/>
+      <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
+      <c r="I248" s="4"/>
+    </row>
+    <row r="249" ht="13.8" spans="1:9">
+      <c r="A249" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249" s="13">
+        <v>0.0809754826531009</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="4"/>
+    </row>
+    <row r="250" ht="13.8" spans="1:9">
+      <c r="A250" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C250" s="13">
+        <v>0.0818206697951643</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
+      <c r="I250" s="4"/>
+    </row>
+    <row r="251" ht="13.8" spans="1:9">
+      <c r="A251" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C251" s="13">
+        <v>0.0826641896854513</v>
+      </c>
+      <c r="F251" s="3"/>
+      <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
+      <c r="I251" s="4"/>
+    </row>
+    <row r="253" ht="13.8" spans="1:9">
+      <c r="A253" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F253" s="1"/>
+      <c r="I253" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="9">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="C254" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F254" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>245</v>
+      </c>
+      <c r="C255" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="256" ht="13.8" spans="1:3">
+      <c r="A256" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C256" s="13">
+        <v>0.0263445305666462</v>
+      </c>
+    </row>
+    <row r="257" ht="13.8" spans="1:11">
+      <c r="A257" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="13">
+        <v>0.0283672441102476</v>
+      </c>
+      <c r="D257" s="13">
+        <v>0.000301308559485825</v>
+      </c>
+      <c r="K257" s="13"/>
+    </row>
+    <row r="258" ht="13.8" spans="1:12">
+      <c r="A258" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C258" s="13">
+        <v>0.0980128609002496</v>
+      </c>
+      <c r="D258" s="13">
+        <v>0.00398442777118551</v>
+      </c>
+      <c r="F258" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="9">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H258" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="I258" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="K258" s="13">
+        <v>0.244701858708424</v>
+      </c>
+      <c r="L258" s="13">
+        <v>0.0307111901146557</v>
+      </c>
+    </row>
+    <row r="259" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A259" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C259" s="13">
+        <v>0.0998602740901472</v>
+      </c>
+      <c r="D259" s="13">
+        <v>0.00414893928632988</v>
+      </c>
+    </row>
+    <row r="260" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A260" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C260" s="13">
+        <v>0.101703053537324</v>
+      </c>
+      <c r="D260" s="13">
+        <v>0.00431685125027817</v>
+      </c>
+    </row>
+    <row r="261" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A261" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C261" s="13">
+        <v>0.103541207286962</v>
+      </c>
+      <c r="D261" s="13">
+        <v>0.00448816383444768</v>
+      </c>
+    </row>
+    <row r="262" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A262" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C262" s="13">
+        <v>0.105374743526917</v>
+      </c>
+      <c r="D262" s="13">
+        <v>0.00466287696433397</v>
+      </c>
+    </row>
+    <row r="263" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A263" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C263" s="13">
+        <v>0.107203670583322</v>
+      </c>
+      <c r="D263" s="13">
+        <v>0.00484099032436452</v>
+      </c>
+    </row>
+    <row r="264" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A264" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C264" s="13">
+        <v>0.109027996916296</v>
+      </c>
+      <c r="D264" s="13">
+        <v>0.00502250336265068</v>
+      </c>
+    </row>
+    <row r="265" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A265" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C265" s="13">
+        <v>0.110847731115767</v>
+      </c>
+      <c r="D265" s="13">
+        <v>0.00520741529564041</v>
+      </c>
+    </row>
+    <row r="266" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A266" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C266" s="13">
+        <v>0.112662881897386</v>
+      </c>
+      <c r="D266" s="13">
+        <v>0.00539572511267467</v>
+      </c>
+    </row>
+    <row r="267" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
+      <c r="A267" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C267" s="13">
+        <v>0.114473458098547</v>
+      </c>
+      <c r="D267" s="13">
+        <v>0.00558743158044919</v>
+      </c>
+    </row>
+    <row r="268" ht="13.8" collapsed="1" spans="1:4">
+      <c r="A268" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C268" s="13">
+        <v>0.116279468674506</v>
+      </c>
+      <c r="D268" s="13">
+        <v>0.00578253324738456</v>
       </c>
     </row>
   </sheetData>
@@ -11267,38 +12689,38 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>346</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>352</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" ht="13.8" spans="1:8">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2">
@@ -11318,16 +12740,16 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:8">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3">
@@ -11347,16 +12769,16 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:8">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E4">

--- a/実行結果.xlsx
+++ b/実行結果.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413">
   <si>
     <t>一か月シミュレーション</t>
   </si>
@@ -541,6 +541,9 @@
     <t>1529.275065 seconds (25.64 G allocations: 462.748 GiB, 7.92% gc time)</t>
   </si>
   <si>
+    <t>[0.10572309254403688,0.10762366213094642]</t>
+  </si>
+  <si>
     <t>56.828288 seconds (208.08 M allocations: 6.480 GiB, 8.57% gc time)</t>
   </si>
   <si>
@@ -553,6 +556,48 @@
     <t>661.127105 seconds (10.15 G allocations: 184.351 GiB, 11.37% gc time)</t>
   </si>
   <si>
+    <t>1/30</t>
+  </si>
+  <si>
+    <t>16.996508 seconds (62.57 M allocations: 1.950 GiB, 6.05% gc time)</t>
+  </si>
+  <si>
+    <t>5420.674523 seconds (82.64 G allocations: 1.462 TiB, 11.00% gc time)</t>
+  </si>
+  <si>
+    <t>[0.006518197458485756,0.006698697495611274]</t>
+  </si>
+  <si>
+    <t>*1年20回</t>
+  </si>
+  <si>
+    <t>[0.01919956119489004,0.02090623996039146]</t>
+  </si>
+  <si>
+    <t>3.138729 seconds (10.82 M allocations: 350.879 MiB, 7.54% gc time)</t>
+  </si>
+  <si>
+    <t>71.379839 seconds (1.06 G allocations: 19.340 GiB, 15.00% gc time)</t>
+  </si>
+  <si>
+    <t>[0.04500811885834703,0.046125355944363206]</t>
+  </si>
+  <si>
+    <t>*3か月20回</t>
+  </si>
+  <si>
+    <t>1/0.01</t>
+  </si>
+  <si>
+    <t>16.863553 seconds (62.45 M allocations: 1.947 GiB, 9.54% gc time)</t>
+  </si>
+  <si>
+    <t>2669.501937 seconds (41.07 G allocations: 744.629 GiB, 13.12% gc time)</t>
+  </si>
+  <si>
+    <t>[0.0020118894522016817,0.0022691047747793918]</t>
+  </si>
+  <si>
     <t>43.687147 seconds (156.24 M allocations: 4.857 GiB, 9.45% gc time)</t>
   </si>
   <si>
@@ -596,6 +641,9 @@
   </si>
   <si>
     <t>*3年1回</t>
+  </si>
+  <si>
+    <t>[0.004899150560585031,0.005314288306922859]</t>
   </si>
   <si>
     <t>6.478571 seconds (25.22 M allocations: 806.786 MiB, 4.35% gc time)</t>
@@ -715,12 +763,6 @@
       </rPr>
       <t>と比較</t>
     </r>
-  </si>
-  <si>
-    <t>[0.10572309254403688,0.10762366213094642]</t>
-  </si>
-  <si>
-    <t>[0.004899150560585031,0.005314288306922859]</t>
   </si>
   <si>
     <t>[0.12870652361545173,0.13077018630437046]</t>
@@ -970,9 +1012,6 @@
     <t>破棄される確率</t>
   </si>
   <si>
-    <t>1/0.01</t>
-  </si>
-  <si>
     <t>1/0.02</t>
   </si>
   <si>
@@ -1366,6 +1405,151 @@
     <t>1/0.50</t>
   </si>
   <si>
+    <t>進捗ここから</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/30,1/30,1/30,1/0.1,1/1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>遅延レートにBCの勝率をかけてみる</t>
+  </si>
+  <si>
+    <t>遅延レートの分子に勝率の重みつけ</t>
+  </si>
+  <si>
+    <t>遅延レートにBCの勝率をかけて1/2倍する</t>
+  </si>
+  <si>
+    <r>
+      <t>A-BC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遅延</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>パラメータを調整</t>
+    </r>
+  </si>
+  <si>
+    <t>1/0.3</t>
+  </si>
+  <si>
+    <r>
+      <t>BC-A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>遅延</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>パラメータを調整</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(1/30,1/30,1/30,1/1,1/1,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>A-BCを1/2しない</t>
+  </si>
+  <si>
+    <r>
+      <t>(1/30,1/30,1/30,1/0.01,1/0.01,1/0.1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>と比較</t>
+    </r>
+  </si>
+  <si>
+    <t>1/0.005</t>
+  </si>
+  <si>
     <t>μB</t>
   </si>
   <si>
@@ -1385,6 +1569,12 @@
   </si>
   <si>
     <t>(チェーンの長さ/minute)</t>
+  </si>
+  <si>
+    <t>winB</t>
+  </si>
+  <si>
+    <t>winC</t>
   </si>
 </sst>
 </file>
@@ -1392,12 +1582,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1444,7 +1634,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1452,6 +1672,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,77 +1692,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1549,7 +1710,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1564,16 +1725,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,9 +1754,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1602,7 +1798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,19 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,13 +1846,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,103 +1912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,7 +1930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,7 +1942,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,21 +1989,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1822,6 +2003,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,11 +2055,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1854,16 +2074,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,21 +2089,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1901,151 +2097,154 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2083,7 +2282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5377,7 +5576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4899660" y="14470380"/>
+          <a:off x="4998720" y="14470380"/>
           <a:ext cx="609600" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5677,19 +5876,19 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5697,19 +5896,19 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5717,19 +5916,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5737,19 +5936,19 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5907,16 +6106,16 @@
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>0.009852611</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>0.006508833</v>
       </c>
       <c r="D13">
         <v>0.087212607</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>0.03033924</v>
       </c>
       <c r="F13">
@@ -5963,19 +6162,19 @@
       <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="20" t="s">
+      <c r="D19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5983,19 +6182,19 @@
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="B20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6003,19 +6202,19 @@
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="21" t="s">
+      <c r="B21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6023,19 +6222,19 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="B22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6193,16 +6392,16 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.009852611</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>0.006508833</v>
       </c>
       <c r="D30">
         <v>0.087212607</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>0.03033924</v>
       </c>
       <c r="F30">
@@ -6246,19 +6445,19 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="D36" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6266,19 +6465,19 @@
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="B37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6286,19 +6485,19 @@
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="21" t="s">
+      <c r="B38" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6306,19 +6505,19 @@
       <c r="A39" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="21" t="s">
+      <c r="B39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6476,16 +6675,16 @@
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>0.009852611</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>0.006508833</v>
       </c>
       <c r="D47">
         <v>0.087212607</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>0.03033924</v>
       </c>
       <c r="F47">
@@ -6562,7 +6761,7 @@
       <c r="D56" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="15">
         <v>0.00683421226620131</v>
       </c>
       <c r="H56">
@@ -6722,13 +6921,13 @@
       <c r="A84" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="7">
+      <c r="B84" s="8">
         <v>0.01</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="8">
         <v>0.00941</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>0.00985</v>
       </c>
     </row>
@@ -6736,13 +6935,13 @@
       <c r="A85" t="s">
         <v>31</v>
       </c>
-      <c r="B85" s="7">
+      <c r="B85" s="8">
         <v>0.0775</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="8">
         <v>0.0758</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="8">
         <v>0.0872</v>
       </c>
     </row>
@@ -6750,13 +6949,13 @@
       <c r="A86" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="7">
+      <c r="B86" s="8">
         <v>0.00656</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="8">
         <v>0.00622</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>0.00651</v>
       </c>
     </row>
@@ -6764,13 +6963,13 @@
       <c r="A87" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="7">
+      <c r="B87" s="8">
         <v>0.0277</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="8">
         <v>0.027</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="8">
         <v>0.0303</v>
       </c>
     </row>
@@ -6778,10 +6977,10 @@
       <c r="A88" t="s">
         <v>40</v>
       </c>
-      <c r="B88" s="7">
+      <c r="B88" s="8">
         <v>0.044</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="8">
         <v>0.0433</v>
       </c>
       <c r="D88">
@@ -6803,13 +7002,13 @@
       <c r="A93" t="s">
         <v>28</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="8">
         <v>0.0001074</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="8">
         <v>5.956e-5</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="8">
         <v>9.921393e-5</v>
       </c>
     </row>
@@ -6817,10 +7016,10 @@
       <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="8">
         <v>0.0102</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="8">
         <v>0.00981</v>
       </c>
       <c r="D94">
@@ -6831,13 +7030,13 @@
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="8">
         <v>0.000102</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="8">
         <v>6.21e-5</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="8">
         <v>8.695215e-5</v>
       </c>
     </row>
@@ -6845,13 +7044,13 @@
       <c r="A96" t="s">
         <v>37</v>
       </c>
-      <c r="B96" s="7">
+      <c r="B96" s="8">
         <v>0.00153</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="8">
         <v>0.00135</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="8">
         <v>0.002236917</v>
       </c>
     </row>
@@ -6859,10 +7058,10 @@
       <c r="A97" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="7">
+      <c r="B97" s="8">
         <v>0.00528</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="8">
         <v>0.00512</v>
       </c>
       <c r="D97">
@@ -6873,242 +7072,242 @@
       <c r="B100" s="1"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="16" t="s">
+      <c r="C113" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="18">
         <v>0.00985</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="18">
         <v>0.0872</v>
       </c>
-      <c r="D114" s="17">
+      <c r="D114" s="18">
         <v>0.00651</v>
       </c>
-      <c r="E114" s="17">
+      <c r="E114" s="18">
         <v>0.0303</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="19">
         <v>0.0533</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="18">
         <v>9.92e-5</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="18">
         <v>0.00901</v>
       </c>
-      <c r="D115" s="17">
+      <c r="D115" s="18">
         <v>8.7e-5</v>
       </c>
-      <c r="E115" s="17">
+      <c r="E115" s="18">
         <v>0.00224</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>0.00685</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="18">
         <v>9.9e-7</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="18">
         <v>0.000875</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="18">
         <v>1.16e-6</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="18">
         <v>0.000166</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="19">
         <v>0.000861</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B117" s="18">
+      <c r="B117" s="19">
         <v>9.87e-9</v>
       </c>
-      <c r="C117" s="18">
+      <c r="C117" s="19">
         <v>8.44e-5</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="19">
         <v>1.53e-8</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="19">
         <v>1.23e-5</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="19">
         <v>0.000108</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="19" t="s">
+      <c r="A118" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B118" s="18">
+      <c r="B118" s="19">
         <v>9.84e-11</v>
       </c>
-      <c r="C118" s="18">
+      <c r="C118" s="19">
         <v>8.14e-6</v>
       </c>
-      <c r="D118" s="18">
+      <c r="D118" s="19">
         <v>2.04e-10</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="19">
         <v>9.19e-7</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>1.36e-5</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="19" t="s">
+      <c r="A119" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B119" s="18">
+      <c r="B119" s="19">
         <v>9.82e-13</v>
       </c>
-      <c r="C119" s="18">
+      <c r="C119" s="19">
         <v>7.85e-7</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="19">
         <v>2.7e-12</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="19">
         <v>6.85e-8</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="19">
         <v>1.71e-6</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="15" t="s">
+      <c r="A122" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="16" t="s">
+      <c r="C122" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="18">
         <v>0.00985</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="18">
         <v>0.00651</v>
       </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="19"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="18">
         <v>9.92e-5</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="18">
         <v>8.7e-5</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="19"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="18">
         <v>9.9e-7</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C125" s="18">
         <v>1.16e-6</v>
       </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="19"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B126" s="18">
+      <c r="B126" s="19">
         <v>9.87e-9</v>
       </c>
-      <c r="C126" s="18">
+      <c r="C126" s="19">
         <v>1.53e-8</v>
       </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="18">
+      <c r="B127" s="19">
         <v>9.84e-11</v>
       </c>
-      <c r="C127" s="18">
+      <c r="C127" s="19">
         <v>2.04e-10</v>
       </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="19" t="s">
+      <c r="A128" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="18">
+      <c r="B128" s="19">
         <v>9.82e-13</v>
       </c>
-      <c r="C128" s="18">
+      <c r="C128" s="19">
         <v>2.7e-12</v>
       </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7165,7 +7364,7 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -7173,16 +7372,16 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:9">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7194,7 +7393,7 @@
       <c r="G3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>0.009852611</v>
       </c>
       <c r="I3" t="s">
@@ -7202,16 +7401,16 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7223,7 +7422,7 @@
       <c r="G4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>0.006508833</v>
       </c>
       <c r="I4" t="s">
@@ -7231,16 +7430,16 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7260,16 +7459,16 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:9">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -7281,7 +7480,7 @@
       <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>0.03033924</v>
       </c>
       <c r="I6" t="s">
@@ -7289,16 +7488,16 @@
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:8">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
@@ -7322,23 +7521,23 @@
       <c r="A9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="E9" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:9">
-      <c r="A10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="1">
@@ -7351,16 +7550,16 @@
       </c>
     </row>
     <row r="11" ht="13.8" spans="1:7">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1"/>
@@ -7368,16 +7567,16 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" ht="13.8" spans="1:7">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1">
@@ -7390,24 +7589,24 @@
       <c r="A14" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="E14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" ht="13.8" spans="1:5">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="1">
@@ -7415,25 +7614,25 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="B16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="8">
         <v>0.006508833</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="13.8" spans="1:7">
       <c r="A18" s="1" t="s">
@@ -7447,16 +7646,16 @@
       </c>
     </row>
     <row r="19" ht="13.8" spans="1:5">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
@@ -7475,16 +7674,16 @@
       </c>
     </row>
     <row r="22" ht="13.8" spans="1:5">
-      <c r="A22" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="22" t="s">
         <v>87</v>
       </c>
       <c r="E22" s="1">
@@ -7500,16 +7699,16 @@
       </c>
     </row>
     <row r="25" ht="13.8" spans="1:5">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="1">
@@ -7569,7 +7768,7 @@
       <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="H2" t="s">
@@ -7577,16 +7776,16 @@
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7598,22 +7797,22 @@
       <c r="G3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>9.921393e-5</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -7625,7 +7824,7 @@
       <c r="G4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>8.695215e-5</v>
       </c>
       <c r="I4" t="s">
@@ -7633,16 +7832,16 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:8">
-      <c r="A5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="A5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -7654,21 +7853,21 @@
       <c r="G5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>0.0090083</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="1"/>
@@ -7676,22 +7875,22 @@
       <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>0.002236917</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1"/>
@@ -7723,24 +7922,24 @@
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:7">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="2:7">
       <c r="B11" s="1"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" ht="13.8" spans="1:9">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="21" t="s">
+      <c r="B12" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -7752,7 +7951,7 @@
       <c r="G12" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>8.695215e-5</v>
       </c>
       <c r="I12" t="s">
@@ -7760,16 +7959,16 @@
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="A13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -7781,17 +7980,17 @@
       <c r="G13" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>9.921393e-5</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" ht="13.8" spans="1:10">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" ht="13.8" spans="1:7">
@@ -7803,16 +8002,16 @@
       </c>
     </row>
     <row r="16" ht="13.8" spans="1:8">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -7829,16 +8028,16 @@
       </c>
     </row>
     <row r="17" ht="13.8" spans="1:8">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -7863,16 +8062,16 @@
       </c>
     </row>
     <row r="20" ht="13.8" spans="1:8">
-      <c r="A20" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -7897,10 +8096,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -7946,27 +8145,27 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -7983,22 +8182,22 @@
       </c>
     </row>
     <row r="4" ht="13.8" spans="1:10">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -8015,22 +8214,22 @@
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:13">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -8050,22 +8249,22 @@
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -8077,25 +8276,25 @@
       <c r="I6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" ht="13.8" spans="1:9">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -8108,35 +8307,55 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" ht="13.8" spans="7:9">
+    <row r="8" ht="13.8" spans="1:9">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="9" ht="13.8" spans="1:10">
-      <c r="A9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>75</v>
@@ -8150,22 +8369,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="B11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -8173,22 +8392,22 @@
       </c>
     </row>
     <row r="13" ht="13.8" spans="1:10">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -8205,35 +8424,151 @@
       </c>
     </row>
     <row r="14" ht="13.8" spans="1:10">
-      <c r="A14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="A14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="22" t="s">
         <v>87</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J14" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="15" ht="13.8" spans="1:10">
+      <c r="A15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" ht="13.8" spans="1:9">
+      <c r="A17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" ht="13.8" spans="1:10">
+      <c r="A18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" ht="13.8" spans="1:9">
+      <c r="A19" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -8248,7 +8583,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -8291,189 +8626,209 @@
       <c r="H2" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="13.8" spans="1:10">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="21" t="s">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" ht="13.8" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" ht="13.8" spans="1:9">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" ht="13.8" spans="1:10">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="21" t="s">
+      <c r="B6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J6" s="7"/>
+        <v>168</v>
+      </c>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" ht="13.8" spans="1:10">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="21" t="s">
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" ht="13.8" spans="7:9">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" ht="13.8" spans="1:9">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="9" ht="13.8" spans="1:9">
-      <c r="A9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>108</v>
@@ -8484,40 +8839,40 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" ht="13.8" spans="1:9">
-      <c r="A11" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="A11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8528,188 +8883,187 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T268"/>
+  <dimension ref="A1:T306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B279" sqref="B279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="12.8888888888889"/>
-    <col min="3" max="8" width="14.3333333333333"/>
+    <col min="2" max="8" width="14.3333333333333"/>
     <col min="9" max="9" width="11.7777777777778"/>
     <col min="11" max="11" width="14.3333333333333"/>
     <col min="15" max="15" width="9.22222222222222"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.8" spans="2:8">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" ht="13.8" spans="2:20">
       <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E2" s="5"/>
       <c r="F2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="M2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" ht="13.8" spans="2:20">
       <c r="B3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="M3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" ht="13.8" spans="2:20">
       <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="M4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" ht="13.8" spans="2:20">
       <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
       <c r="M5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" ht="13.8" spans="1:9">
       <c r="A6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.0260406537439864</v>
       </c>
       <c r="G6" s="1">
         <v>0.000354761227283131</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>4.71261843598288e-6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>6.25810355088727e-8</v>
       </c>
     </row>
     <row r="7" ht="13.8" spans="1:9">
       <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7">
+        <v>188</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8">
         <v>0.009852611</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>9.92139306565054e-5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>9.89621290084271e-7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>9.87016768736725e-9</v>
       </c>
     </row>
     <row r="8" ht="13.8" spans="1:9">
       <c r="A8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.0434851977115885</v>
       </c>
       <c r="G8" s="1">
         <v>0.000677170303621994</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1.01080200179584e-5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>1.50785185595398e-7</v>
       </c>
     </row>
     <row r="9" ht="13.8" spans="1:9">
       <c r="A9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1">
@@ -8718,27 +9072,27 @@
       <c r="G9" s="1">
         <v>0.000214915420375127</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>2.57092454028941e-6</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>3.07484018184716e-8</v>
       </c>
     </row>
     <row r="10" ht="13.8" spans="1:9">
       <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1">
@@ -8747,26 +9101,26 @@
       <c r="G10" s="1">
         <v>0.000173111500567587</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>1.97261859309119e-6</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" ht="13.8" spans="1:8">
       <c r="A11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C11">
         <f>BC!G4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1">
@@ -8775,135 +9129,135 @@
       <c r="G11" s="1">
         <v>0.00065087224075265</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>9.65268623738724e-6</v>
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="6"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="13.8" spans="2:8">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" ht="13.8" spans="2:20">
       <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="5"/>
       <c r="M14" s="1"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" ht="13.8" spans="2:20">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="5"/>
       <c r="M15" s="1"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" ht="13.8" spans="2:20">
       <c r="B16" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="5"/>
       <c r="M16" s="1"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" ht="13.8" spans="2:20">
       <c r="B17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="5"/>
       <c r="M17" s="1"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="C18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="9">
         <v>0.006508833</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" ht="13.8" spans="1:6">
       <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="D19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
         <v>0.0194204672763194</v>
       </c>
     </row>
     <row r="20" ht="13.8" spans="1:8">
       <c r="A20" t="s">
-        <v>178</v>
-      </c>
-      <c r="B20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="D20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1">
@@ -8912,145 +9266,145 @@
       <c r="G20" s="1">
         <v>0.000378126531642115</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>7.44973084823355e-6</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" ht="13.8" spans="2:8">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="23" ht="13.8" spans="2:20">
       <c r="B23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>179</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
       <c r="M23" s="1"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" ht="13.8" spans="2:20">
       <c r="B24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
       <c r="M24" s="1"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" ht="13.8" spans="2:20">
       <c r="B25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>183</v>
+      </c>
+      <c r="E25" s="5"/>
       <c r="F25" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+        <v>202</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="M25" s="1"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" ht="13.8" spans="2:20">
       <c r="B26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
+        <v>203</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
       <c r="M26" s="1"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" ht="13.8" spans="1:8">
       <c r="A27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1">
         <v>0.0303392432168261</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" ht="13.8" spans="1:8">
       <c r="A28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3">
         <v>0.0876303795868481</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" ht="13.8" spans="1:8">
       <c r="A29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1">
@@ -9064,91 +9418,91 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" ht="13.8" spans="2:8">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="2" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="32" ht="13.8" spans="2:8">
-      <c r="B32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="22" t="s">
+      <c r="B32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="D32" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0.0131635759811123</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" ht="13.8" spans="2:8">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="2" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" ht="13.8" spans="2:8">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="D35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="3">
         <v>0.0346770655733595</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="37" ht="13.8" spans="2:6">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -9157,60 +9511,60 @@
     </row>
     <row r="38" ht="13.8" spans="2:20">
       <c r="B38" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M38" s="1"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" ht="13.8" spans="2:20">
       <c r="B39" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="M39" s="1"/>
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="7">
+        <v>199</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="8">
         <v>0.009852611</v>
       </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" ht="13.8" spans="1:6">
       <c r="A41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="21" t="s">
+      <c r="D41" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1">
@@ -9219,19 +9573,19 @@
     </row>
     <row r="42" ht="13.8" spans="1:8">
       <c r="A42" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C42">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="21" t="s">
+      <c r="D42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1">
@@ -9240,59 +9594,59 @@
       <c r="G42" s="1">
         <v>0.00034319396856005</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>4.52911923775396e-6</v>
       </c>
     </row>
     <row r="44" ht="13.8" spans="1:13">
       <c r="A44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1"/>
       <c r="J44" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M44" s="1"/>
     </row>
     <row r="45" ht="13.8" spans="2:13">
       <c r="B45" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M45" s="1"/>
     </row>
     <row r="46" ht="13.8" spans="2:20">
       <c r="B46" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M46" s="1"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" ht="13.8" spans="2:20">
       <c r="B47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="J47" s="1"/>
       <c r="M47" s="1"/>
@@ -9300,10 +9654,10 @@
     </row>
     <row r="48" ht="13.8" spans="2:20">
       <c r="B48" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="J48" s="1"/>
       <c r="M48" s="1"/>
@@ -9311,10 +9665,10 @@
     </row>
     <row r="49" ht="13.8" spans="2:20">
       <c r="B49" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="J49" s="1"/>
       <c r="M49" s="1"/>
@@ -9322,18 +9676,18 @@
     </row>
     <row r="50" ht="13.8" spans="1:8">
       <c r="A50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="21" t="s">
+      <c r="D50" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="1">
@@ -9348,18 +9702,18 @@
     </row>
     <row r="51" ht="13.8" spans="1:8">
       <c r="A51" t="s">
-        <v>203</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="21" t="s">
+      <c r="D51" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1">
@@ -9368,25 +9722,25 @@
       <c r="G51" s="1">
         <v>0.000354761227283131</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>4.71261843598288e-6</v>
       </c>
     </row>
     <row r="52" ht="13.8" spans="1:8">
       <c r="A52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>205</v>
+      <c r="D52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F52" s="1">
         <v>0.0248672166885579</v>
@@ -9394,25 +9748,25 @@
       <c r="G52" s="1">
         <v>0.000323074428367139</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="6">
         <v>4.09745154061787e-6</v>
       </c>
     </row>
     <row r="53" ht="13.8" spans="1:8">
       <c r="A53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F53" s="1">
         <v>0.0365184623902113</v>
@@ -9420,25 +9774,25 @@
       <c r="G53" s="1">
         <v>0.00070832226771833</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="6">
         <v>1.32655814947102e-5</v>
       </c>
     </row>
     <row r="54" ht="13.8" spans="1:8">
       <c r="A54" t="s">
-        <v>208</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F54" s="1">
         <v>0.0817930086632881</v>
@@ -9452,18 +9806,18 @@
     </row>
     <row r="55" ht="13.8" spans="1:8">
       <c r="A55" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="1">
@@ -9478,71 +9832,71 @@
     </row>
     <row r="56" ht="13.8" spans="1:8">
       <c r="A56" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="1">
         <v>0.00985261140252574</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="6">
         <v>9.92139306565054e-5</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="6">
         <v>9.89621290084271e-7</v>
       </c>
     </row>
     <row r="57" ht="13.8" spans="1:8">
       <c r="A57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>205</v>
+        <v>226</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F57" s="1">
         <v>0.00940692289425339</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="6">
         <v>9.0394181448123e-5</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="6">
         <v>8.60786572216551e-7</v>
       </c>
     </row>
     <row r="58" ht="13.8" spans="1:8">
       <c r="A58" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F58" s="1">
         <v>0.0138440568433574</v>
@@ -9550,25 +9904,25 @@
       <c r="G58" s="1">
         <v>0.000197230832723091</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="6">
         <v>2.77302300847913e-6</v>
       </c>
     </row>
     <row r="59" ht="13.8" spans="1:8">
       <c r="A59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F59" s="1">
         <v>0.0313369495786809</v>
@@ -9576,24 +9930,24 @@
       <c r="G59" s="1">
         <v>0.001054136638148</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="6">
         <v>3.45260959879863e-5</v>
       </c>
     </row>
     <row r="60" ht="13.8" spans="1:8">
       <c r="A60" t="s">
-        <v>215</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="1">
@@ -9608,18 +9962,18 @@
     </row>
     <row r="61" ht="13.8" spans="1:8">
       <c r="A61" t="s">
-        <v>216</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D61" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="1">
@@ -9628,25 +9982,25 @@
       <c r="G61" s="1">
         <v>0.000677170303621994</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="6">
         <v>1.01080200179584e-5</v>
       </c>
     </row>
     <row r="62" ht="13.8" spans="1:8">
       <c r="A62" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>205</v>
+      <c r="D62" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F62" s="1">
         <v>0.0415363611249548</v>
@@ -9654,25 +10008,25 @@
       <c r="G62" s="1">
         <v>0.000616406299788715</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="6">
         <v>8.78509093887991e-6</v>
       </c>
     </row>
     <row r="63" ht="13.8" spans="1:8">
       <c r="A63" t="s">
-        <v>218</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F63" s="1">
         <v>0.0608217857885321</v>
@@ -9680,25 +10034,25 @@
       <c r="G63" s="1">
         <v>0.00135769826642413</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="6">
         <v>2.8576708921136e-5</v>
       </c>
     </row>
     <row r="64" ht="13.8" spans="1:8">
       <c r="A64" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C64" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F64" s="1">
         <v>0.134397696490344</v>
@@ -9712,18 +10066,18 @@
     </row>
     <row r="65" ht="13.8" spans="1:8">
       <c r="A65" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="1">
@@ -9738,18 +10092,18 @@
     </row>
     <row r="66" ht="13.8" spans="1:8">
       <c r="A66" t="s">
-        <v>222</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="1">
@@ -9758,25 +10112,25 @@
       <c r="G66" s="1">
         <v>0.000214915420375127</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="6">
         <v>2.57092454028941e-6</v>
       </c>
     </row>
     <row r="67" ht="13.8" spans="1:8">
       <c r="A67" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>205</v>
+        <v>237</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F67" s="1">
         <v>0.0168639466336086</v>
@@ -9784,25 +10138,25 @@
       <c r="G67" s="1">
         <v>0.000195764545404867</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="6">
         <v>2.23577382582583e-6</v>
       </c>
     </row>
     <row r="68" ht="13.8" spans="1:8">
       <c r="A68" t="s">
-        <v>224</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
         <v>221</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>207</v>
       </c>
       <c r="F68" s="1">
         <v>0.0247956353085708</v>
@@ -9810,25 +10164,25 @@
       <c r="G68" s="1">
         <v>0.000428181836377749</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="6">
         <v>7.22065073773685e-6</v>
       </c>
     </row>
     <row r="69" ht="13.8" spans="1:8">
       <c r="A69" t="s">
-        <v>225</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D69" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F69" s="1">
         <v>0.0558644960260217</v>
@@ -9836,24 +10190,24 @@
       <c r="G69" s="1">
         <v>0.00230847372307056</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="6">
         <v>9.08698660509845e-5</v>
       </c>
     </row>
     <row r="70" ht="13.8" spans="1:8">
       <c r="A70" t="s">
-        <v>226</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="1">
@@ -9868,18 +10222,18 @@
     </row>
     <row r="71" ht="13.8" spans="1:8">
       <c r="A71" t="s">
-        <v>227</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F71" s="1">
@@ -9888,25 +10242,25 @@
       <c r="G71" s="1">
         <v>0.000173111500567587</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="6">
         <v>1.97261859309119e-6</v>
       </c>
     </row>
     <row r="72" ht="13.8" spans="1:8">
       <c r="A72" t="s">
-        <v>228</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>205</v>
+        <v>242</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F72" s="1">
         <v>0.0142969323461873</v>
@@ -9914,25 +10268,25 @@
       <c r="G72" s="1">
         <v>0.000157697932481938</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="6">
         <v>1.71557954757973e-6</v>
       </c>
     </row>
     <row r="73" ht="13.8" spans="1:8">
       <c r="A73" t="s">
-        <v>229</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F73" s="1">
         <v>0.0210286260135363</v>
@@ -9940,25 +10294,25 @@
       <c r="G73" s="1">
         <v>0.000344643481420623</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="6">
         <v>5.53603522200757e-6</v>
       </c>
     </row>
     <row r="74" ht="13.8" spans="1:8">
       <c r="A74" t="s">
-        <v>230</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D74" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F74" s="1">
         <v>0.0474596426672601</v>
@@ -9966,25 +10320,25 @@
       <c r="G74" s="1">
         <v>0.00185286995790357</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="6">
         <v>6.94285939867944e-5</v>
       </c>
     </row>
     <row r="75" ht="13.8" spans="1:8">
       <c r="A75" t="s">
-        <v>231</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" s="9">
+        <v>245</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="10">
         <f>BC!$G$3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D75" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="21" t="s">
+      <c r="D75" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="1">
@@ -9999,19 +10353,19 @@
     </row>
     <row r="76" ht="13.8" spans="1:8">
       <c r="A76" t="s">
-        <v>232</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="9">
+        <v>246</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="10">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D76" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="21" t="s">
+      <c r="D76" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="1">
@@ -10020,26 +10374,26 @@
       <c r="G76" s="1">
         <v>0.000553953796306073</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="6">
         <v>7.99400597943622e-6</v>
       </c>
     </row>
     <row r="77" ht="13.8" spans="1:8">
       <c r="A77" t="s">
-        <v>233</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="9">
+        <v>247</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D77" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>205</v>
+      <c r="D77" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>219</v>
       </c>
       <c r="F77" s="1">
         <v>0.0353669411973146</v>
@@ -10047,26 +10401,26 @@
       <c r="G77" s="1">
         <v>0.00050432988240496</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="6">
         <v>6.94875673383692e-6</v>
       </c>
     </row>
     <row r="78" ht="13.8" spans="1:8">
       <c r="A78" t="s">
-        <v>234</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="9">
+        <v>248</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="10">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="D78" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F78" s="1">
         <v>0.0518452041184044</v>
@@ -10074,26 +10428,26 @@
       <c r="G78" s="1">
         <v>0.00110897753788579</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="6">
         <v>2.25647747423338e-5</v>
       </c>
     </row>
     <row r="79" ht="13.8" spans="1:8">
       <c r="A79" t="s">
-        <v>235</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="9">
+        <v>249</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="10">
         <f>BC!G3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="F79" s="1">
         <v>0.115152140804561</v>
@@ -10107,46 +10461,46 @@
     </row>
     <row r="82" ht="13.8" spans="1:10">
       <c r="A82" t="s">
-        <v>236</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" ht="13.8" spans="2:10">
       <c r="B83" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="84" ht="13.8" spans="2:10">
       <c r="B84" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="11"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="87" ht="13.8" spans="1:15">
-      <c r="A87" s="2" t="s">
-        <v>244</v>
+      <c r="A87" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>126</v>
@@ -10156,14 +10510,14 @@
       </c>
     </row>
     <row r="88" ht="13.8" spans="1:15">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B88">
         <f>BC!G2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="22" t="s">
         <v>7</v>
       </c>
       <c r="I88" s="1"/>
@@ -10171,14 +10525,14 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" ht="13.8" spans="1:4">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="1">
@@ -10189,8 +10543,8 @@
       </c>
     </row>
     <row r="91" ht="13.8" spans="1:6">
-      <c r="A91" s="21" t="s">
-        <v>247</v>
+      <c r="A91" s="22" t="s">
+        <v>154</v>
       </c>
       <c r="C91" s="1">
         <v>0.014224726040376</v>
@@ -10201,8 +10555,8 @@
       <c r="F91" s="1"/>
     </row>
     <row r="92" ht="13.8" spans="1:6">
-      <c r="A92" s="21" t="s">
-        <v>248</v>
+      <c r="A92" s="22" t="s">
+        <v>261</v>
       </c>
       <c r="C92" s="1">
         <v>0.0155224532358245</v>
@@ -10213,8 +10567,8 @@
       <c r="F92" s="1"/>
     </row>
     <row r="93" ht="13.8" spans="1:6">
-      <c r="A93" s="21" t="s">
-        <v>249</v>
+      <c r="A93" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="C93" s="1">
         <v>0.0168180239071698</v>
@@ -10225,8 +10579,8 @@
       <c r="F93" s="1"/>
     </row>
     <row r="94" ht="13.8" spans="1:6">
-      <c r="A94" s="21" t="s">
-        <v>250</v>
+      <c r="A94" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="C94" s="1">
         <v>0.0181114323912947</v>
@@ -10237,8 +10591,8 @@
       <c r="F94" s="1"/>
     </row>
     <row r="95" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A95" s="21" t="s">
-        <v>251</v>
+      <c r="A95" s="22" t="s">
+        <v>264</v>
       </c>
       <c r="C95" s="1">
         <v>0.018240654108161</v>
@@ -10249,8 +10603,8 @@
       <c r="F95" s="1"/>
     </row>
     <row r="96" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A96" s="21" t="s">
-        <v>252</v>
+      <c r="A96" s="22" t="s">
+        <v>265</v>
       </c>
       <c r="C96" s="1">
         <v>0.018240654108161</v>
@@ -10261,8 +10615,8 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A97" s="21" t="s">
-        <v>253</v>
+      <c r="A97" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="C97" s="1">
         <v>0.0184990324913948</v>
@@ -10273,8 +10627,8 @@
       <c r="F97" s="1"/>
     </row>
     <row r="98" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A98" s="21" t="s">
-        <v>254</v>
+      <c r="A98" s="22" t="s">
+        <v>267</v>
       </c>
       <c r="C98" s="1">
         <v>0.0186281891472015</v>
@@ -10285,8 +10639,8 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A99" s="21" t="s">
-        <v>255</v>
+      <c r="A99" s="22" t="s">
+        <v>268</v>
       </c>
       <c r="C99" s="1">
         <v>0.0186411036195037</v>
@@ -10297,8 +10651,8 @@
       <c r="F99" s="1"/>
     </row>
     <row r="100" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A100" s="21" t="s">
-        <v>256</v>
+      <c r="A100" s="22" t="s">
+        <v>269</v>
       </c>
       <c r="C100" s="1">
         <v>0.0186540178748252</v>
@@ -10309,8 +10663,8 @@
       <c r="F100" s="1"/>
     </row>
     <row r="101" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A101" s="21" t="s">
-        <v>257</v>
+      <c r="A101" s="22" t="s">
+        <v>270</v>
       </c>
       <c r="C101" s="1">
         <v>0.0186669319131607</v>
@@ -10321,8 +10675,8 @@
       <c r="F101" s="1"/>
     </row>
     <row r="102" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A102" s="21" t="s">
-        <v>258</v>
+      <c r="A102" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="C102" s="1">
         <v>0.0186798457345051</v>
@@ -10333,8 +10687,8 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A103" s="21" t="s">
-        <v>259</v>
+      <c r="A103" s="22" t="s">
+        <v>272</v>
       </c>
       <c r="C103" s="1">
         <v>0.0186927593388531</v>
@@ -10345,8 +10699,8 @@
       <c r="F103" s="1"/>
     </row>
     <row r="104" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A104" s="21" t="s">
-        <v>260</v>
+      <c r="A104" s="22" t="s">
+        <v>273</v>
       </c>
       <c r="C104" s="1">
         <v>0.0187056727261995</v>
@@ -10357,8 +10711,8 @@
       <c r="F104" s="1"/>
     </row>
     <row r="105" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A105" s="21" t="s">
-        <v>261</v>
+      <c r="A105" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="C105" s="1">
         <v>0.018718585896539</v>
@@ -10369,8 +10723,8 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A106" s="21" t="s">
-        <v>262</v>
+      <c r="A106" s="22" t="s">
+        <v>275</v>
       </c>
       <c r="C106" s="1">
         <v>0.0187314988498665</v>
@@ -10381,8 +10735,8 @@
       <c r="F106" s="1"/>
     </row>
     <row r="107" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A107" s="21" t="s">
-        <v>263</v>
+      <c r="A107" s="22" t="s">
+        <v>276</v>
       </c>
       <c r="C107" s="1">
         <v>0.0187444115861767</v>
@@ -10393,8 +10747,8 @@
       <c r="F107" s="1"/>
     </row>
     <row r="108" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A108" s="21" t="s">
-        <v>264</v>
+      <c r="A108" s="22" t="s">
+        <v>277</v>
       </c>
       <c r="C108" s="1">
         <v>0.0187573241054644</v>
@@ -10405,8 +10759,8 @@
       <c r="F108" s="1"/>
     </row>
     <row r="109" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A109" s="21" t="s">
-        <v>265</v>
+      <c r="A109" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="C109" s="1">
         <v>0.0187702364077244</v>
@@ -10417,8 +10771,8 @@
       <c r="F109" s="1"/>
     </row>
     <row r="110" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A110" s="21" t="s">
-        <v>266</v>
+      <c r="A110" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="C110" s="1">
         <v>0.0187831484929515</v>
@@ -10429,8 +10783,8 @@
       <c r="F110" s="1"/>
     </row>
     <row r="111" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A111" s="21" t="s">
-        <v>267</v>
+      <c r="A111" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="C111" s="1">
         <v>0.0187960603611405</v>
@@ -10441,8 +10795,8 @@
       <c r="F111" s="1"/>
     </row>
     <row r="112" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A112" s="21" t="s">
-        <v>268</v>
+      <c r="A112" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="C112" s="1">
         <v>0.0188089720122861</v>
@@ -10453,8 +10807,8 @@
       <c r="F112" s="1"/>
     </row>
     <row r="113" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A113" s="21" t="s">
-        <v>269</v>
+      <c r="A113" s="22" t="s">
+        <v>282</v>
       </c>
       <c r="C113" s="1">
         <v>0.0188218834463831</v>
@@ -10465,8 +10819,8 @@
       <c r="F113" s="1"/>
     </row>
     <row r="114" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A114" s="21" t="s">
-        <v>270</v>
+      <c r="A114" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="C114" s="1">
         <v>0.0188347946634264</v>
@@ -10477,8 +10831,8 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A115" s="21" t="s">
-        <v>271</v>
+      <c r="A115" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="C115" s="1">
         <v>0.0188477056634108</v>
@@ -10489,8 +10843,8 @@
       <c r="F115" s="1"/>
     </row>
     <row r="116" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A116" s="21" t="s">
-        <v>272</v>
+      <c r="A116" s="22" t="s">
+        <v>285</v>
       </c>
       <c r="C116" s="1">
         <v>0.018860616446331</v>
@@ -10501,8 +10855,8 @@
       <c r="F116" s="1"/>
     </row>
     <row r="117" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A117" s="21" t="s">
-        <v>273</v>
+      <c r="A117" s="22" t="s">
+        <v>286</v>
       </c>
       <c r="C117" s="1">
         <v>0.0188735270121818</v>
@@ -10513,8 +10867,8 @@
       <c r="F117" s="1"/>
     </row>
     <row r="118" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A118" s="21" t="s">
-        <v>274</v>
+      <c r="A118" s="22" t="s">
+        <v>287</v>
       </c>
       <c r="C118" s="1">
         <v>0.0188864373609581</v>
@@ -10525,8 +10879,8 @@
       <c r="F118" s="1"/>
     </row>
     <row r="119" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A119" s="21" t="s">
-        <v>275</v>
+      <c r="A119" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="C119" s="1">
         <v>0.0188993474926546</v>
@@ -10537,8 +10891,8 @@
       <c r="F119" s="1"/>
     </row>
     <row r="120" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A120" s="21" t="s">
-        <v>276</v>
+      <c r="A120" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="C120" s="1">
         <v>0.0189122574072662</v>
@@ -10549,8 +10903,8 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A121" s="21" t="s">
-        <v>277</v>
+      <c r="A121" s="22" t="s">
+        <v>290</v>
       </c>
       <c r="C121" s="1">
         <v>0.0189251671047877</v>
@@ -10561,8 +10915,8 @@
       <c r="F121" s="1"/>
     </row>
     <row r="122" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A122" s="21" t="s">
-        <v>278</v>
+      <c r="A122" s="22" t="s">
+        <v>291</v>
       </c>
       <c r="C122" s="1">
         <v>0.0189380765852138</v>
@@ -10573,8 +10927,8 @@
       <c r="F122" s="1"/>
     </row>
     <row r="123" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A123" s="21" t="s">
-        <v>279</v>
+      <c r="A123" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="C123" s="1">
         <v>0.0189509858485395</v>
@@ -10585,8 +10939,8 @@
       <c r="F123" s="1"/>
     </row>
     <row r="124" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A124" s="21" t="s">
-        <v>280</v>
+      <c r="A124" s="22" t="s">
+        <v>293</v>
       </c>
       <c r="C124" s="1">
         <v>0.0189638948947595</v>
@@ -10597,8 +10951,8 @@
       <c r="F124" s="1"/>
     </row>
     <row r="125" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A125" s="21" t="s">
-        <v>281</v>
+      <c r="A125" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="C125" s="1">
         <v>0.0189768037238686</v>
@@ -10609,8 +10963,8 @@
       <c r="F125" s="1"/>
     </row>
     <row r="126" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A126" s="21" t="s">
-        <v>282</v>
+      <c r="A126" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="C126" s="1">
         <v>0.0189897123358617</v>
@@ -10621,8 +10975,8 @@
       <c r="F126" s="1"/>
     </row>
     <row r="127" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A127" s="21" t="s">
-        <v>283</v>
+      <c r="A127" s="22" t="s">
+        <v>296</v>
       </c>
       <c r="C127" s="1">
         <v>0.0190026207307336</v>
@@ -10633,8 +10987,8 @@
       <c r="F127" s="1"/>
     </row>
     <row r="128" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A128" s="21" t="s">
-        <v>284</v>
+      <c r="A128" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="C128" s="1">
         <v>0.0190155289084791</v>
@@ -10645,8 +10999,8 @@
       <c r="F128" s="1"/>
     </row>
     <row r="129" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A129" s="21" t="s">
-        <v>285</v>
+      <c r="A129" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="C129" s="1">
         <v>0.019028436869093</v>
@@ -10657,8 +11011,8 @@
       <c r="F129" s="1"/>
     </row>
     <row r="130" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A130" s="21" t="s">
-        <v>286</v>
+      <c r="A130" s="22" t="s">
+        <v>299</v>
       </c>
       <c r="C130" s="1">
         <v>0.0190413446125702</v>
@@ -10669,8 +11023,8 @@
       <c r="F130" s="1"/>
     </row>
     <row r="131" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A131" s="21" t="s">
-        <v>287</v>
+      <c r="A131" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="C131" s="1">
         <v>0.0190542521389055</v>
@@ -10681,8 +11035,8 @@
       <c r="F131" s="1"/>
     </row>
     <row r="132" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A132" s="21" t="s">
-        <v>288</v>
+      <c r="A132" s="22" t="s">
+        <v>301</v>
       </c>
       <c r="C132" s="1">
         <v>0.0190671594480938</v>
@@ -10693,8 +11047,8 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A133" s="21" t="s">
-        <v>289</v>
+      <c r="A133" s="22" t="s">
+        <v>302</v>
       </c>
       <c r="C133" s="1">
         <v>0.0190800665401298</v>
@@ -10705,8 +11059,8 @@
       <c r="F133" s="1"/>
     </row>
     <row r="134" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A134" s="21" t="s">
-        <v>290</v>
+      <c r="A134" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="C134" s="1">
         <v>0.0190929734150084</v>
@@ -10717,8 +11071,8 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A135" s="21" t="s">
-        <v>291</v>
+      <c r="A135" s="22" t="s">
+        <v>304</v>
       </c>
       <c r="C135" s="1">
         <v>0.0191058800727245</v>
@@ -10729,8 +11083,8 @@
       <c r="F135" s="1"/>
     </row>
     <row r="136" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A136" s="21" t="s">
-        <v>292</v>
+      <c r="A136" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="C136" s="1">
         <v>0.0191187865132729</v>
@@ -10741,8 +11095,8 @@
       <c r="F136" s="1"/>
     </row>
     <row r="137" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A137" s="21" t="s">
-        <v>293</v>
+      <c r="A137" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="C137" s="1">
         <v>0.0191316927366485</v>
@@ -10753,8 +11107,8 @@
       <c r="F137" s="1"/>
     </row>
     <row r="138" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A138" s="21" t="s">
-        <v>294</v>
+      <c r="A138" s="22" t="s">
+        <v>307</v>
       </c>
       <c r="C138" s="1">
         <v>0.019144598742846</v>
@@ -10765,8 +11119,8 @@
       <c r="F138" s="1"/>
     </row>
     <row r="139" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A139" s="21" t="s">
-        <v>295</v>
+      <c r="A139" s="22" t="s">
+        <v>308</v>
       </c>
       <c r="C139" s="1">
         <v>0.0191575045318604</v>
@@ -10777,8 +11131,8 @@
       <c r="F139" s="1"/>
     </row>
     <row r="140" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A140" s="21" t="s">
-        <v>296</v>
+      <c r="A140" s="22" t="s">
+        <v>309</v>
       </c>
       <c r="C140" s="1">
         <v>0.0191704101036865</v>
@@ -10789,8 +11143,8 @@
       <c r="F140" s="1"/>
     </row>
     <row r="141" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A141" s="21" t="s">
-        <v>297</v>
+      <c r="A141" s="22" t="s">
+        <v>310</v>
       </c>
       <c r="C141" s="1">
         <v>0.0191833154583191</v>
@@ -10801,8 +11155,8 @@
       <c r="F141" s="1"/>
     </row>
     <row r="142" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A142" s="21" t="s">
-        <v>298</v>
+      <c r="A142" s="22" t="s">
+        <v>311</v>
       </c>
       <c r="C142" s="1">
         <v>0.0191962205957531</v>
@@ -10813,8 +11167,8 @@
       <c r="F142" s="1"/>
     </row>
     <row r="143" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A143" s="21" t="s">
-        <v>299</v>
+      <c r="A143" s="22" t="s">
+        <v>312</v>
       </c>
       <c r="C143" s="1">
         <v>0.0192091255159834</v>
@@ -10825,8 +11179,8 @@
       <c r="F143" s="1"/>
     </row>
     <row r="144" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A144" s="21" t="s">
-        <v>300</v>
+      <c r="A144" s="22" t="s">
+        <v>313</v>
       </c>
       <c r="C144" s="1">
         <v>0.0192220302190049</v>
@@ -10837,8 +11191,8 @@
       <c r="F144" s="1"/>
     </row>
     <row r="145" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A145" s="21" t="s">
-        <v>301</v>
+      <c r="A145" s="22" t="s">
+        <v>314</v>
       </c>
       <c r="C145" s="1">
         <v>0.0192349347048123</v>
@@ -10849,8 +11203,8 @@
       <c r="F145" s="1"/>
     </row>
     <row r="146" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A146" s="21" t="s">
-        <v>302</v>
+      <c r="A146" s="22" t="s">
+        <v>315</v>
       </c>
       <c r="C146" s="1">
         <v>0.0192478389734006</v>
@@ -10861,8 +11215,8 @@
       <c r="F146" s="1"/>
     </row>
     <row r="147" ht="13.8" hidden="1" outlineLevel="2" spans="1:6">
-      <c r="A147" s="21" t="s">
-        <v>303</v>
+      <c r="A147" s="22" t="s">
+        <v>316</v>
       </c>
       <c r="C147" s="1">
         <v>0.0192607430247646</v>
@@ -10873,8 +11227,8 @@
       <c r="F147" s="1"/>
     </row>
     <row r="148" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A148" s="21" t="s">
-        <v>304</v>
+      <c r="A148" s="22" t="s">
+        <v>317</v>
       </c>
       <c r="C148" s="1">
         <v>0.0192736468588992</v>
@@ -10885,8 +11239,8 @@
       <c r="F148" s="1"/>
     </row>
     <row r="149" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A149" s="21" t="s">
-        <v>305</v>
+      <c r="A149" s="22" t="s">
+        <v>318</v>
       </c>
       <c r="C149" s="1">
         <v>0.0192865504757992</v>
@@ -10897,8 +11251,8 @@
       <c r="F149" s="1"/>
     </row>
     <row r="150" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A150" s="21" t="s">
-        <v>306</v>
+      <c r="A150" s="22" t="s">
+        <v>319</v>
       </c>
       <c r="C150" s="1">
         <v>0.0192994538754597</v>
@@ -10909,8 +11263,8 @@
       <c r="F150" s="1"/>
     </row>
     <row r="151" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A151" s="21" t="s">
-        <v>307</v>
+      <c r="A151" s="22" t="s">
+        <v>320</v>
       </c>
       <c r="C151" s="1">
         <v>0.0193123570578753</v>
@@ -10921,8 +11275,8 @@
       <c r="F151" s="1"/>
     </row>
     <row r="152" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A152" s="21" t="s">
-        <v>308</v>
+      <c r="A152" s="22" t="s">
+        <v>321</v>
       </c>
       <c r="C152" s="1">
         <v>0.019325260023041</v>
@@ -10933,8 +11287,8 @@
       <c r="F152" s="1"/>
     </row>
     <row r="153" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A153" s="21" t="s">
-        <v>309</v>
+      <c r="A153" s="22" t="s">
+        <v>322</v>
       </c>
       <c r="C153" s="1">
         <v>0.0193381627709517</v>
@@ -10945,8 +11299,8 @@
       <c r="F153" s="1"/>
     </row>
     <row r="154" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A154" s="21" t="s">
-        <v>310</v>
+      <c r="A154" s="22" t="s">
+        <v>323</v>
       </c>
       <c r="C154" s="1">
         <v>0.0193510653016022</v>
@@ -10957,8 +11311,8 @@
       <c r="F154" s="1"/>
     </row>
     <row r="155" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A155" s="21" t="s">
-        <v>311</v>
+      <c r="A155" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="C155" s="1">
         <v>0.0193639676149875</v>
@@ -10969,8 +11323,8 @@
       <c r="F155" s="1"/>
     </row>
     <row r="156" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A156" s="21" t="s">
-        <v>312</v>
+      <c r="A156" s="22" t="s">
+        <v>325</v>
       </c>
       <c r="C156" s="1">
         <v>0.0193768697111024</v>
@@ -10981,8 +11335,8 @@
       <c r="F156" s="1"/>
     </row>
     <row r="157" ht="13.8" hidden="1" outlineLevel="1" spans="1:6">
-      <c r="A157" s="21" t="s">
-        <v>313</v>
+      <c r="A157" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="C157" s="1">
         <v>0.0193897715899419</v>
@@ -10993,8 +11347,8 @@
       <c r="F157" s="1"/>
     </row>
     <row r="158" ht="13.8" collapsed="1" spans="1:4">
-      <c r="A158" s="21" t="s">
-        <v>314</v>
+      <c r="A158" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="C158" s="1">
         <v>0.0194026732515008</v>
@@ -11004,8 +11358,8 @@
       </c>
     </row>
     <row r="159" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A159" s="21" t="s">
-        <v>315</v>
+      <c r="A159" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="C159" s="1">
         <v>0.0194155746957739</v>
@@ -11015,8 +11369,8 @@
       </c>
     </row>
     <row r="160" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A160" s="21" t="s">
-        <v>316</v>
+      <c r="A160" s="22" t="s">
+        <v>329</v>
       </c>
       <c r="C160" s="1">
         <v>0.0194284759227563</v>
@@ -11026,8 +11380,8 @@
       </c>
     </row>
     <row r="161" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A161" s="21" t="s">
-        <v>317</v>
+      <c r="A161" s="22" t="s">
+        <v>330</v>
       </c>
       <c r="C161" s="1">
         <v>0.0194413769324428</v>
@@ -11037,8 +11391,8 @@
       </c>
     </row>
     <row r="162" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A162" s="21" t="s">
-        <v>318</v>
+      <c r="A162" s="22" t="s">
+        <v>331</v>
       </c>
       <c r="C162" s="1">
         <v>0.0194542777248282</v>
@@ -11048,8 +11402,8 @@
       </c>
     </row>
     <row r="163" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A163" s="21" t="s">
-        <v>319</v>
+      <c r="A163" s="22" t="s">
+        <v>332</v>
       </c>
       <c r="C163" s="1">
         <v>0.0194671782999076</v>
@@ -11059,8 +11413,8 @@
       </c>
     </row>
     <row r="164" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A164" s="21" t="s">
-        <v>320</v>
+      <c r="A164" s="22" t="s">
+        <v>333</v>
       </c>
       <c r="C164" s="1">
         <v>0.0194800786576758</v>
@@ -11070,8 +11424,8 @@
       </c>
     </row>
     <row r="165" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A165" s="21" t="s">
-        <v>321</v>
+      <c r="A165" s="22" t="s">
+        <v>334</v>
       </c>
       <c r="C165" s="1">
         <v>0.0194929787981277</v>
@@ -11081,8 +11435,8 @@
       </c>
     </row>
     <row r="166" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A166" s="21" t="s">
-        <v>322</v>
+      <c r="A166" s="22" t="s">
+        <v>335</v>
       </c>
       <c r="C166" s="1">
         <v>0.0195058787212582</v>
@@ -11092,8 +11446,8 @@
       </c>
     </row>
     <row r="167" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A167" s="21" t="s">
-        <v>323</v>
+      <c r="A167" s="22" t="s">
+        <v>336</v>
       </c>
       <c r="C167" s="1">
         <v>0.0195187784270622</v>
@@ -11103,8 +11457,8 @@
       </c>
     </row>
     <row r="168" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A168" s="21" t="s">
-        <v>324</v>
+      <c r="A168" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="C168" s="1">
         <v>0.0195316779155347</v>
@@ -11114,8 +11468,8 @@
       </c>
     </row>
     <row r="169" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A169" s="21" t="s">
-        <v>325</v>
+      <c r="A169" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="C169" s="1">
         <v>0.0195445771866706</v>
@@ -11125,8 +11479,8 @@
       </c>
     </row>
     <row r="170" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A170" s="21" t="s">
-        <v>326</v>
+      <c r="A170" s="22" t="s">
+        <v>339</v>
       </c>
       <c r="C170" s="1">
         <v>0.0195574762404647</v>
@@ -11136,8 +11490,8 @@
       </c>
     </row>
     <row r="171" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A171" s="21" t="s">
-        <v>327</v>
+      <c r="A171" s="22" t="s">
+        <v>340</v>
       </c>
       <c r="C171" s="1">
         <v>0.0195703750769121</v>
@@ -11147,8 +11501,8 @@
       </c>
     </row>
     <row r="172" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A172" s="21" t="s">
-        <v>328</v>
+      <c r="A172" s="22" t="s">
+        <v>341</v>
       </c>
       <c r="C172" s="1">
         <v>0.0195832736960075</v>
@@ -11158,8 +11512,8 @@
       </c>
     </row>
     <row r="173" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A173" s="21" t="s">
-        <v>329</v>
+      <c r="A173" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="C173" s="1">
         <v>0.019596172097746</v>
@@ -11169,8 +11523,8 @@
       </c>
     </row>
     <row r="174" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A174" s="21" t="s">
-        <v>330</v>
+      <c r="A174" s="22" t="s">
+        <v>343</v>
       </c>
       <c r="C174" s="1">
         <v>0.0196090702821225</v>
@@ -11180,8 +11534,8 @@
       </c>
     </row>
     <row r="175" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A175" s="21" t="s">
-        <v>331</v>
+      <c r="A175" s="22" t="s">
+        <v>344</v>
       </c>
       <c r="C175" s="1">
         <v>0.0196219682491319</v>
@@ -11191,8 +11545,8 @@
       </c>
     </row>
     <row r="176" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A176" s="21" t="s">
-        <v>332</v>
+      <c r="A176" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="C176" s="1">
         <v>0.0196348659987691</v>
@@ -11202,8 +11556,8 @@
       </c>
     </row>
     <row r="177" ht="13.8" hidden="1" outlineLevel="2" spans="1:4">
-      <c r="A177" s="21" t="s">
-        <v>333</v>
+      <c r="A177" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="C177" s="1">
         <v>0.019647763531029</v>
@@ -11213,8 +11567,8 @@
       </c>
     </row>
     <row r="178" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A178" s="21" t="s">
-        <v>334</v>
+      <c r="A178" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="C178" s="1">
         <v>0.0196606608459067</v>
@@ -11224,8 +11578,8 @@
       </c>
     </row>
     <row r="179" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A179" s="21" t="s">
-        <v>335</v>
+      <c r="A179" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="C179" s="1">
         <v>0.0197896220375441</v>
@@ -11235,8 +11589,8 @@
       </c>
     </row>
     <row r="180" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A180" s="21" t="s">
-        <v>336</v>
+      <c r="A180" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="C180" s="1">
         <v>0.0199185614853958</v>
@@ -11246,8 +11600,8 @@
       </c>
     </row>
     <row r="181" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A181" s="21" t="s">
-        <v>337</v>
+      <c r="A181" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="C181" s="1">
         <v>0.0200474791844324</v>
@@ -11257,8 +11611,8 @@
       </c>
     </row>
     <row r="182" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A182" s="21" t="s">
-        <v>338</v>
+      <c r="A182" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="C182" s="1">
         <v>0.020176375129646</v>
@@ -11268,8 +11622,8 @@
       </c>
     </row>
     <row r="183" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A183" s="21" t="s">
-        <v>339</v>
+      <c r="A183" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="C183" s="1">
         <v>0.0203052493160502</v>
@@ -11279,8 +11633,8 @@
       </c>
     </row>
     <row r="184" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A184" s="21" t="s">
-        <v>340</v>
+      <c r="A184" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="C184" s="1">
         <v>0.0204341017386801</v>
@@ -11290,8 +11644,8 @@
       </c>
     </row>
     <row r="185" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A185" s="21" t="s">
-        <v>341</v>
+      <c r="A185" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="C185" s="1">
         <v>0.0205629323925921</v>
@@ -11301,8 +11655,8 @@
       </c>
     </row>
     <row r="186" ht="13.8" collapsed="1" spans="1:4">
-      <c r="A186" s="21" t="s">
-        <v>342</v>
+      <c r="A186" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="C186" s="1">
         <v>0.020691741272864</v>
@@ -11312,8 +11666,8 @@
       </c>
     </row>
     <row r="187" ht="13.8" spans="1:4">
-      <c r="A187" s="21" t="s">
-        <v>343</v>
+      <c r="A187" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="C187" s="1">
         <v>0.0219786314576869</v>
@@ -11323,8 +11677,8 @@
       </c>
     </row>
     <row r="188" ht="13.8" spans="1:4">
-      <c r="A188" s="21" t="s">
-        <v>344</v>
+      <c r="A188" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="C188" s="1">
         <v>0.0232633390210446</v>
@@ -11334,8 +11688,8 @@
       </c>
     </row>
     <row r="189" ht="13.8" spans="1:4">
-      <c r="A189" s="21" t="s">
-        <v>345</v>
+      <c r="A189" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="C189" s="1">
         <v>0.0245458593864223</v>
@@ -11345,1324 +11699,2010 @@
       </c>
     </row>
     <row r="192" ht="13.8" spans="1:5">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="20" t="s">
+      <c r="A193" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B193">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="C193" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E193" s="12" t="s">
-        <v>346</v>
+      <c r="C193" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="F193" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C194" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="195" ht="13.8" spans="1:11">
-      <c r="A195" s="21" t="s">
-        <v>250</v>
+      <c r="A195" s="22" t="s">
+        <v>263</v>
       </c>
       <c r="C195" s="1">
         <v>0.0303637085719927</v>
       </c>
-      <c r="F195" s="20" t="s">
+      <c r="F195" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G195">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H195" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="I195" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K195" s="13">
+      <c r="H195" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I195" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K195" s="1">
         <v>0.0307066282624829</v>
       </c>
     </row>
     <row r="196" ht="13.8" spans="1:11">
-      <c r="A196" s="21" t="s">
-        <v>314</v>
+      <c r="A196" s="22" t="s">
+        <v>327</v>
       </c>
       <c r="C196" s="1">
         <v>0.0325226289435405</v>
       </c>
-      <c r="F196" s="20" t="s">
+      <c r="F196" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G196">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H196" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="I196" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K196" s="13">
+      <c r="H196" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I196" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K196" s="1">
         <v>0.03282722575299</v>
       </c>
     </row>
     <row r="197" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A197" s="21" t="s">
-        <v>324</v>
+      <c r="A197" s="22" t="s">
+        <v>337</v>
       </c>
       <c r="C197" s="1">
         <v>0.0327382232273751</v>
       </c>
       <c r="D197" s="1"/>
-      <c r="F197" s="20" t="s">
+      <c r="F197" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G197">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H197" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="I197" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K197" s="13">
+      <c r="H197" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="I197" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K197" s="1">
         <v>0.0330385588857948</v>
       </c>
     </row>
     <row r="198" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A198" s="21" t="s">
-        <v>334</v>
+      <c r="A198" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="C198" s="1">
         <v>0.0329537633743656</v>
       </c>
-      <c r="F198" s="20" t="s">
+      <c r="F198" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G198">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H198" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="I198" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K198" s="13">
+      <c r="H198" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="I198" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K198" s="1">
         <v>0.0332497605740814</v>
       </c>
     </row>
     <row r="199" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A199" s="21" t="s">
-        <v>335</v>
+      <c r="A199" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="C199" s="1">
         <v>0.033169249384692</v>
       </c>
-      <c r="F199" s="20" t="s">
+      <c r="F199" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G199">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H199" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="I199" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K199" s="13">
+      <c r="H199" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="I199" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K199" s="1">
         <v>0.0334608309836609</v>
       </c>
     </row>
     <row r="200" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A200" s="21" t="s">
-        <v>336</v>
+      <c r="A200" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="C200" s="1">
         <v>0.03338468125858</v>
       </c>
-      <c r="F200" s="20" t="s">
+      <c r="F200" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G200">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H200" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="I200" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K200" s="13">
+      <c r="H200" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="I200" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K200" s="1">
         <v>0.0336717702800173</v>
       </c>
     </row>
     <row r="201" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A201" s="21" t="s">
-        <v>337</v>
+      <c r="A201" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="C201" s="1">
         <v>0.0336000589963005</v>
       </c>
-      <c r="F201" s="20" t="s">
+      <c r="F201" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G201">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H201" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="I201" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K201" s="13">
+      <c r="H201" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="I201" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K201" s="1">
         <v>0.0338825786283084</v>
       </c>
     </row>
     <row r="202" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A202" s="21" t="s">
-        <v>338</v>
+      <c r="A202" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="C202" s="1">
         <v>0.0338153825981698</v>
       </c>
-      <c r="F202" s="20" t="s">
+      <c r="F202" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G202">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H202" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="I202" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K202" s="13">
+      <c r="H202" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="I202" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K202" s="1">
         <v>0.0340932561933668</v>
       </c>
     </row>
     <row r="203" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A203" s="21" t="s">
-        <v>339</v>
+      <c r="A203" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="C203" s="1">
         <v>0.0340306520645494</v>
       </c>
-      <c r="F203" s="20" t="s">
+      <c r="F203" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G203">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H203" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I203" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K203" s="13">
+      <c r="H203" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="I203" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K203" s="1">
         <v>0.034303803139701</v>
       </c>
     </row>
     <row r="204" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A204" s="21" t="s">
-        <v>340</v>
+      <c r="A204" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="C204" s="1">
         <v>0.0342458673958457</v>
       </c>
-      <c r="F204" s="20" t="s">
+      <c r="F204" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G204">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H204" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="I204" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K204" s="13">
+      <c r="H204" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="I204" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K204" s="1">
         <v>0.0345142196314953</v>
       </c>
     </row>
     <row r="205" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A205" s="21" t="s">
-        <v>341</v>
+      <c r="A205" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="C205" s="1">
         <v>0.03446102859251</v>
       </c>
-      <c r="F205" s="20" t="s">
+      <c r="F205" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G205">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H205" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="I205" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K205" s="13">
+      <c r="H205" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I205" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K205" s="1">
         <v>0.0347245058326121</v>
       </c>
     </row>
     <row r="206" ht="13.8" collapsed="1" spans="1:11">
-      <c r="A206" s="21" t="s">
-        <v>342</v>
+      <c r="A206" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="C206" s="1">
         <v>0.0346761356550385</v>
       </c>
-      <c r="F206" s="20" t="s">
+      <c r="F206" s="21" t="s">
         <v>3</v>
       </c>
       <c r="G206">
         <f>BC!$G$4</f>
         <v>0.298587962962963</v>
       </c>
-      <c r="H206" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="I206" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K206" s="13">
+      <c r="H206" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="I206" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K206" s="1">
         <v>0.0349346619065914</v>
       </c>
     </row>
     <row r="208" ht="13.8" spans="1:5">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="209" spans="1:6">
-      <c r="A209" s="22" t="s">
+      <c r="A209" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="C209" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E209" s="12" t="s">
-        <v>346</v>
+      <c r="C209" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="F209" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" ht="13.8" spans="1:11">
-      <c r="A211" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C211" s="13">
+      <c r="A211" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C211" s="1">
         <v>0.0134939483657124</v>
       </c>
-      <c r="F211" s="22" t="s">
+      <c r="F211" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="4">
+      <c r="G211" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H211" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="I211" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K211" s="13">
+      <c r="H211" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="I211" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K211" s="1">
         <v>0.0136424564467213</v>
       </c>
     </row>
     <row r="212" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A212" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C212" s="13">
+      <c r="A212" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C212" s="1">
         <v>0.0135903189405698</v>
       </c>
-      <c r="F212" s="22" t="s">
+      <c r="F212" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="4">
+      <c r="G212" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H212" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="I212" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K212" s="13">
+      <c r="H212" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="I212" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K212" s="1">
         <v>0.0137373063436915</v>
       </c>
     </row>
     <row r="213" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A213" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C213" s="13">
+      <c r="A213" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C213" s="1">
         <v>0.0136866692903661</v>
       </c>
-      <c r="F213" s="22" t="s">
+      <c r="F213" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="4">
+      <c r="G213" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H213" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="I213" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K213" s="13">
+      <c r="H213" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="I213" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K213" s="1">
         <v>0.0138321018618597</v>
       </c>
     </row>
     <row r="214" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A214" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C214" s="13">
+      <c r="A214" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="C214" s="1">
         <v>0.0137829993916999</v>
       </c>
-      <c r="F214" s="22" t="s">
+      <c r="F214" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G214" s="4">
+      <c r="G214" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H214" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="I214" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K214" s="13">
+      <c r="H214" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="I214" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K214" s="1">
         <v>0.0139268430742091</v>
       </c>
     </row>
     <row r="215" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A215" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="C215" s="13">
+      <c r="A215" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="C215" s="1">
         <v>0.0138793092212559</v>
       </c>
-      <c r="F215" s="22" t="s">
+      <c r="F215" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G215" s="4">
+      <c r="G215" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H215" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="I215" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K215" s="13">
+      <c r="H215" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="I215" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K215" s="1">
         <v>0.0140215300535683</v>
       </c>
     </row>
     <row r="216" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A216" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="C216" s="13">
+      <c r="A216" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C216" s="1">
         <v>0.0139755987558038</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="F216" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="4">
+      <c r="G216" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H216" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="I216" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K216" s="13">
+      <c r="H216" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="I216" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K216" s="1">
         <v>0.0141161628726118</v>
       </c>
     </row>
     <row r="217" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A217" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="C217" s="13">
+      <c r="A217" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" s="1">
         <v>0.0140718679721986</v>
       </c>
-      <c r="F217" s="22" t="s">
+      <c r="F217" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G217" s="4">
+      <c r="G217" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H217" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="I217" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K217" s="13">
+      <c r="H217" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="I217" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K217" s="1">
         <v>0.0142107416038605</v>
       </c>
     </row>
     <row r="218" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A218" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="C218" s="13">
+      <c r="A218" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C218" s="1">
         <v>0.0141681168473801</v>
       </c>
-      <c r="F218" s="22" t="s">
+      <c r="F218" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="4">
+      <c r="G218" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H218" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="I218" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K218" s="13">
+      <c r="H218" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="I218" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K218" s="1">
         <v>0.0143052663196822</v>
       </c>
     </row>
     <row r="219" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A219" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="C219" s="13">
+      <c r="A219" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C219" s="1">
         <v>0.014264345358373</v>
       </c>
-      <c r="F219" s="22" t="s">
+      <c r="F219" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G219" s="4">
+      <c r="G219" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H219" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="I219" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K219" s="13">
+      <c r="H219" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="I219" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K219" s="1">
         <v>0.0143997370922917</v>
       </c>
     </row>
     <row r="220" ht="13.8" hidden="1" outlineLevel="1" spans="1:11">
-      <c r="A220" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C220" s="13">
+      <c r="A220" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="1">
         <v>0.0143605534822863</v>
       </c>
-      <c r="F220" s="22" t="s">
+      <c r="F220" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G220" s="4">
+      <c r="G220" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H220" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="I220" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K220" s="13">
+      <c r="H220" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="I220" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K220" s="1">
         <v>0.0144941539937516</v>
       </c>
     </row>
     <row r="221" ht="13.8" collapsed="1" spans="1:11">
-      <c r="A221" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C221" s="13">
+      <c r="A221" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C221" s="1">
         <v>0.0144567411963133</v>
       </c>
-      <c r="F221" s="22" t="s">
+      <c r="F221" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="4">
+      <c r="G221" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H221" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="I221" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K221" s="13">
+      <c r="H221" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I221" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K221" s="1">
         <v>0.0145885170959727</v>
       </c>
     </row>
     <row r="223" ht="13.8" spans="1:5">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="224" spans="1:6">
-      <c r="A224" s="22" t="s">
+      <c r="A224" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="C224" s="23" t="s">
+      <c r="C224" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E224" s="12" t="s">
-        <v>346</v>
+      <c r="D224" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="F224" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C225" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="226" ht="13.8" spans="1:11">
-      <c r="A226" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="C226" s="13">
+      <c r="A226" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="C226" s="1">
         <v>0.0784309742250536</v>
       </c>
-      <c r="F226" s="22" t="s">
+      <c r="F226" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G226" s="4">
+      <c r="G226" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H226" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="I226" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K226" s="13">
+      <c r="H226" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="I226" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K226" s="1">
         <v>0.0524825714672126</v>
       </c>
     </row>
     <row r="227" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C227" s="13"/>
-      <c r="F227" s="22" t="s">
+      <c r="C227" s="1"/>
+      <c r="F227" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G227" s="4">
+      <c r="G227" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H227" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="I227" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K227" s="13">
+      <c r="H227" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="I227" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K227" s="1">
         <v>0.053237741629711</v>
       </c>
     </row>
     <row r="228" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C228" s="13"/>
-      <c r="F228" s="22" t="s">
+      <c r="C228" s="1"/>
+      <c r="F228" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="4">
+      <c r="G228" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H228" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="I228" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K228" s="13">
+      <c r="H228" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="I228" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K228" s="1">
         <v>0.053989729889269</v>
       </c>
     </row>
     <row r="229" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C229" s="13"/>
-      <c r="F229" s="22" t="s">
+      <c r="C229" s="1"/>
+      <c r="F229" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G229" s="4">
+      <c r="G229" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H229" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="I229" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K229" s="13">
+      <c r="H229" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="I229" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K229" s="1">
         <v>0.0547385671187077</v>
       </c>
     </row>
     <row r="230" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C230" s="13"/>
-      <c r="F230" s="22" t="s">
+      <c r="C230" s="1"/>
+      <c r="F230" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G230" s="4">
+      <c r="G230" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H230" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="I230" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K230" s="13">
+      <c r="H230" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="I230" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K230" s="1">
         <v>0.0554842837131541</v>
       </c>
     </row>
     <row r="231" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C231" s="13"/>
-      <c r="F231" s="22" t="s">
+      <c r="C231" s="1"/>
+      <c r="F231" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="4">
+      <c r="G231" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H231" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I231" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K231" s="13">
+      <c r="H231" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I231" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K231" s="1">
         <v>0.0562269096000822</v>
       </c>
     </row>
     <row r="232" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C232" s="13"/>
-      <c r="F232" s="22" t="s">
+      <c r="C232" s="1"/>
+      <c r="F232" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="4">
+      <c r="G232" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H232" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="I232" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K232" s="13">
+      <c r="H232" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="I232" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K232" s="1">
         <v>0.0569664742490914</v>
       </c>
     </row>
     <row r="233" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C233" s="13"/>
-      <c r="F233" s="22" t="s">
+      <c r="C233" s="1"/>
+      <c r="F233" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="4">
+      <c r="G233" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H233" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="I233" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K233" s="13">
+      <c r="H233" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I233" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K233" s="1">
         <v>0.0577030066814298</v>
       </c>
     </row>
     <row r="234" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C234" s="13"/>
-      <c r="F234" s="22" t="s">
+      <c r="C234" s="1"/>
+      <c r="F234" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G234" s="4">
+      <c r="G234" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H234" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="I234" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K234" s="13">
+      <c r="H234" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="I234" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K234" s="1">
         <v>0.0584365354792699</v>
       </c>
     </row>
     <row r="235" ht="13.8" hidden="1" outlineLevel="1" spans="3:11">
-      <c r="C235" s="13"/>
-      <c r="F235" s="22" t="s">
+      <c r="C235" s="1"/>
+      <c r="F235" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G235" s="4">
+      <c r="G235" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H235" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="I235" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K235" s="13">
+      <c r="H235" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I235" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K235" s="1">
         <v>0.0591670887947445</v>
       </c>
     </row>
     <row r="236" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C236" s="13"/>
-      <c r="F236" s="22" t="s">
+      <c r="C236" s="1"/>
+      <c r="F236" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G236" s="4">
+      <c r="G236" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H236" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="I236" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K236" s="13">
+      <c r="H236" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="I236" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K236" s="1">
         <v>0.0592399815460039</v>
       </c>
     </row>
     <row r="237" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C237" s="13"/>
-      <c r="F237" s="22" t="s">
+      <c r="C237" s="1"/>
+      <c r="F237" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G237" s="4">
+      <c r="G237" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H237" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="I237" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K237" s="13">
+      <c r="H237" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="I237" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K237" s="1">
         <v>0.0593128448475909</v>
       </c>
     </row>
     <row r="238" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C238" s="13"/>
-      <c r="F238" s="22" t="s">
+      <c r="C238" s="1"/>
+      <c r="F238" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G238" s="4">
+      <c r="G238" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H238" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="I238" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K238" s="13">
+      <c r="H238" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="I238" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K238" s="1">
         <v>0.0593856787269662</v>
       </c>
     </row>
     <row r="239" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C239" s="13"/>
-      <c r="F239" s="22" t="s">
+      <c r="C239" s="1"/>
+      <c r="F239" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G239" s="4">
+      <c r="G239" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H239" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="I239" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K239" s="13">
+      <c r="H239" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="I239" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K239" s="1">
         <v>0.0594584832115492</v>
       </c>
     </row>
     <row r="240" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C240" s="13"/>
-      <c r="F240" s="22" t="s">
+      <c r="C240" s="1"/>
+      <c r="F240" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G240" s="4">
+      <c r="G240" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H240" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="I240" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K240" s="13">
+      <c r="H240" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I240" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K240" s="1">
         <v>0.0595312583287187</v>
       </c>
     </row>
     <row r="241" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C241" s="13"/>
-      <c r="F241" s="22" t="s">
+      <c r="C241" s="1"/>
+      <c r="F241" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G241" s="4">
+      <c r="G241" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H241" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="I241" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K241" s="13">
+      <c r="H241" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="I241" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K241" s="1">
         <v>0.0596040041058122</v>
       </c>
     </row>
     <row r="242" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C242" s="13"/>
-      <c r="F242" s="22" t="s">
+      <c r="C242" s="1"/>
+      <c r="F242" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G242" s="4">
+      <c r="G242" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H242" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="I242" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K242" s="13">
+      <c r="H242" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="I242" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K242" s="1">
         <v>0.0596767205701264</v>
       </c>
     </row>
     <row r="243" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C243" s="13"/>
-      <c r="F243" s="22" t="s">
+      <c r="C243" s="1"/>
+      <c r="F243" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G243" s="4">
+      <c r="G243" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H243" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="I243" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K243" s="13">
+      <c r="H243" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I243" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K243" s="1">
         <v>0.0597494077489175</v>
       </c>
     </row>
     <row r="244" ht="13.8" hidden="1" outlineLevel="2" spans="3:11">
-      <c r="C244" s="13"/>
-      <c r="F244" s="22" t="s">
+      <c r="C244" s="1"/>
+      <c r="F244" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G244" s="4">
+      <c r="G244" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H244" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="I244" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K244" s="13">
+      <c r="H244" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="I244" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K244" s="1">
         <v>0.0598220656694008</v>
       </c>
     </row>
     <row r="245" ht="13.8" hidden="1" outlineLevel="1" collapsed="1" spans="3:11">
-      <c r="C245" s="13"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="4"/>
-      <c r="H245" s="4"/>
-      <c r="I245" s="4"/>
-      <c r="K245" s="13"/>
+      <c r="C245" s="1"/>
+      <c r="F245" s="4"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="K245" s="1"/>
     </row>
     <row r="246" ht="13.8" collapsed="1" spans="1:11">
-      <c r="A246" s="21" t="s">
+      <c r="A246" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C246" s="13">
+      <c r="C246" s="1">
         <v>0.078515201416758</v>
       </c>
-      <c r="F246" s="22" t="s">
+      <c r="F246" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G246" s="4">
+      <c r="G246" s="5">
         <f>BC!$G$2</f>
         <v>0.19874537037037</v>
       </c>
-      <c r="H246" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="I246" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K246" s="13">
+      <c r="H246" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="I246" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K246" s="1">
         <v>0.0598946943587511</v>
       </c>
     </row>
     <row r="247" ht="13.8" spans="1:9">
-      <c r="A247" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C247" s="13">
+      <c r="A247" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C247" s="1">
         <v>0.0792801881660655</v>
       </c>
-      <c r="F247" s="3"/>
-      <c r="G247" s="4"/>
-      <c r="H247" s="4"/>
-      <c r="I247" s="4"/>
+      <c r="F247" s="4"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
     </row>
     <row r="248" ht="13.8" spans="1:9">
-      <c r="A248" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C248" s="13">
+      <c r="A248" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C248" s="1">
         <v>0.0801286484722593</v>
       </c>
-      <c r="F248" s="3"/>
-      <c r="G248" s="4"/>
-      <c r="H248" s="4"/>
-      <c r="I248" s="4"/>
+      <c r="F248" s="4"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
     </row>
     <row r="249" ht="13.8" spans="1:9">
-      <c r="A249" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C249" s="13">
+      <c r="A249" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C249" s="1">
         <v>0.0809754826531009</v>
       </c>
-      <c r="F249" s="3"/>
-      <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-      <c r="I249" s="4"/>
+      <c r="F249" s="4"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
     </row>
     <row r="250" ht="13.8" spans="1:9">
-      <c r="A250" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C250" s="13">
+      <c r="A250" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C250" s="1">
         <v>0.0818206697951643</v>
       </c>
-      <c r="F250" s="3"/>
-      <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
+      <c r="F250" s="4"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
     </row>
     <row r="251" ht="13.8" spans="1:9">
-      <c r="A251" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="C251" s="13">
+      <c r="A251" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C251" s="1">
         <v>0.0826641896854513</v>
       </c>
-      <c r="F251" s="3"/>
-      <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-      <c r="I251" s="4"/>
+      <c r="F251" s="4"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
     </row>
     <row r="253" ht="13.8" spans="1:9">
-      <c r="A253" s="2" t="s">
-        <v>191</v>
+      <c r="A253" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F253" s="1"/>
       <c r="I253" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="254" spans="1:6">
-      <c r="A254" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B254" s="9">
+      <c r="A254" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="10">
         <f>BC!$G$3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="C254" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" s="21" t="s">
+      <c r="C254" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E254" s="12" t="s">
-        <v>346</v>
+      <c r="E254" s="13" t="s">
+        <v>359</v>
       </c>
       <c r="F254" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C255" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" ht="13.8" spans="1:3">
-      <c r="A256" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C256" s="13">
+      <c r="A256" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C256" s="1">
         <v>0.0263445305666462</v>
       </c>
     </row>
     <row r="257" ht="13.8" spans="1:11">
-      <c r="A257" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C257" s="13">
+      <c r="A257" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C257" s="1">
         <v>0.0283672441102476</v>
       </c>
-      <c r="D257" s="13">
+      <c r="D257" s="1">
         <v>0.000301308559485825</v>
       </c>
-      <c r="K257" s="13"/>
+      <c r="K257" s="1"/>
     </row>
     <row r="258" ht="13.8" spans="1:12">
-      <c r="A258" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="C258" s="13">
+      <c r="A258" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C258" s="1">
         <v>0.0980128609002496</v>
       </c>
-      <c r="D258" s="13">
+      <c r="D258" s="1">
         <v>0.00398442777118551</v>
       </c>
-      <c r="F258" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G258" s="9">
+      <c r="F258" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G258" s="10">
         <f>BC!$G$3</f>
         <v>0.282515432098765</v>
       </c>
-      <c r="H258" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="I258" s="21" t="s">
+      <c r="H258" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I258" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K258" s="13">
+      <c r="K258" s="1">
         <v>0.244701858708424</v>
       </c>
-      <c r="L258" s="13">
+      <c r="L258" s="1">
         <v>0.0307111901146557</v>
       </c>
     </row>
-    <row r="259" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A259" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="C259" s="13">
+    <row r="259" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A259" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C259" s="1">
         <v>0.0998602740901472</v>
       </c>
-      <c r="D259" s="13">
+      <c r="D259" s="1">
         <v>0.00414893928632988</v>
       </c>
-    </row>
-    <row r="260" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A260" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C260" s="13">
+      <c r="F259" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G259" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H259" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I259" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A260" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C260" s="1">
         <v>0.101703053537324</v>
       </c>
-      <c r="D260" s="13">
+      <c r="D260" s="1">
         <v>0.00431685125027817</v>
       </c>
-    </row>
-    <row r="261" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A261" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="C261" s="13">
+      <c r="F260" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G260" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H260" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I260" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A261" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C261" s="1">
         <v>0.103541207286962</v>
       </c>
-      <c r="D261" s="13">
+      <c r="D261" s="1">
         <v>0.00448816383444768</v>
       </c>
-    </row>
-    <row r="262" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A262" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="C262" s="13">
+      <c r="F261" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G261" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H261" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I261" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A262" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C262" s="1">
         <v>0.105374743526917</v>
       </c>
-      <c r="D262" s="13">
+      <c r="D262" s="1">
         <v>0.00466287696433397</v>
       </c>
-    </row>
-    <row r="263" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A263" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="C263" s="13">
+      <c r="F262" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G262" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H262" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I262" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A263" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C263" s="1">
         <v>0.107203670583322</v>
       </c>
-      <c r="D263" s="13">
+      <c r="D263" s="1">
         <v>0.00484099032436452</v>
       </c>
-    </row>
-    <row r="264" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A264" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C264" s="13">
+      <c r="F263" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G263" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H263" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I263" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A264" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="C264" s="1">
         <v>0.109027996916296</v>
       </c>
-      <c r="D264" s="13">
+      <c r="D264" s="1">
         <v>0.00502250336265068</v>
       </c>
-    </row>
-    <row r="265" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A265" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="C265" s="13">
+      <c r="F264" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G264" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H264" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I264" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A265" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C265" s="1">
         <v>0.110847731115767</v>
       </c>
-      <c r="D265" s="13">
+      <c r="D265" s="1">
         <v>0.00520741529564041</v>
       </c>
-    </row>
-    <row r="266" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A266" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="C266" s="13">
+      <c r="F265" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G265" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H265" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I265" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A266" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C266" s="1">
         <v>0.112662881897386</v>
       </c>
-      <c r="D266" s="13">
+      <c r="D266" s="1">
         <v>0.00539572511267467</v>
       </c>
-    </row>
-    <row r="267" ht="13.8" hidden="1" outlineLevel="1" spans="1:4">
-      <c r="A267" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="C267" s="13">
+      <c r="F266" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G266" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H266" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I266" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" ht="13.8" hidden="1" outlineLevel="1" spans="1:9">
+      <c r="A267" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C267" s="1">
         <v>0.114473458098547</v>
       </c>
-      <c r="D267" s="13">
+      <c r="D267" s="1">
         <v>0.00558743158044919</v>
       </c>
-    </row>
-    <row r="268" ht="13.8" collapsed="1" spans="1:4">
-      <c r="A268" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="C268" s="13">
+      <c r="F267" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G267" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H267" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="I267" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" ht="13.8" collapsed="1" spans="1:12">
+      <c r="A268" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C268" s="1">
         <v>0.116279468674506</v>
       </c>
-      <c r="D268" s="13">
+      <c r="D268" s="1">
         <v>0.00578253324738456</v>
       </c>
+      <c r="F268" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G268" s="10">
+        <f>BC!$G$3</f>
+        <v>0.282515432098765</v>
+      </c>
+      <c r="H268" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I268" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K268" s="2">
+        <v>0.25792092742722</v>
+      </c>
+      <c r="L268" s="2">
+        <v>0.0347511727978778</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="274" ht="13.8" spans="1:5">
+      <c r="A274" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="275" ht="13.8" spans="1:8">
+      <c r="A275" t="s">
+        <v>394</v>
+      </c>
+      <c r="B275" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C275" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E275">
+        <f>1*BC!$I$5+10*BC!$J$5</f>
+        <v>5.43815221015112</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0.00984541850568544</v>
+      </c>
+      <c r="H275" s="14">
+        <v>5.10981697302455e-5</v>
+      </c>
+    </row>
+    <row r="276" ht="13.8" spans="1:8">
+      <c r="A276" t="s">
+        <v>395</v>
+      </c>
+      <c r="B276" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C276" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E276">
+        <f>1/(1*BC!$I$5)+1/(0.1*BC!$J$5)</f>
+        <v>22.2515944021859</v>
+      </c>
+      <c r="G276" s="2">
+        <v>0.00400852524860528</v>
+      </c>
+      <c r="H276" s="14">
+        <v>8.38506153654948e-6</v>
+      </c>
+    </row>
+    <row r="277" ht="13.8" spans="1:8">
+      <c r="A277" t="s">
+        <v>396</v>
+      </c>
+      <c r="B277" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C277" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D277" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E277">
+        <f>(1*BC!$I$5+10*BC!$J$5)/2</f>
+        <v>2.71907610507556</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0.0175015979436665</v>
+      </c>
+      <c r="H277" s="2">
+        <v>0.00016401166729096</v>
+      </c>
+    </row>
+    <row r="279" ht="13.8" spans="1:9">
+      <c r="A279" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F279" s="1"/>
+      <c r="I279" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="280" ht="13.8" spans="1:9">
+      <c r="A280" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" ht="13.8" spans="1:9">
+      <c r="A281" s="3"/>
+      <c r="B281" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C281" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E281">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="F281" s="1"/>
+      <c r="G281" s="2">
+        <v>0.0590925427942975</v>
+      </c>
+      <c r="H281" s="2">
+        <v>0.00146560255057005</v>
+      </c>
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" ht="13.8" spans="2:8">
+      <c r="B282" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C282" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0.0677216034547565</v>
+      </c>
+      <c r="H282" s="2">
+        <v>0.0019418242523067</v>
+      </c>
+    </row>
+    <row r="283" ht="13.8" spans="1:9">
+      <c r="A283" s="3"/>
+      <c r="B283" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C283" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D283" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E283">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="F283" s="1"/>
+      <c r="G283" s="2">
+        <v>0.100063413128613</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0.0044866686232969</v>
+      </c>
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" ht="13.8" spans="2:8">
+      <c r="B284" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C284" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="E284">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0.115078958541255</v>
+      </c>
+      <c r="H284" s="2">
+        <v>0.00612532954197424</v>
+      </c>
+    </row>
+    <row r="285" ht="13.8" spans="2:8">
+      <c r="B285" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C285" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D285" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E285">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0.129419293522735</v>
+      </c>
+      <c r="H285" s="2">
+        <v>0.00799224723476078</v>
+      </c>
+    </row>
+    <row r="287" ht="13.8" spans="1:1">
+      <c r="A287" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="288" ht="13.8" spans="1:8">
+      <c r="A288" s="3"/>
+      <c r="B288" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C288" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0.177947615234672</v>
+      </c>
+      <c r="H288" s="2">
+        <v>0.016194101106518</v>
+      </c>
+    </row>
+    <row r="289" ht="13.8" spans="1:8">
+      <c r="A289" s="3"/>
+      <c r="B289" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D289" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E289">
+        <v>1.5</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0.126144070390407</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0.00749686130012588</v>
+      </c>
+    </row>
+    <row r="290" ht="13.8" spans="1:8">
+      <c r="A290" t="s">
+        <v>396</v>
+      </c>
+      <c r="B290" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E290">
+        <f>(1/1*BC!$I$3+1/0.1*BC!$J$3)/2</f>
+        <v>1.84348936388136</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0.105755871035216</v>
+      </c>
+      <c r="H290" s="2">
+        <v>0.00509323779796649</v>
+      </c>
+    </row>
+    <row r="291" ht="13.8" spans="1:8">
+      <c r="A291" s="3"/>
+      <c r="B291" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D291" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0.0986487139522709</v>
+      </c>
+      <c r="H291" s="2">
+        <v>0.00437841353180648</v>
+      </c>
+    </row>
+    <row r="292" ht="13.8" spans="1:8">
+      <c r="A292" s="3"/>
+      <c r="B292" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D292" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0.0700425004032987</v>
+      </c>
+      <c r="H292" s="2">
+        <v>0.00209978664611967</v>
+      </c>
+    </row>
+    <row r="293" ht="13.8" spans="1:8">
+      <c r="A293" t="s">
+        <v>394</v>
+      </c>
+      <c r="B293" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D293" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E293">
+        <f>1/1*BC!$I$3+1/0.1*BC!$J$3</f>
+        <v>3.68697872776272</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0.0590925427942975</v>
+      </c>
+      <c r="H293" s="2">
+        <v>0.00146560255057005</v>
+      </c>
+    </row>
+    <row r="294" ht="13.8" spans="2:8">
+      <c r="B294" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294" s="10">
+        <f>BC!$H$3</f>
+        <v>0.263321960714897</v>
+      </c>
+      <c r="D294" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0.0463396084184129</v>
+      </c>
+      <c r="H294" s="2">
+        <v>0.000880838789498583</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="7"/>
+      <c r="C295" s="10"/>
+    </row>
+    <row r="296" ht="13.8" spans="1:5">
+      <c r="A296" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="297" ht="13.8" spans="1:8">
+      <c r="A297" t="s">
+        <v>396</v>
+      </c>
+      <c r="B297" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C297" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D297" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E297">
+        <f>(1*BC!$I$5+10*BC!$J$5)/2</f>
+        <v>2.71907610507556</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0.0354696125591889</v>
+      </c>
+      <c r="H297" s="2">
+        <v>0.000695666560953541</v>
+      </c>
+    </row>
+    <row r="298" ht="13.8" spans="1:8">
+      <c r="A298" s="7"/>
+      <c r="B298" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C298" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D298" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E298">
+        <f>1*BC!$I$5+10*BC!$J$5</f>
+        <v>5.43815221015112</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0.0279882465575482</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0.000431389145396468</v>
+      </c>
+    </row>
+    <row r="299" ht="13.8" spans="1:8">
+      <c r="A299" t="s">
+        <v>401</v>
+      </c>
+      <c r="B299" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C299" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="D299" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299">
+        <f>1*BC!$I$5+10*BC!$J$5</f>
+        <v>5.43815221015112</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0.0468670119912535</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0.00127719420242718</v>
+      </c>
+    </row>
+    <row r="301" ht="13.8" spans="1:5">
+      <c r="A301" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="302" ht="13.8" spans="1:7">
+      <c r="A302" t="s">
+        <v>396</v>
+      </c>
+      <c r="B302" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C302" s="1">
+        <f>BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E302">
+        <f>(1/0.01*BC!$I$6+1/0.1*BC!$J$6)/2</f>
+        <v>27.4665564407462</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0.00182924807085006</v>
+      </c>
+    </row>
+    <row r="303" ht="13.8" spans="2:8">
+      <c r="B303" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C303" s="1">
+        <f>BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D303" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="E303">
+        <f>1/0.01*BC!$I$6+1/0.1*BC!$J$6</f>
+        <v>54.9331128814924</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0.00102555835202897</v>
+      </c>
+      <c r="H303" s="14">
+        <v>5.28766072599101e-7</v>
+      </c>
+    </row>
+    <row r="304" ht="13.8" spans="1:8">
+      <c r="A304" t="s">
+        <v>401</v>
+      </c>
+      <c r="B304" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C304" s="1">
+        <f>BC!$H$6</f>
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="D304" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E304">
+        <f>1/0.01*BC!$I$6+1/0.1*BC!$J$6</f>
+        <v>54.9331128814924</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0.00124622076632202</v>
+      </c>
+      <c r="H304" s="14">
+        <v>7.81014653503399e-7</v>
+      </c>
+    </row>
+    <row r="306" ht="13.8" spans="1:9">
+      <c r="A306" s="3"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+      <c r="I306" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12674,53 +13714,59 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelRow="5"/>
   <cols>
     <col min="5" max="5" width="12.8888888888889"/>
-    <col min="7" max="7" width="14.3333333333333"/>
-    <col min="8" max="8" width="12.8888888888889"/>
+    <col min="7" max="8" width="14.3333333333333"/>
+    <col min="10" max="10" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="E1" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="F1" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="G1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" ht="13.8" spans="1:8">
-      <c r="A2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" spans="1:10">
+      <c r="A2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E2">
@@ -12738,18 +13784,25 @@
       <c r="H2" s="1">
         <v>0.196097034984798</v>
       </c>
-    </row>
-    <row r="3" ht="13.8" spans="1:8">
-      <c r="A3" s="21" t="s">
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <f>1-I2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8" spans="1:10">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E3">
@@ -12767,18 +13820,25 @@
       <c r="H3" s="1">
         <v>0.263321960714897</v>
       </c>
-    </row>
-    <row r="4" ht="13.8" spans="1:8">
-      <c r="A4" s="21" t="s">
+      <c r="I3" s="1">
+        <v>0.701446808026364</v>
+      </c>
+      <c r="J3">
+        <f>1-I3</f>
+        <v>0.298553191973636</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8" spans="1:10">
+      <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E4">
@@ -12795,9 +13855,62 @@
       <c r="H4" s="1">
         <v>0.292287297950888</v>
       </c>
-    </row>
-    <row r="5" ht="13.8" spans="7:7">
+      <c r="I4" s="1">
+        <v>0.668947213755164</v>
+      </c>
+      <c r="J4">
+        <f>1-I4</f>
+        <v>0.331052786244836</v>
+      </c>
+    </row>
+    <row r="5" ht="13.8" spans="1:10">
+      <c r="A5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0.0643409243106004</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.506871976649876</v>
+      </c>
+      <c r="J5">
+        <f>1-I5</f>
+        <v>0.493128023350124</v>
+      </c>
+    </row>
+    <row r="6" ht="13.8" spans="1:10">
+      <c r="A6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.0664234836210433</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.49925680979436</v>
+      </c>
+      <c r="J6">
+        <f>1-I6</f>
+        <v>0.50074319020564</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
